--- a/giftcodes.xlsx
+++ b/giftcodes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2516" uniqueCount="1432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2607" uniqueCount="1482">
   <si>
     <t>遊戲名稱</t>
   </si>
@@ -5290,12 +5290,225 @@
     <t>橫幅圖片檔名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>《屍戰王朝》是以朝鮮王朝為背景的屍戰驚悚 MMO 手遊，遊戲內設有王朝特色職業供玩家自由選擇。朝鮮王庭武士為朝鮮第一劍，天生的武藝奇才精通劍法，擅長揮舞長劍捍衛國家的榮譽和百姓的安寧。遊牧遊獵則是居住在朝鮮王朝北方邊境的民族，擅長使用短刀攻擊和召喚蒼鷹發射羽箭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《機甲變變變》是一款科幻機甲題材遊戲，主打「輕鬆射擊、瘋狂割草」的爽快戰鬥體驗，玩家將化身末日世界中的王牌機甲駕駛員，自由改裝各種帥氣、可愛機甲，搭配隕星炮、超級飛彈等毀滅級武器，無腦爽刷成群喪屍！ 單手就能輕鬆操作，見一個射一個，輕鬆上演千人斬，體驗無限割草快感，即使連戰數回也毫無壓力，真正做到「療癒又解壓」！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《狼少女蘭吉！》 7月1日 正式上線 Go Go Wolf Idle RPG 狼人變身放置型無限成長 RPG | 少女吃了西紅柿 月光下變身狼人 施展猛烈砍殺動作 召喚強大的技能 設定終極技能組合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由 Gravity Game Vision 打造的 MMORPG 手遊新作《RO 仙境傳說：曙光》今（3）日於港澳台地區雙平台（iOS / Android）正式上市。官方表示，本作延續《仙境傳說》經典 IP，結合創新的「英雄變身」與「雙人小隊」社交玩法，帶來全新 RO 體驗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西方魔幻風格網頁遊戲《星曲》的全新手機遊戲《星曲 Ultra》於今日正式上線。官方表示，本作由原班團隊第七大道打造，既保留了原作版本的核心元素，又結合行動裝置特性進行全面最佳化，經典與創新的完美融合，讓這個十三年前的經典 IP 煥發新生命力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屍戰王朝</t>
+  </si>
+  <si>
+    <r>
+      <t>RO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>仙境傳說</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>曙光</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星曲Ultra</t>
+  </si>
+  <si>
+    <t>狼少女蘭吉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>機甲變變變</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>welcome666</t>
+  </si>
+  <si>
+    <t>綁定金條*88、試煉石*15、魂力丹*30</t>
+  </si>
+  <si>
+    <t>DC888</t>
+  </si>
+  <si>
+    <t>綁定金條*188、靈體洗鍊石*10、精鐵*20</t>
+  </si>
+  <si>
+    <t>SZ6666</t>
+  </si>
+  <si>
+    <t>綁定金條*188、突破丹·騎*20、靈畫符·騎*50</t>
+  </si>
+  <si>
+    <t>SZ8888</t>
+  </si>
+  <si>
+    <t>綁定金條*300、精鐵*20、銅錢*18.89萬</t>
+  </si>
+  <si>
+    <t>Nikki666</t>
+  </si>
+  <si>
+    <t>2倍經驗藥水*1、銅錢*10萬、精鐵*5</t>
+  </si>
+  <si>
+    <t>Nikki888</t>
+  </si>
+  <si>
+    <t>突破丹·騎*5、靈畫符·騎*30、尋寶票*3</t>
+  </si>
+  <si>
+    <t>靈玉袋*5、魂力丹*10、精鐵*3</t>
+  </si>
+  <si>
+    <t>圖騰袋*5、靈畫符·騎*10、綺羅珠*20</t>
+  </si>
+  <si>
+    <t>神龕*2、騎寵進階料箱*10、尋寶票*3</t>
+  </si>
+  <si>
+    <t>鬼化丹·寵*10、精鐵*3、道門升級材料箱*5</t>
+  </si>
+  <si>
+    <t>尋寶票*3、綺羅珠*20、魂力丹*5</t>
+  </si>
+  <si>
+    <t>華裳幣*2、秘鑰·紅塵煉心*1、尋寶票*3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MICHAN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF222222"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鑽石* 100，部件抽獎鑰匙* 1 ，飾品碎片*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA3333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鑽石* 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA7777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>強化石* 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA2025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金幣* 10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVIP666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVIP888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J0RO666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6tanRO666</t>
+  </si>
+  <si>
+    <t>RPG666</t>
+  </si>
+  <si>
+    <t>ROG888</t>
+  </si>
+  <si>
+    <t>FBHAPPY</t>
+  </si>
+  <si>
+    <t>ROSG</t>
+  </si>
+  <si>
+    <t>RO666</t>
+  </si>
+  <si>
+    <t>RO888</t>
+  </si>
+  <si>
+    <t>RO2025</t>
+  </si>
+  <si>
+    <t>RO999</t>
+  </si>
+  <si>
+    <t>VIPFree</t>
+  </si>
+  <si>
+    <t>更新中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5330,16 +5543,80 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0F0F0F"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -5347,11 +5624,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5376,6 +5677,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -5683,13 +6001,13 @@
   <dimension ref="A1:AW657"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="M139" sqref="M139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5"/>
   <cols>
     <col min="1" max="1" width="27.85546875" style="2" customWidth="1"/>
     <col min="2" max="3" width="37.28515625" style="2" customWidth="1"/>
@@ -5699,7 +6017,7 @@
     <col min="35" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5848,7 +6166,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>107</v>
       </c>
@@ -5983,7 +6301,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="3" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>108</v>
       </c>
@@ -6028,7 +6346,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>109</v>
       </c>
@@ -6070,7 +6388,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="5" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>110</v>
       </c>
@@ -6169,7 +6487,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="6" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>111</v>
       </c>
@@ -6196,7 +6514,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>112</v>
       </c>
@@ -6259,7 +6577,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>113</v>
       </c>
@@ -6316,7 +6634,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="9" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>114</v>
       </c>
@@ -6409,7 +6727,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>115</v>
       </c>
@@ -6478,7 +6796,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>116</v>
       </c>
@@ -6517,7 +6835,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="12" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>117</v>
       </c>
@@ -6550,7 +6868,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="13" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>118</v>
       </c>
@@ -6619,7 +6937,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>119</v>
       </c>
@@ -6712,7 +7030,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="15" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>120</v>
       </c>
@@ -6763,7 +7081,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="16" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>121</v>
       </c>
@@ -6790,7 +7108,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" ht="19.899999999999999" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>122</v>
       </c>
@@ -6853,7 +7171,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" ht="19.899999999999999" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>123</v>
       </c>
@@ -6898,7 +7216,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" ht="19.899999999999999" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>124</v>
       </c>
@@ -6967,7 +7285,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" ht="19.899999999999999" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>125</v>
       </c>
@@ -7054,7 +7372,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>126</v>
       </c>
@@ -7105,7 +7423,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" ht="19.899999999999999" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>127</v>
       </c>
@@ -7132,7 +7450,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" ht="19.899999999999999" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>128</v>
       </c>
@@ -7213,7 +7531,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" ht="19.899999999999999" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>129</v>
       </c>
@@ -7270,7 +7588,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" ht="19.899999999999999" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>130</v>
       </c>
@@ -7345,7 +7663,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" ht="19.899999999999999" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>131</v>
       </c>
@@ -7375,7 +7693,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" ht="19.899999999999999" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>132</v>
       </c>
@@ -7396,7 +7714,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" ht="19.899999999999999" customHeight="1">
       <c r="A28" s="5" t="s">
         <v>133</v>
       </c>
@@ -7429,7 +7747,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" ht="19.899999999999999" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>134</v>
       </c>
@@ -7456,7 +7774,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" ht="19.899999999999999" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>135</v>
       </c>
@@ -7525,7 +7843,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" ht="19.899999999999999" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>136</v>
       </c>
@@ -7564,7 +7882,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" ht="19.899999999999999" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>137</v>
       </c>
@@ -7591,7 +7909,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" ht="19.899999999999999" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>138</v>
       </c>
@@ -7678,7 +7996,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:35" ht="19.899999999999999" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>139</v>
       </c>
@@ -7771,7 +8089,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:35" ht="19.899999999999999" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>140</v>
       </c>
@@ -7816,7 +8134,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:35" ht="19.899999999999999" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>141</v>
       </c>
@@ -7879,7 +8197,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:35" ht="19.899999999999999" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>142</v>
       </c>
@@ -7912,7 +8230,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="38" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:35" ht="19.899999999999999" customHeight="1">
       <c r="A38" s="5" t="s">
         <v>336</v>
       </c>
@@ -7957,7 +8275,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:35" ht="19.899999999999999" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>143</v>
       </c>
@@ -8002,7 +8320,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="40" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:35" ht="19.899999999999999" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>144</v>
       </c>
@@ -8053,7 +8371,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="41" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:35" ht="19.899999999999999" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>145</v>
       </c>
@@ -8116,7 +8434,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="42" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:35" ht="19.899999999999999" customHeight="1">
       <c r="A42" s="5" t="s">
         <v>146</v>
       </c>
@@ -8215,7 +8533,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="43" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:35" ht="19.899999999999999" customHeight="1">
       <c r="A43" s="5" t="s">
         <v>147</v>
       </c>
@@ -8314,7 +8632,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="44" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:35" ht="19.899999999999999" customHeight="1">
       <c r="A44" s="5" t="s">
         <v>148</v>
       </c>
@@ -8389,7 +8707,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="45" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:35" ht="19.899999999999999" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>149</v>
       </c>
@@ -8488,7 +8806,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="46" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:35" ht="19.899999999999999" customHeight="1">
       <c r="A46" s="5" t="s">
         <v>150</v>
       </c>
@@ -8545,7 +8863,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="47" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:35" ht="19.899999999999999" customHeight="1">
       <c r="A47" s="5" t="s">
         <v>151</v>
       </c>
@@ -8596,7 +8914,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="48" spans="1:35" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:35" ht="19.899999999999999" customHeight="1">
       <c r="A48" s="5" t="s">
         <v>152</v>
       </c>
@@ -8677,7 +8995,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="49" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A49" s="5" t="s">
         <v>153</v>
       </c>
@@ -8722,7 +9040,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="50" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A50" s="5" t="s">
         <v>154</v>
       </c>
@@ -8791,7 +9109,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="51" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A51" s="5" t="s">
         <v>155</v>
       </c>
@@ -8836,7 +9154,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="52" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A52" s="5" t="s">
         <v>156</v>
       </c>
@@ -8869,7 +9187,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="53" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A53" s="5" t="s">
         <v>157</v>
       </c>
@@ -8914,7 +9232,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="54" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A54" s="5" t="s">
         <v>158</v>
       </c>
@@ -9043,7 +9361,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="55" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A55" s="5" t="s">
         <v>159</v>
       </c>
@@ -9160,7 +9478,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="56" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A56" s="5" t="s">
         <v>160</v>
       </c>
@@ -9237,7 +9555,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="57" spans="1:49" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:49" ht="34.5" customHeight="1">
       <c r="A57" s="5" t="s">
         <v>161</v>
       </c>
@@ -9330,7 +9648,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="58" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A58" s="5" t="s">
         <v>162</v>
       </c>
@@ -9369,7 +9687,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="59" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A59" s="5" t="s">
         <v>163</v>
       </c>
@@ -9444,7 +9762,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="60" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A60" s="5" t="s">
         <v>164</v>
       </c>
@@ -9543,7 +9861,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="61" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A61" s="5" t="s">
         <v>52</v>
       </c>
@@ -9570,7 +9888,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="62" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A62" s="5" t="s">
         <v>165</v>
       </c>
@@ -9681,7 +9999,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="63" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A63" s="5" t="s">
         <v>166</v>
       </c>
@@ -9822,7 +10140,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="64" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A64" s="5" t="s">
         <v>167</v>
       </c>
@@ -9855,7 +10173,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="65" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:45" ht="19.899999999999999" customHeight="1">
       <c r="A65" s="5" t="s">
         <v>168</v>
       </c>
@@ -9912,7 +10230,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="66" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:45" ht="19.899999999999999" customHeight="1">
       <c r="A66" s="5" t="s">
         <v>169</v>
       </c>
@@ -9969,7 +10287,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="67" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:45" ht="19.899999999999999" customHeight="1">
       <c r="A67" s="5" t="s">
         <v>170</v>
       </c>
@@ -10032,7 +10350,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="68" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:45" ht="19.899999999999999" customHeight="1">
       <c r="A68" s="5" t="s">
         <v>171</v>
       </c>
@@ -10107,7 +10425,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="69" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:45" ht="19.899999999999999" customHeight="1">
       <c r="A69" s="5" t="s">
         <v>172</v>
       </c>
@@ -10146,7 +10464,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="70" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:45" ht="19.899999999999999" customHeight="1">
       <c r="A70" s="5" t="s">
         <v>173</v>
       </c>
@@ -10185,7 +10503,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="71" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:45" ht="19.899999999999999" customHeight="1">
       <c r="A71" s="5" t="s">
         <v>174</v>
       </c>
@@ -10314,7 +10632,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="72" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:45" ht="19.899999999999999" customHeight="1">
       <c r="A72" s="5" t="s">
         <v>175</v>
       </c>
@@ -10341,7 +10659,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="73" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:45" ht="19.899999999999999" customHeight="1">
       <c r="A73" s="5" t="s">
         <v>176</v>
       </c>
@@ -10380,7 +10698,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="74" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:45" ht="19.899999999999999" customHeight="1">
       <c r="A74" s="5" t="s">
         <v>177</v>
       </c>
@@ -10467,7 +10785,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="75" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:45" ht="19.899999999999999" customHeight="1">
       <c r="A75" s="5" t="s">
         <v>178</v>
       </c>
@@ -10554,7 +10872,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="76" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:45" ht="19.899999999999999" customHeight="1">
       <c r="A76" s="5" t="s">
         <v>179</v>
       </c>
@@ -10593,7 +10911,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="77" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:45" ht="19.899999999999999" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>180</v>
       </c>
@@ -10662,7 +10980,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="78" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:45" ht="19.899999999999999" customHeight="1">
       <c r="A78" s="5" t="s">
         <v>181</v>
       </c>
@@ -10731,7 +11049,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="79" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:45" ht="19.899999999999999" customHeight="1">
       <c r="A79" s="5" t="s">
         <v>182</v>
       </c>
@@ -10812,7 +11130,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="80" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:45" ht="19.899999999999999" customHeight="1">
       <c r="A80" s="5" t="s">
         <v>183</v>
       </c>
@@ -10875,7 +11193,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="81" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A81" s="5" t="s">
         <v>184</v>
       </c>
@@ -10926,7 +11244,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="82" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A82" s="5" t="s">
         <v>185</v>
       </c>
@@ -10986,7 +11304,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="83" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A83" s="5" t="s">
         <v>186</v>
       </c>
@@ -11043,7 +11361,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="84" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A84" s="5" t="s">
         <v>187</v>
       </c>
@@ -11085,7 +11403,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="85" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A85" s="5" t="s">
         <v>188</v>
       </c>
@@ -11160,7 +11478,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="86" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A86" s="5" t="s">
         <v>189</v>
       </c>
@@ -11193,7 +11511,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="87" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A87" s="5" t="s">
         <v>190</v>
       </c>
@@ -11292,7 +11610,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="88" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A88" s="5" t="s">
         <v>191</v>
       </c>
@@ -11361,7 +11679,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="89" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A89" s="5" t="s">
         <v>192</v>
       </c>
@@ -11388,7 +11706,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="90" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A90" s="5" t="s">
         <v>193</v>
       </c>
@@ -11430,7 +11748,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="91" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A91" s="5" t="s">
         <v>194</v>
       </c>
@@ -11469,7 +11787,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="92" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A92" s="5" t="s">
         <v>195</v>
       </c>
@@ -11586,7 +11904,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="93" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A93" s="5" t="s">
         <v>196</v>
       </c>
@@ -11646,7 +11964,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="94" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A94" s="5" t="s">
         <v>197</v>
       </c>
@@ -11679,7 +11997,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="95" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A95" s="5" t="s">
         <v>198</v>
       </c>
@@ -11736,7 +12054,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="96" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A96" s="5" t="s">
         <v>199</v>
       </c>
@@ -11778,7 +12096,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="97" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:48" ht="19.899999999999999" customHeight="1">
       <c r="A97" s="5" t="s">
         <v>200</v>
       </c>
@@ -11805,7 +12123,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="98" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:48" ht="19.899999999999999" customHeight="1">
       <c r="A98" s="5" t="s">
         <v>201</v>
       </c>
@@ -11940,7 +12258,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="99" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:48" ht="19.899999999999999" customHeight="1">
       <c r="A99" s="5" t="s">
         <v>202</v>
       </c>
@@ -12009,7 +12327,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="100" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:48" ht="19.899999999999999" customHeight="1">
       <c r="A100" s="5" t="s">
         <v>203</v>
       </c>
@@ -12108,7 +12426,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="101" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:48" ht="19.899999999999999" customHeight="1">
       <c r="A101" s="5" t="s">
         <v>204</v>
       </c>
@@ -12195,7 +12513,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="102" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:48" ht="19.899999999999999" customHeight="1">
       <c r="A102" s="5" t="s">
         <v>205</v>
       </c>
@@ -12252,7 +12570,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="103" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:48" ht="19.899999999999999" customHeight="1">
       <c r="A103" s="2" t="s">
         <v>206</v>
       </c>
@@ -12321,7 +12639,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="104" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:48" ht="19.899999999999999" customHeight="1">
       <c r="A104" s="2" t="s">
         <v>207</v>
       </c>
@@ -12423,7 +12741,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="105" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:48" ht="19.899999999999999" customHeight="1">
       <c r="A105" s="8" t="s">
         <v>208</v>
       </c>
@@ -12525,7 +12843,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="106" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:48" ht="19.899999999999999" customHeight="1">
       <c r="A106" s="8" t="s">
         <v>209</v>
       </c>
@@ -12600,7 +12918,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="107" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:48" ht="19.899999999999999" customHeight="1">
       <c r="A107" s="8" t="s">
         <v>210</v>
       </c>
@@ -12621,7 +12939,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:48" ht="19.899999999999999" customHeight="1">
       <c r="A108" s="8" t="s">
         <v>211</v>
       </c>
@@ -12648,7 +12966,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="109" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:48" ht="19.899999999999999" customHeight="1">
       <c r="A109" s="8" t="s">
         <v>212</v>
       </c>
@@ -12675,7 +12993,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="110" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:48" ht="19.899999999999999" customHeight="1">
       <c r="A110" s="8" t="s">
         <v>213</v>
       </c>
@@ -12714,7 +13032,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="111" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:48" ht="19.899999999999999" customHeight="1">
       <c r="A111" s="8" t="s">
         <v>214</v>
       </c>
@@ -12783,7 +13101,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="112" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:48" ht="19.899999999999999" customHeight="1">
       <c r="A112" s="8" t="s">
         <v>1221</v>
       </c>
@@ -12834,7 +13152,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="113" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A113" s="8" t="s">
         <v>1222</v>
       </c>
@@ -12927,7 +13245,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="114" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A114" s="8" t="s">
         <v>1223</v>
       </c>
@@ -13026,7 +13344,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="115" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A115" s="8" t="s">
         <v>1267</v>
       </c>
@@ -13053,7 +13371,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="116" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A116" s="8" t="s">
         <v>1268</v>
       </c>
@@ -13080,7 +13398,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="117" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A117" s="8" t="s">
         <v>1269</v>
       </c>
@@ -13113,7 +13431,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="118" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A118" s="8" t="s">
         <v>1270</v>
       </c>
@@ -13140,7 +13458,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="119" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A119" s="5" t="s">
         <v>1271</v>
       </c>
@@ -13203,7 +13521,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="120" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A120" s="2" t="s">
         <v>1294</v>
       </c>
@@ -13230,7 +13548,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="121" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A121" s="2" t="s">
         <v>1295</v>
       </c>
@@ -13257,7 +13575,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="122" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A122" s="8" t="s">
         <v>1298</v>
       </c>
@@ -13368,7 +13686,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="123" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A123" s="8" t="s">
         <v>1299</v>
       </c>
@@ -13401,7 +13719,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="124" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A124" s="8" t="s">
         <v>1300</v>
       </c>
@@ -13464,7 +13782,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="125" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A125" s="8" t="s">
         <v>1301</v>
       </c>
@@ -13605,7 +13923,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="126" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A126" s="8" t="s">
         <v>1302</v>
       </c>
@@ -13638,7 +13956,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="127" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A127" s="2" t="s">
         <v>1368</v>
       </c>
@@ -13737,12 +14055,12 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="128" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A128" s="8" t="s">
         <v>1383</v>
       </c>
       <c r="B128" s="2" t="str">
-        <f t="shared" ref="B128:B134" si="2">"giftcodesbanner/" &amp; A128 &amp; "-bar.jpg"</f>
+        <f t="shared" ref="B128:B139" si="2">"giftcodesbanner/" &amp; A128 &amp; "-bar.jpg"</f>
         <v>giftcodesbanner/胡來英雄-bar.jpg</v>
       </c>
       <c r="D128" s="8" t="s">
@@ -13794,7 +14112,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="129" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:35" ht="19.899999999999999" customHeight="1">
       <c r="A129" s="8" t="s">
         <v>1384</v>
       </c>
@@ -13851,7 +14169,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="130" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:35" ht="19.899999999999999" customHeight="1">
       <c r="A130" s="8" t="s">
         <v>1385</v>
       </c>
@@ -13908,7 +14226,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="131" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:35" ht="19.899999999999999" customHeight="1">
       <c r="A131" s="8" t="s">
         <v>1386</v>
       </c>
@@ -13941,7 +14259,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="132" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:35" ht="19.899999999999999" customHeight="1">
       <c r="A132" s="8" t="s">
         <v>1417</v>
       </c>
@@ -13986,7 +14304,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="133" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:35" ht="19.899999999999999" customHeight="1">
       <c r="A133" s="8" t="s">
         <v>1418</v>
       </c>
@@ -14013,7 +14331,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="134" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:35" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A134" s="8" t="s">
         <v>1419</v>
       </c>
@@ -14052,529 +14370,827 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" spans="1:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="1:35" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A135" s="11" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B135" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>giftcodesbanner/屍戰王朝-bar.jpg</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J135" s="13" t="s">
+        <v>1442</v>
+      </c>
+      <c r="K135" s="14" t="s">
+        <v>1443</v>
+      </c>
+      <c r="L135" s="13" t="s">
+        <v>1444</v>
+      </c>
+      <c r="M135" s="14" t="s">
+        <v>1445</v>
+      </c>
+      <c r="N135" s="13" t="s">
+        <v>1446</v>
+      </c>
+      <c r="O135" s="14" t="s">
+        <v>1447</v>
+      </c>
+      <c r="P135" s="13" t="s">
+        <v>1448</v>
+      </c>
+      <c r="Q135" s="14" t="s">
+        <v>1449</v>
+      </c>
+      <c r="R135" s="13" t="s">
+        <v>1450</v>
+      </c>
+      <c r="S135" s="14" t="s">
+        <v>1451</v>
+      </c>
+      <c r="T135" s="13" t="s">
+        <v>1452</v>
+      </c>
+      <c r="U135" s="14" t="s">
+        <v>1453</v>
+      </c>
+      <c r="V135" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="W135" s="14" t="s">
+        <v>1454</v>
+      </c>
+      <c r="X135" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y135" s="14" t="s">
+        <v>1455</v>
+      </c>
+      <c r="Z135" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA135" s="14" t="s">
+        <v>1456</v>
+      </c>
+      <c r="AB135" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC135" s="14" t="s">
+        <v>1457</v>
+      </c>
+      <c r="AD135" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE135" s="14" t="s">
+        <v>1458</v>
+      </c>
+      <c r="AF135" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="AG135" s="14" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="136" spans="1:35" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A136" s="12" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B136" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>giftcodesbanner/機甲變變變-bar.jpg</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J136" s="15" t="s">
+        <v>1460</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="M136" s="2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="N136" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="O136" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="P136" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="Q136" s="2" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="137" spans="1:35" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A137" s="12" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B137" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>giftcodesbanner/狼少女蘭吉-bar.jpg</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="L137" s="2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="M137" s="2" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="138" spans="1:35" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A138" s="11" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B138" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>giftcodesbanner/RO仙境傳說:曙光-bar.jpg</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="L138" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="M138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="N138" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="O138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="P138" s="16" t="s">
+        <v>1471</v>
+      </c>
+      <c r="Q138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="R138" s="16" t="s">
+        <v>1472</v>
+      </c>
+      <c r="S138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="T138" s="16" t="s">
+        <v>1473</v>
+      </c>
+      <c r="U138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="V138" s="16" t="s">
+        <v>1474</v>
+      </c>
+      <c r="W138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="X138" s="16" t="s">
+        <v>1475</v>
+      </c>
+      <c r="Y138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="Z138" s="16" t="s">
+        <v>1476</v>
+      </c>
+      <c r="AA138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AB138" s="16" t="s">
+        <v>1477</v>
+      </c>
+      <c r="AC138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AD138" s="16" t="s">
+        <v>1478</v>
+      </c>
+      <c r="AE138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AF138" s="16" t="s">
+        <v>1479</v>
+      </c>
+      <c r="AG138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AH138" s="16" t="s">
+        <v>1480</v>
+      </c>
+      <c r="AI138" s="2" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="139" spans="1:35" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A139" s="11" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B139" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>giftcodesbanner/星曲Ultra-bar.jpg</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J139" s="2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="L139" s="2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="M139" s="2" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="140" spans="1:35" ht="19.899999999999999" customHeight="1"/>
+    <row r="141" spans="1:35" ht="19.899999999999999" customHeight="1"/>
+    <row r="142" spans="1:35" ht="19.899999999999999" customHeight="1"/>
+    <row r="143" spans="1:35" ht="19.899999999999999" customHeight="1"/>
+    <row r="144" spans="1:35" ht="19.899999999999999" customHeight="1"/>
+    <row r="145" ht="19.899999999999999" customHeight="1"/>
+    <row r="146" ht="19.899999999999999" customHeight="1"/>
+    <row r="147" ht="19.899999999999999" customHeight="1"/>
+    <row r="148" ht="19.899999999999999" customHeight="1"/>
+    <row r="149" ht="19.899999999999999" customHeight="1"/>
+    <row r="150" ht="19.899999999999999" customHeight="1"/>
+    <row r="151" ht="19.899999999999999" customHeight="1"/>
+    <row r="152" ht="19.899999999999999" customHeight="1"/>
+    <row r="153" ht="19.899999999999999" customHeight="1"/>
+    <row r="154" ht="19.899999999999999" customHeight="1"/>
+    <row r="155" ht="19.899999999999999" customHeight="1"/>
+    <row r="156" ht="19.899999999999999" customHeight="1"/>
+    <row r="157" ht="19.899999999999999" customHeight="1"/>
+    <row r="158" ht="19.899999999999999" customHeight="1"/>
+    <row r="159" ht="19.899999999999999" customHeight="1"/>
+    <row r="160" ht="19.899999999999999" customHeight="1"/>
+    <row r="161" ht="19.899999999999999" customHeight="1"/>
+    <row r="162" ht="19.899999999999999" customHeight="1"/>
+    <row r="163" ht="19.899999999999999" customHeight="1"/>
+    <row r="164" ht="19.899999999999999" customHeight="1"/>
+    <row r="165" ht="19.899999999999999" customHeight="1"/>
+    <row r="166" ht="19.899999999999999" customHeight="1"/>
+    <row r="167" ht="19.899999999999999" customHeight="1"/>
+    <row r="168" ht="19.899999999999999" customHeight="1"/>
+    <row r="169" ht="19.899999999999999" customHeight="1"/>
+    <row r="170" ht="19.899999999999999" customHeight="1"/>
+    <row r="171" ht="19.899999999999999" customHeight="1"/>
+    <row r="172" ht="19.899999999999999" customHeight="1"/>
+    <row r="173" ht="19.899999999999999" customHeight="1"/>
+    <row r="174" ht="19.899999999999999" customHeight="1"/>
+    <row r="175" ht="19.899999999999999" customHeight="1"/>
+    <row r="176" ht="19.899999999999999" customHeight="1"/>
+    <row r="177" ht="19.899999999999999" customHeight="1"/>
+    <row r="178" ht="19.899999999999999" customHeight="1"/>
+    <row r="179" ht="19.899999999999999" customHeight="1"/>
+    <row r="180" ht="19.899999999999999" customHeight="1"/>
+    <row r="181" ht="19.899999999999999" customHeight="1"/>
+    <row r="182" ht="19.899999999999999" customHeight="1"/>
+    <row r="183" ht="19.899999999999999" customHeight="1"/>
+    <row r="184" ht="19.899999999999999" customHeight="1"/>
+    <row r="185" ht="19.899999999999999" customHeight="1"/>
+    <row r="186" ht="19.899999999999999" customHeight="1"/>
+    <row r="187" ht="19.899999999999999" customHeight="1"/>
+    <row r="188" ht="19.899999999999999" customHeight="1"/>
+    <row r="189" ht="19.899999999999999" customHeight="1"/>
+    <row r="190" ht="19.899999999999999" customHeight="1"/>
+    <row r="191" ht="19.899999999999999" customHeight="1"/>
+    <row r="192" ht="19.899999999999999" customHeight="1"/>
+    <row r="193" ht="19.899999999999999" customHeight="1"/>
+    <row r="194" ht="19.899999999999999" customHeight="1"/>
+    <row r="195" ht="19.899999999999999" customHeight="1"/>
+    <row r="196" ht="19.899999999999999" customHeight="1"/>
+    <row r="197" ht="19.899999999999999" customHeight="1"/>
+    <row r="198" ht="19.899999999999999" customHeight="1"/>
+    <row r="199" ht="19.899999999999999" customHeight="1"/>
+    <row r="200" ht="19.899999999999999" customHeight="1"/>
+    <row r="201" ht="19.899999999999999" customHeight="1"/>
+    <row r="202" ht="19.899999999999999" customHeight="1"/>
+    <row r="203" ht="19.899999999999999" customHeight="1"/>
+    <row r="204" ht="19.899999999999999" customHeight="1"/>
+    <row r="205" ht="19.899999999999999" customHeight="1"/>
+    <row r="206" ht="19.899999999999999" customHeight="1"/>
+    <row r="207" ht="19.899999999999999" customHeight="1"/>
+    <row r="208" ht="19.899999999999999" customHeight="1"/>
+    <row r="209" ht="19.899999999999999" customHeight="1"/>
+    <row r="210" ht="19.899999999999999" customHeight="1"/>
+    <row r="211" ht="19.899999999999999" customHeight="1"/>
+    <row r="212" ht="19.899999999999999" customHeight="1"/>
+    <row r="213" ht="19.899999999999999" customHeight="1"/>
+    <row r="214" ht="19.899999999999999" customHeight="1"/>
+    <row r="215" ht="19.899999999999999" customHeight="1"/>
+    <row r="216" ht="19.899999999999999" customHeight="1"/>
+    <row r="217" ht="19.899999999999999" customHeight="1"/>
+    <row r="218" ht="19.899999999999999" customHeight="1"/>
+    <row r="219" ht="19.899999999999999" customHeight="1"/>
+    <row r="220" ht="19.899999999999999" customHeight="1"/>
+    <row r="221" ht="19.899999999999999" customHeight="1"/>
+    <row r="222" ht="19.899999999999999" customHeight="1"/>
+    <row r="223" ht="19.899999999999999" customHeight="1"/>
+    <row r="224" ht="19.899999999999999" customHeight="1"/>
+    <row r="225" ht="19.899999999999999" customHeight="1"/>
+    <row r="226" ht="19.899999999999999" customHeight="1"/>
+    <row r="227" ht="19.899999999999999" customHeight="1"/>
+    <row r="228" ht="19.899999999999999" customHeight="1"/>
+    <row r="229" ht="19.899999999999999" customHeight="1"/>
+    <row r="230" ht="19.899999999999999" customHeight="1"/>
+    <row r="231" ht="19.899999999999999" customHeight="1"/>
+    <row r="232" ht="19.899999999999999" customHeight="1"/>
+    <row r="233" ht="19.899999999999999" customHeight="1"/>
+    <row r="234" ht="19.899999999999999" customHeight="1"/>
+    <row r="235" ht="19.899999999999999" customHeight="1"/>
+    <row r="236" ht="19.899999999999999" customHeight="1"/>
+    <row r="237" ht="19.899999999999999" customHeight="1"/>
+    <row r="238" ht="19.899999999999999" customHeight="1"/>
+    <row r="239" ht="19.899999999999999" customHeight="1"/>
+    <row r="240" ht="19.899999999999999" customHeight="1"/>
+    <row r="241" ht="19.899999999999999" customHeight="1"/>
+    <row r="242" ht="19.899999999999999" customHeight="1"/>
+    <row r="243" ht="19.899999999999999" customHeight="1"/>
+    <row r="244" ht="19.899999999999999" customHeight="1"/>
+    <row r="245" ht="19.899999999999999" customHeight="1"/>
+    <row r="246" ht="19.899999999999999" customHeight="1"/>
+    <row r="247" ht="19.899999999999999" customHeight="1"/>
+    <row r="248" ht="19.899999999999999" customHeight="1"/>
+    <row r="249" ht="19.899999999999999" customHeight="1"/>
+    <row r="250" ht="19.899999999999999" customHeight="1"/>
+    <row r="251" ht="19.899999999999999" customHeight="1"/>
+    <row r="252" ht="19.899999999999999" customHeight="1"/>
+    <row r="253" ht="19.899999999999999" customHeight="1"/>
+    <row r="254" ht="19.899999999999999" customHeight="1"/>
+    <row r="255" ht="19.899999999999999" customHeight="1"/>
+    <row r="256" ht="19.899999999999999" customHeight="1"/>
+    <row r="257" ht="19.899999999999999" customHeight="1"/>
+    <row r="258" ht="19.899999999999999" customHeight="1"/>
+    <row r="259" ht="19.899999999999999" customHeight="1"/>
+    <row r="260" ht="19.899999999999999" customHeight="1"/>
+    <row r="261" ht="19.899999999999999" customHeight="1"/>
+    <row r="262" ht="19.899999999999999" customHeight="1"/>
+    <row r="263" ht="19.899999999999999" customHeight="1"/>
+    <row r="264" ht="19.899999999999999" customHeight="1"/>
+    <row r="265" ht="19.899999999999999" customHeight="1"/>
+    <row r="266" ht="19.899999999999999" customHeight="1"/>
+    <row r="267" ht="19.899999999999999" customHeight="1"/>
+    <row r="268" ht="19.899999999999999" customHeight="1"/>
+    <row r="269" ht="19.899999999999999" customHeight="1"/>
+    <row r="270" ht="19.899999999999999" customHeight="1"/>
+    <row r="271" ht="19.899999999999999" customHeight="1"/>
+    <row r="272" ht="19.899999999999999" customHeight="1"/>
+    <row r="273" ht="19.899999999999999" customHeight="1"/>
+    <row r="274" ht="19.899999999999999" customHeight="1"/>
+    <row r="275" ht="19.899999999999999" customHeight="1"/>
+    <row r="276" ht="19.899999999999999" customHeight="1"/>
+    <row r="277" ht="19.899999999999999" customHeight="1"/>
+    <row r="278" ht="19.899999999999999" customHeight="1"/>
+    <row r="279" ht="19.899999999999999" customHeight="1"/>
+    <row r="280" ht="19.899999999999999" customHeight="1"/>
+    <row r="281" ht="19.899999999999999" customHeight="1"/>
+    <row r="282" ht="19.899999999999999" customHeight="1"/>
+    <row r="283" ht="19.899999999999999" customHeight="1"/>
+    <row r="284" ht="19.899999999999999" customHeight="1"/>
+    <row r="285" ht="19.899999999999999" customHeight="1"/>
+    <row r="286" ht="19.899999999999999" customHeight="1"/>
+    <row r="287" ht="19.899999999999999" customHeight="1"/>
+    <row r="288" ht="19.899999999999999" customHeight="1"/>
+    <row r="289" ht="19.899999999999999" customHeight="1"/>
+    <row r="290" ht="19.899999999999999" customHeight="1"/>
+    <row r="291" ht="19.899999999999999" customHeight="1"/>
+    <row r="292" ht="19.899999999999999" customHeight="1"/>
+    <row r="293" ht="19.899999999999999" customHeight="1"/>
+    <row r="294" ht="19.899999999999999" customHeight="1"/>
+    <row r="295" ht="19.899999999999999" customHeight="1"/>
+    <row r="296" ht="19.899999999999999" customHeight="1"/>
+    <row r="297" ht="19.899999999999999" customHeight="1"/>
+    <row r="298" ht="19.899999999999999" customHeight="1"/>
+    <row r="299" ht="19.899999999999999" customHeight="1"/>
+    <row r="300" ht="19.899999999999999" customHeight="1"/>
+    <row r="301" ht="19.899999999999999" customHeight="1"/>
+    <row r="302" ht="19.899999999999999" customHeight="1"/>
+    <row r="303" ht="19.899999999999999" customHeight="1"/>
+    <row r="304" ht="19.899999999999999" customHeight="1"/>
+    <row r="305" ht="19.899999999999999" customHeight="1"/>
+    <row r="306" ht="19.899999999999999" customHeight="1"/>
+    <row r="307" ht="19.899999999999999" customHeight="1"/>
+    <row r="308" ht="19.899999999999999" customHeight="1"/>
+    <row r="309" ht="19.899999999999999" customHeight="1"/>
+    <row r="310" ht="19.899999999999999" customHeight="1"/>
+    <row r="311" ht="19.899999999999999" customHeight="1"/>
+    <row r="312" ht="19.899999999999999" customHeight="1"/>
+    <row r="313" ht="19.899999999999999" customHeight="1"/>
+    <row r="314" ht="19.899999999999999" customHeight="1"/>
+    <row r="315" ht="19.899999999999999" customHeight="1"/>
+    <row r="316" ht="19.899999999999999" customHeight="1"/>
+    <row r="317" ht="19.899999999999999" customHeight="1"/>
+    <row r="318" ht="19.899999999999999" customHeight="1"/>
+    <row r="319" ht="19.899999999999999" customHeight="1"/>
+    <row r="320" ht="19.899999999999999" customHeight="1"/>
+    <row r="321" ht="19.899999999999999" customHeight="1"/>
+    <row r="322" ht="19.899999999999999" customHeight="1"/>
+    <row r="323" ht="19.899999999999999" customHeight="1"/>
+    <row r="324" ht="19.899999999999999" customHeight="1"/>
+    <row r="325" ht="19.899999999999999" customHeight="1"/>
+    <row r="326" ht="19.899999999999999" customHeight="1"/>
+    <row r="327" ht="19.899999999999999" customHeight="1"/>
+    <row r="328" ht="19.899999999999999" customHeight="1"/>
+    <row r="329" ht="19.899999999999999" customHeight="1"/>
+    <row r="330" ht="19.899999999999999" customHeight="1"/>
+    <row r="331" ht="19.899999999999999" customHeight="1"/>
+    <row r="332" ht="19.899999999999999" customHeight="1"/>
+    <row r="333" ht="19.899999999999999" customHeight="1"/>
+    <row r="334" ht="19.899999999999999" customHeight="1"/>
+    <row r="335" ht="19.899999999999999" customHeight="1"/>
+    <row r="336" ht="19.899999999999999" customHeight="1"/>
+    <row r="337" ht="19.899999999999999" customHeight="1"/>
+    <row r="338" ht="19.899999999999999" customHeight="1"/>
+    <row r="339" ht="19.899999999999999" customHeight="1"/>
+    <row r="340" ht="19.899999999999999" customHeight="1"/>
+    <row r="341" ht="19.899999999999999" customHeight="1"/>
+    <row r="342" ht="19.899999999999999" customHeight="1"/>
+    <row r="343" ht="19.899999999999999" customHeight="1"/>
+    <row r="344" ht="19.899999999999999" customHeight="1"/>
+    <row r="345" ht="19.899999999999999" customHeight="1"/>
+    <row r="346" ht="19.899999999999999" customHeight="1"/>
+    <row r="347" ht="19.899999999999999" customHeight="1"/>
+    <row r="348" ht="19.899999999999999" customHeight="1"/>
+    <row r="349" ht="19.899999999999999" customHeight="1"/>
+    <row r="350" ht="19.899999999999999" customHeight="1"/>
+    <row r="351" ht="19.899999999999999" customHeight="1"/>
+    <row r="352" ht="19.899999999999999" customHeight="1"/>
+    <row r="353" ht="19.899999999999999" customHeight="1"/>
+    <row r="354" ht="19.899999999999999" customHeight="1"/>
+    <row r="355" ht="19.899999999999999" customHeight="1"/>
+    <row r="356" ht="19.899999999999999" customHeight="1"/>
+    <row r="357" ht="19.899999999999999" customHeight="1"/>
+    <row r="358" ht="19.899999999999999" customHeight="1"/>
+    <row r="359" ht="19.899999999999999" customHeight="1"/>
+    <row r="360" ht="19.899999999999999" customHeight="1"/>
+    <row r="361" ht="19.899999999999999" customHeight="1"/>
+    <row r="362" ht="19.899999999999999" customHeight="1"/>
+    <row r="363" ht="19.899999999999999" customHeight="1"/>
+    <row r="364" ht="19.899999999999999" customHeight="1"/>
+    <row r="365" ht="19.899999999999999" customHeight="1"/>
+    <row r="366" ht="19.899999999999999" customHeight="1"/>
+    <row r="367" ht="19.899999999999999" customHeight="1"/>
+    <row r="368" ht="19.899999999999999" customHeight="1"/>
+    <row r="369" ht="19.899999999999999" customHeight="1"/>
+    <row r="370" ht="19.899999999999999" customHeight="1"/>
+    <row r="371" ht="19.899999999999999" customHeight="1"/>
+    <row r="372" ht="19.899999999999999" customHeight="1"/>
+    <row r="373" ht="19.899999999999999" customHeight="1"/>
+    <row r="374" ht="19.899999999999999" customHeight="1"/>
+    <row r="375" ht="19.899999999999999" customHeight="1"/>
+    <row r="376" ht="19.899999999999999" customHeight="1"/>
+    <row r="377" ht="19.899999999999999" customHeight="1"/>
+    <row r="378" ht="19.899999999999999" customHeight="1"/>
+    <row r="379" ht="19.899999999999999" customHeight="1"/>
+    <row r="380" ht="19.899999999999999" customHeight="1"/>
+    <row r="381" ht="19.899999999999999" customHeight="1"/>
+    <row r="382" ht="19.899999999999999" customHeight="1"/>
+    <row r="383" ht="19.899999999999999" customHeight="1"/>
+    <row r="384" ht="19.899999999999999" customHeight="1"/>
+    <row r="385" ht="19.899999999999999" customHeight="1"/>
+    <row r="386" ht="19.899999999999999" customHeight="1"/>
+    <row r="387" ht="19.899999999999999" customHeight="1"/>
+    <row r="388" ht="19.899999999999999" customHeight="1"/>
+    <row r="389" ht="19.899999999999999" customHeight="1"/>
+    <row r="390" ht="19.899999999999999" customHeight="1"/>
+    <row r="391" ht="19.899999999999999" customHeight="1"/>
+    <row r="392" ht="19.899999999999999" customHeight="1"/>
+    <row r="393" ht="19.899999999999999" customHeight="1"/>
+    <row r="394" ht="19.899999999999999" customHeight="1"/>
+    <row r="395" ht="19.899999999999999" customHeight="1"/>
+    <row r="396" ht="19.899999999999999" customHeight="1"/>
+    <row r="397" ht="19.899999999999999" customHeight="1"/>
+    <row r="398" ht="19.899999999999999" customHeight="1"/>
+    <row r="399" ht="19.899999999999999" customHeight="1"/>
+    <row r="400" ht="19.899999999999999" customHeight="1"/>
+    <row r="401" ht="19.899999999999999" customHeight="1"/>
+    <row r="402" ht="19.899999999999999" customHeight="1"/>
+    <row r="403" ht="19.899999999999999" customHeight="1"/>
+    <row r="404" ht="19.899999999999999" customHeight="1"/>
+    <row r="405" ht="19.899999999999999" customHeight="1"/>
+    <row r="406" ht="19.899999999999999" customHeight="1"/>
+    <row r="407" ht="19.899999999999999" customHeight="1"/>
+    <row r="408" ht="19.899999999999999" customHeight="1"/>
+    <row r="409" ht="19.899999999999999" customHeight="1"/>
+    <row r="410" ht="19.899999999999999" customHeight="1"/>
+    <row r="411" ht="19.899999999999999" customHeight="1"/>
+    <row r="412" ht="19.899999999999999" customHeight="1"/>
+    <row r="413" ht="19.899999999999999" customHeight="1"/>
+    <row r="414" ht="19.899999999999999" customHeight="1"/>
+    <row r="415" ht="19.899999999999999" customHeight="1"/>
+    <row r="416" ht="19.899999999999999" customHeight="1"/>
+    <row r="417" ht="19.899999999999999" customHeight="1"/>
+    <row r="418" ht="19.899999999999999" customHeight="1"/>
+    <row r="419" ht="19.899999999999999" customHeight="1"/>
+    <row r="420" ht="19.899999999999999" customHeight="1"/>
+    <row r="421" ht="19.899999999999999" customHeight="1"/>
+    <row r="422" ht="19.899999999999999" customHeight="1"/>
+    <row r="423" ht="19.899999999999999" customHeight="1"/>
+    <row r="424" ht="19.899999999999999" customHeight="1"/>
+    <row r="425" ht="19.899999999999999" customHeight="1"/>
+    <row r="426" ht="19.899999999999999" customHeight="1"/>
+    <row r="427" ht="19.899999999999999" customHeight="1"/>
+    <row r="428" ht="19.899999999999999" customHeight="1"/>
+    <row r="429" ht="19.899999999999999" customHeight="1"/>
+    <row r="430" ht="19.899999999999999" customHeight="1"/>
+    <row r="431" ht="19.899999999999999" customHeight="1"/>
+    <row r="432" ht="19.899999999999999" customHeight="1"/>
+    <row r="433" ht="19.899999999999999" customHeight="1"/>
+    <row r="434" ht="19.899999999999999" customHeight="1"/>
+    <row r="435" ht="19.899999999999999" customHeight="1"/>
+    <row r="436" ht="19.899999999999999" customHeight="1"/>
+    <row r="437" ht="19.899999999999999" customHeight="1"/>
+    <row r="438" ht="19.899999999999999" customHeight="1"/>
+    <row r="439" ht="19.899999999999999" customHeight="1"/>
+    <row r="440" ht="19.899999999999999" customHeight="1"/>
+    <row r="441" ht="19.899999999999999" customHeight="1"/>
+    <row r="442" ht="19.899999999999999" customHeight="1"/>
+    <row r="443" ht="19.899999999999999" customHeight="1"/>
+    <row r="444" ht="19.899999999999999" customHeight="1"/>
+    <row r="445" ht="19.899999999999999" customHeight="1"/>
+    <row r="446" ht="19.899999999999999" customHeight="1"/>
+    <row r="447" ht="19.899999999999999" customHeight="1"/>
+    <row r="448" ht="19.899999999999999" customHeight="1"/>
+    <row r="449" ht="19.899999999999999" customHeight="1"/>
+    <row r="450" ht="19.899999999999999" customHeight="1"/>
+    <row r="451" ht="19.899999999999999" customHeight="1"/>
+    <row r="452" ht="19.899999999999999" customHeight="1"/>
+    <row r="453" ht="19.899999999999999" customHeight="1"/>
+    <row r="454" ht="19.899999999999999" customHeight="1"/>
+    <row r="455" ht="19.899999999999999" customHeight="1"/>
+    <row r="456" ht="19.899999999999999" customHeight="1"/>
+    <row r="457" ht="19.899999999999999" customHeight="1"/>
+    <row r="458" ht="19.899999999999999" customHeight="1"/>
+    <row r="459" ht="19.899999999999999" customHeight="1"/>
+    <row r="460" ht="19.899999999999999" customHeight="1"/>
+    <row r="461" ht="19.899999999999999" customHeight="1"/>
+    <row r="462" ht="19.899999999999999" customHeight="1"/>
+    <row r="463" ht="19.899999999999999" customHeight="1"/>
+    <row r="464" ht="19.899999999999999" customHeight="1"/>
+    <row r="465" ht="19.899999999999999" customHeight="1"/>
+    <row r="466" ht="19.899999999999999" customHeight="1"/>
+    <row r="467" ht="19.899999999999999" customHeight="1"/>
+    <row r="468" ht="19.899999999999999" customHeight="1"/>
+    <row r="469" ht="19.899999999999999" customHeight="1"/>
+    <row r="470" ht="19.899999999999999" customHeight="1"/>
+    <row r="471" ht="19.899999999999999" customHeight="1"/>
+    <row r="472" ht="19.899999999999999" customHeight="1"/>
+    <row r="473" ht="19.899999999999999" customHeight="1"/>
+    <row r="474" ht="19.899999999999999" customHeight="1"/>
+    <row r="475" ht="19.899999999999999" customHeight="1"/>
+    <row r="476" ht="19.899999999999999" customHeight="1"/>
+    <row r="477" ht="19.899999999999999" customHeight="1"/>
+    <row r="478" ht="19.899999999999999" customHeight="1"/>
+    <row r="479" ht="19.899999999999999" customHeight="1"/>
+    <row r="480" ht="19.899999999999999" customHeight="1"/>
+    <row r="481" ht="19.899999999999999" customHeight="1"/>
+    <row r="482" ht="19.899999999999999" customHeight="1"/>
+    <row r="483" ht="19.899999999999999" customHeight="1"/>
+    <row r="484" ht="19.899999999999999" customHeight="1"/>
+    <row r="485" ht="19.899999999999999" customHeight="1"/>
+    <row r="486" ht="19.899999999999999" customHeight="1"/>
+    <row r="487" ht="19.899999999999999" customHeight="1"/>
+    <row r="488" ht="19.899999999999999" customHeight="1"/>
+    <row r="489" ht="19.899999999999999" customHeight="1"/>
+    <row r="490" ht="19.899999999999999" customHeight="1"/>
+    <row r="491" ht="19.899999999999999" customHeight="1"/>
+    <row r="492" ht="19.899999999999999" customHeight="1"/>
+    <row r="493" ht="19.899999999999999" customHeight="1"/>
+    <row r="494" ht="19.899999999999999" customHeight="1"/>
+    <row r="495" ht="19.899999999999999" customHeight="1"/>
+    <row r="496" ht="19.899999999999999" customHeight="1"/>
+    <row r="497" ht="19.899999999999999" customHeight="1"/>
+    <row r="498" ht="19.899999999999999" customHeight="1"/>
+    <row r="499" ht="19.899999999999999" customHeight="1"/>
+    <row r="500" ht="19.899999999999999" customHeight="1"/>
+    <row r="501" ht="19.899999999999999" customHeight="1"/>
+    <row r="502" ht="19.899999999999999" customHeight="1"/>
+    <row r="503" ht="19.899999999999999" customHeight="1"/>
+    <row r="504" ht="19.899999999999999" customHeight="1"/>
+    <row r="505" ht="19.899999999999999" customHeight="1"/>
+    <row r="506" ht="19.899999999999999" customHeight="1"/>
+    <row r="507" ht="19.899999999999999" customHeight="1"/>
+    <row r="508" ht="19.899999999999999" customHeight="1"/>
+    <row r="509" ht="19.899999999999999" customHeight="1"/>
+    <row r="510" ht="19.899999999999999" customHeight="1"/>
+    <row r="511" ht="19.899999999999999" customHeight="1"/>
+    <row r="512" ht="19.899999999999999" customHeight="1"/>
+    <row r="513" ht="19.899999999999999" customHeight="1"/>
+    <row r="514" ht="19.899999999999999" customHeight="1"/>
+    <row r="515" ht="19.899999999999999" customHeight="1"/>
+    <row r="516" ht="19.899999999999999" customHeight="1"/>
+    <row r="517" ht="19.899999999999999" customHeight="1"/>
+    <row r="518" ht="19.899999999999999" customHeight="1"/>
+    <row r="519" ht="19.899999999999999" customHeight="1"/>
+    <row r="520" ht="19.899999999999999" customHeight="1"/>
+    <row r="521" ht="19.899999999999999" customHeight="1"/>
+    <row r="522" ht="19.899999999999999" customHeight="1"/>
+    <row r="523" ht="19.899999999999999" customHeight="1"/>
+    <row r="524" ht="19.899999999999999" customHeight="1"/>
+    <row r="525" ht="19.899999999999999" customHeight="1"/>
+    <row r="526" ht="19.899999999999999" customHeight="1"/>
+    <row r="527" ht="19.899999999999999" customHeight="1"/>
+    <row r="528" ht="19.899999999999999" customHeight="1"/>
+    <row r="529" ht="19.899999999999999" customHeight="1"/>
+    <row r="530" ht="19.899999999999999" customHeight="1"/>
+    <row r="531" ht="19.899999999999999" customHeight="1"/>
+    <row r="532" ht="19.899999999999999" customHeight="1"/>
+    <row r="533" ht="19.899999999999999" customHeight="1"/>
+    <row r="534" ht="19.899999999999999" customHeight="1"/>
+    <row r="535" ht="19.899999999999999" customHeight="1"/>
+    <row r="536" ht="19.899999999999999" customHeight="1"/>
+    <row r="537" ht="19.899999999999999" customHeight="1"/>
+    <row r="538" ht="19.899999999999999" customHeight="1"/>
+    <row r="539" ht="19.899999999999999" customHeight="1"/>
+    <row r="540" ht="19.899999999999999" customHeight="1"/>
+    <row r="541" ht="19.899999999999999" customHeight="1"/>
+    <row r="542" ht="19.899999999999999" customHeight="1"/>
+    <row r="543" ht="19.899999999999999" customHeight="1"/>
+    <row r="544" ht="19.899999999999999" customHeight="1"/>
+    <row r="545" ht="19.899999999999999" customHeight="1"/>
+    <row r="546" ht="19.899999999999999" customHeight="1"/>
+    <row r="547" ht="19.899999999999999" customHeight="1"/>
+    <row r="548" ht="19.899999999999999" customHeight="1"/>
+    <row r="549" ht="19.899999999999999" customHeight="1"/>
+    <row r="550" ht="19.899999999999999" customHeight="1"/>
+    <row r="551" ht="19.899999999999999" customHeight="1"/>
+    <row r="552" ht="19.899999999999999" customHeight="1"/>
+    <row r="553" ht="19.899999999999999" customHeight="1"/>
+    <row r="554" ht="19.899999999999999" customHeight="1"/>
+    <row r="555" ht="19.899999999999999" customHeight="1"/>
+    <row r="556" ht="19.899999999999999" customHeight="1"/>
+    <row r="557" ht="19.899999999999999" customHeight="1"/>
+    <row r="558" ht="19.899999999999999" customHeight="1"/>
+    <row r="559" ht="19.899999999999999" customHeight="1"/>
+    <row r="560" ht="19.899999999999999" customHeight="1"/>
+    <row r="561" ht="19.899999999999999" customHeight="1"/>
+    <row r="562" ht="19.899999999999999" customHeight="1"/>
+    <row r="563" ht="19.899999999999999" customHeight="1"/>
+    <row r="564" ht="19.899999999999999" customHeight="1"/>
+    <row r="565" ht="19.899999999999999" customHeight="1"/>
+    <row r="566" ht="19.899999999999999" customHeight="1"/>
+    <row r="567" ht="19.899999999999999" customHeight="1"/>
+    <row r="568" ht="19.899999999999999" customHeight="1"/>
+    <row r="569" ht="19.899999999999999" customHeight="1"/>
+    <row r="570" ht="19.899999999999999" customHeight="1"/>
+    <row r="571" ht="19.899999999999999" customHeight="1"/>
+    <row r="572" ht="19.899999999999999" customHeight="1"/>
+    <row r="573" ht="19.899999999999999" customHeight="1"/>
+    <row r="574" ht="19.899999999999999" customHeight="1"/>
+    <row r="575" ht="19.899999999999999" customHeight="1"/>
+    <row r="576" ht="19.899999999999999" customHeight="1"/>
+    <row r="577" ht="19.899999999999999" customHeight="1"/>
+    <row r="578" ht="19.899999999999999" customHeight="1"/>
+    <row r="579" ht="19.899999999999999" customHeight="1"/>
+    <row r="580" ht="19.899999999999999" customHeight="1"/>
+    <row r="581" ht="19.899999999999999" customHeight="1"/>
+    <row r="582" ht="19.899999999999999" customHeight="1"/>
+    <row r="583" ht="19.899999999999999" customHeight="1"/>
+    <row r="584" ht="19.899999999999999" customHeight="1"/>
+    <row r="585" ht="19.899999999999999" customHeight="1"/>
+    <row r="586" ht="19.899999999999999" customHeight="1"/>
+    <row r="587" ht="19.899999999999999" customHeight="1"/>
+    <row r="588" ht="19.899999999999999" customHeight="1"/>
+    <row r="589" ht="19.899999999999999" customHeight="1"/>
+    <row r="590" ht="19.899999999999999" customHeight="1"/>
+    <row r="591" ht="19.899999999999999" customHeight="1"/>
+    <row r="592" ht="19.899999999999999" customHeight="1"/>
+    <row r="593" ht="19.899999999999999" customHeight="1"/>
+    <row r="594" ht="19.899999999999999" customHeight="1"/>
+    <row r="595" ht="19.899999999999999" customHeight="1"/>
+    <row r="596" ht="19.899999999999999" customHeight="1"/>
+    <row r="597" ht="19.899999999999999" customHeight="1"/>
+    <row r="598" ht="19.899999999999999" customHeight="1"/>
+    <row r="599" ht="19.899999999999999" customHeight="1"/>
+    <row r="600" ht="19.899999999999999" customHeight="1"/>
+    <row r="601" ht="19.899999999999999" customHeight="1"/>
+    <row r="602" ht="19.899999999999999" customHeight="1"/>
+    <row r="603" ht="19.899999999999999" customHeight="1"/>
+    <row r="604" ht="19.899999999999999" customHeight="1"/>
+    <row r="605" ht="19.899999999999999" customHeight="1"/>
+    <row r="606" ht="19.899999999999999" customHeight="1"/>
+    <row r="607" ht="19.899999999999999" customHeight="1"/>
+    <row r="608" ht="19.899999999999999" customHeight="1"/>
+    <row r="609" ht="19.899999999999999" customHeight="1"/>
+    <row r="610" ht="19.899999999999999" customHeight="1"/>
+    <row r="611" ht="19.899999999999999" customHeight="1"/>
+    <row r="612" ht="19.899999999999999" customHeight="1"/>
+    <row r="613" ht="19.899999999999999" customHeight="1"/>
+    <row r="614" ht="19.899999999999999" customHeight="1"/>
+    <row r="615" ht="19.899999999999999" customHeight="1"/>
+    <row r="616" ht="19.899999999999999" customHeight="1"/>
+    <row r="617" ht="19.899999999999999" customHeight="1"/>
+    <row r="618" ht="19.899999999999999" customHeight="1"/>
+    <row r="619" ht="19.899999999999999" customHeight="1"/>
+    <row r="620" ht="19.899999999999999" customHeight="1"/>
+    <row r="621" ht="19.899999999999999" customHeight="1"/>
+    <row r="622" ht="19.899999999999999" customHeight="1"/>
+    <row r="623" ht="19.899999999999999" customHeight="1"/>
+    <row r="624" ht="19.899999999999999" customHeight="1"/>
+    <row r="625" ht="19.899999999999999" customHeight="1"/>
+    <row r="626" ht="19.899999999999999" customHeight="1"/>
+    <row r="627" ht="19.899999999999999" customHeight="1"/>
+    <row r="628" ht="19.899999999999999" customHeight="1"/>
+    <row r="629" ht="19.899999999999999" customHeight="1"/>
+    <row r="630" ht="19.899999999999999" customHeight="1"/>
+    <row r="631" ht="19.899999999999999" customHeight="1"/>
+    <row r="632" ht="19.899999999999999" customHeight="1"/>
+    <row r="633" ht="19.899999999999999" customHeight="1"/>
+    <row r="634" ht="19.899999999999999" customHeight="1"/>
+    <row r="635" ht="19.899999999999999" customHeight="1"/>
+    <row r="636" ht="19.899999999999999" customHeight="1"/>
+    <row r="637" ht="19.899999999999999" customHeight="1"/>
+    <row r="638" ht="19.899999999999999" customHeight="1"/>
+    <row r="639" ht="19.899999999999999" customHeight="1"/>
+    <row r="640" ht="19.899999999999999" customHeight="1"/>
+    <row r="641" ht="19.899999999999999" customHeight="1"/>
+    <row r="642" ht="19.899999999999999" customHeight="1"/>
+    <row r="643" ht="19.899999999999999" customHeight="1"/>
+    <row r="644" ht="19.899999999999999" customHeight="1"/>
+    <row r="645" ht="19.899999999999999" customHeight="1"/>
+    <row r="646" ht="19.899999999999999" customHeight="1"/>
+    <row r="647" ht="19.899999999999999" customHeight="1"/>
+    <row r="648" ht="19.899999999999999" customHeight="1"/>
+    <row r="649" ht="19.899999999999999" customHeight="1"/>
+    <row r="650" ht="19.899999999999999" customHeight="1"/>
+    <row r="651" ht="19.899999999999999" customHeight="1"/>
+    <row r="652" ht="19.899999999999999" customHeight="1"/>
+    <row r="653" ht="19.899999999999999" customHeight="1"/>
+    <row r="654" ht="19.899999999999999" customHeight="1"/>
+    <row r="655" ht="19.899999999999999" customHeight="1"/>
+    <row r="656" ht="19.899999999999999" customHeight="1"/>
+    <row r="657" ht="19.899999999999999" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/giftcodes.xlsx
+++ b/giftcodes.xlsx
@@ -6004,7 +6004,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M139" sqref="M139"/>
+      <selection pane="bottomRight" activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5"/>
@@ -14374,9 +14374,9 @@
       <c r="A135" s="11" t="s">
         <v>1437</v>
       </c>
-      <c r="B135" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>giftcodesbanner/屍戰王朝-bar.jpg</v>
+      <c r="C135" s="2" t="str">
+        <f>"giftcodesbanner/" &amp; A135 &amp; "-禮包碼.jpg"</f>
+        <v>giftcodesbanner/屍戰王朝-禮包碼.jpg</v>
       </c>
       <c r="D135" s="10" t="s">
         <v>1432</v>
@@ -14467,9 +14467,9 @@
       <c r="A136" s="12" t="s">
         <v>1441</v>
       </c>
-      <c r="B136" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>giftcodesbanner/機甲變變變-bar.jpg</v>
+      <c r="C136" s="2" t="str">
+        <f t="shared" ref="C136:C139" si="3">"giftcodesbanner/" &amp; A136 &amp; "-禮包碼.jpg"</f>
+        <v>giftcodesbanner/機甲變變變-禮包碼.jpg</v>
       </c>
       <c r="D136" s="10" t="s">
         <v>1433</v>
@@ -14512,9 +14512,9 @@
       <c r="A137" s="12" t="s">
         <v>1440</v>
       </c>
-      <c r="B137" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>giftcodesbanner/狼少女蘭吉-bar.jpg</v>
+      <c r="C137" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>giftcodesbanner/狼少女蘭吉-禮包碼.jpg</v>
       </c>
       <c r="D137" s="10" t="s">
         <v>1434</v>
@@ -14545,9 +14545,9 @@
       <c r="A138" s="11" t="s">
         <v>1438</v>
       </c>
-      <c r="B138" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>giftcodesbanner/RO仙境傳說:曙光-bar.jpg</v>
+      <c r="C138" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>giftcodesbanner/RO仙境傳說:曙光-禮包碼.jpg</v>
       </c>
       <c r="D138" s="10" t="s">
         <v>1435</v>
@@ -14644,9 +14644,9 @@
       <c r="A139" s="11" t="s">
         <v>1439</v>
       </c>
-      <c r="B139" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>giftcodesbanner/星曲Ultra-bar.jpg</v>
+      <c r="C139" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>giftcodesbanner/星曲Ultra-禮包碼.jpg</v>
       </c>
       <c r="D139" s="10" t="s">
         <v>1436</v>

--- a/giftcodes.xlsx
+++ b/giftcodes.xlsx
@@ -5314,41 +5314,6 @@
     <t>屍戰王朝</t>
   </si>
   <si>
-    <r>
-      <t>RO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>仙境傳說</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>曙光</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>星曲Ultra</t>
   </si>
   <si>
@@ -5501,6 +5466,22 @@
   </si>
   <si>
     <t>更新中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>RO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>仙境傳說：曙光</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6004,7 +5985,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C133" sqref="C133"/>
+      <selection pane="bottomRight" activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5"/>
@@ -14391,81 +14372,81 @@
         <v>21</v>
       </c>
       <c r="J135" s="13" t="s">
+        <v>1441</v>
+      </c>
+      <c r="K135" s="14" t="s">
         <v>1442</v>
       </c>
-      <c r="K135" s="14" t="s">
+      <c r="L135" s="13" t="s">
         <v>1443</v>
       </c>
-      <c r="L135" s="13" t="s">
+      <c r="M135" s="14" t="s">
         <v>1444</v>
       </c>
-      <c r="M135" s="14" t="s">
+      <c r="N135" s="13" t="s">
         <v>1445</v>
       </c>
-      <c r="N135" s="13" t="s">
+      <c r="O135" s="14" t="s">
         <v>1446</v>
       </c>
-      <c r="O135" s="14" t="s">
+      <c r="P135" s="13" t="s">
         <v>1447</v>
       </c>
-      <c r="P135" s="13" t="s">
+      <c r="Q135" s="14" t="s">
         <v>1448</v>
       </c>
-      <c r="Q135" s="14" t="s">
+      <c r="R135" s="13" t="s">
         <v>1449</v>
       </c>
-      <c r="R135" s="13" t="s">
+      <c r="S135" s="14" t="s">
         <v>1450</v>
       </c>
-      <c r="S135" s="14" t="s">
+      <c r="T135" s="13" t="s">
         <v>1451</v>
       </c>
-      <c r="T135" s="13" t="s">
+      <c r="U135" s="14" t="s">
         <v>1452</v>
-      </c>
-      <c r="U135" s="14" t="s">
-        <v>1453</v>
       </c>
       <c r="V135" s="13" t="s">
         <v>232</v>
       </c>
       <c r="W135" s="14" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="X135" s="13" t="s">
         <v>69</v>
       </c>
       <c r="Y135" s="14" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="Z135" s="13" t="s">
         <v>70</v>
       </c>
       <c r="AA135" s="14" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="AB135" s="13" t="s">
         <v>233</v>
       </c>
       <c r="AC135" s="14" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="AD135" s="13" t="s">
         <v>234</v>
       </c>
       <c r="AE135" s="14" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="AF135" s="13" t="s">
         <v>235</v>
       </c>
       <c r="AG135" s="14" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="136" spans="1:35" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A136" s="12" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="C136" s="2" t="str">
         <f t="shared" ref="C136:C139" si="3">"giftcodesbanner/" &amp; A136 &amp; "-禮包碼.jpg"</f>
@@ -14484,33 +14465,33 @@
         <v>21</v>
       </c>
       <c r="J136" s="15" t="s">
+        <v>1459</v>
+      </c>
+      <c r="K136" s="2" t="s">
         <v>1460</v>
       </c>
-      <c r="K136" s="2" t="s">
+      <c r="L136" s="2" t="s">
         <v>1461</v>
       </c>
-      <c r="L136" s="2" t="s">
+      <c r="M136" s="2" t="s">
         <v>1462</v>
       </c>
-      <c r="M136" s="2" t="s">
+      <c r="N136" s="2" t="s">
         <v>1463</v>
       </c>
-      <c r="N136" s="2" t="s">
+      <c r="O136" s="2" t="s">
         <v>1464</v>
       </c>
-      <c r="O136" s="2" t="s">
+      <c r="P136" s="2" t="s">
         <v>1465</v>
       </c>
-      <c r="P136" s="2" t="s">
+      <c r="Q136" s="2" t="s">
         <v>1466</v>
-      </c>
-      <c r="Q136" s="2" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="137" spans="1:35" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A137" s="12" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C137" s="2" t="str">
         <f t="shared" si="3"/>
@@ -14529,25 +14510,25 @@
         <v>21</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="138" spans="1:35" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A138" s="11" t="s">
-        <v>1438</v>
+        <v>1481</v>
       </c>
       <c r="C138" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>giftcodesbanner/RO仙境傳說:曙光-禮包碼.jpg</v>
+        <v>giftcodesbanner/RO仙境傳說：曙光-禮包碼.jpg</v>
       </c>
       <c r="D138" s="10" t="s">
         <v>1435</v>
@@ -14562,79 +14543,79 @@
         <v>21</v>
       </c>
       <c r="J138" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="L138" s="2" t="s">
         <v>1468</v>
       </c>
-      <c r="K138" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="L138" s="2" t="s">
+      <c r="M138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="N138" s="2" t="s">
         <v>1469</v>
       </c>
-      <c r="M138" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="N138" s="2" t="s">
+      <c r="O138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="P138" s="16" t="s">
         <v>1470</v>
       </c>
-      <c r="O138" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="P138" s="16" t="s">
+      <c r="Q138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="R138" s="16" t="s">
         <v>1471</v>
       </c>
-      <c r="Q138" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="R138" s="16" t="s">
+      <c r="S138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="T138" s="16" t="s">
         <v>1472</v>
       </c>
-      <c r="S138" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="T138" s="16" t="s">
+      <c r="U138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="V138" s="16" t="s">
         <v>1473</v>
       </c>
-      <c r="U138" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="V138" s="16" t="s">
+      <c r="W138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="X138" s="16" t="s">
         <v>1474</v>
       </c>
-      <c r="W138" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="X138" s="16" t="s">
+      <c r="Y138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="Z138" s="16" t="s">
         <v>1475</v>
       </c>
-      <c r="Y138" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="Z138" s="16" t="s">
+      <c r="AA138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AB138" s="16" t="s">
         <v>1476</v>
       </c>
-      <c r="AA138" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AB138" s="16" t="s">
+      <c r="AC138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AD138" s="16" t="s">
         <v>1477</v>
       </c>
-      <c r="AC138" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AD138" s="16" t="s">
+      <c r="AE138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AF138" s="16" t="s">
         <v>1478</v>
       </c>
-      <c r="AE138" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AF138" s="16" t="s">
+      <c r="AG138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AH138" s="16" t="s">
         <v>1479</v>
-      </c>
-      <c r="AG138" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AH138" s="16" t="s">
-        <v>1480</v>
       </c>
       <c r="AI138" s="2" t="s">
         <v>1243</v>
@@ -14642,7 +14623,7 @@
     </row>
     <row r="139" spans="1:35" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A139" s="11" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="C139" s="2" t="str">
         <f t="shared" si="3"/>
@@ -14661,16 +14642,16 @@
         <v>21</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="140" spans="1:35" ht="19.899999999999999" customHeight="1"/>

--- a/giftcodes.xlsx
+++ b/giftcodes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2607" uniqueCount="1482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2704" uniqueCount="1542">
   <si>
     <t>遊戲名稱</t>
   </si>
@@ -4804,6 +4804,837 @@
   </si>
   <si>
     <t>神州M</t>
+  </si>
+  <si>
+    <t>《雪月風花：Eternal Blade》的故事設定在「雪月鏡」墜裂三界屏障之際，玩家將以卡牌為契，駕馭天律與凡俗戰場，親手重寫三界規則。遊戲美術由韓國團隊操刀，採用 Live2D 技術打造動態神將覺醒效果，配合百種陣營形態切換，呈現出史詩級的韓系美學幻想畫面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《文明帝國：同盟時代》基於策略遊戲《文明帝國》系列研發，提供玩家無限的探索與戰鬥的可能性。遊戲中，玩家可以親身體驗到探索的樂趣，揭開神秘世界的面紗；感受擴張領土的刺激，建立強大的文明；享受開發資源的成就感，推動文明的發展；以及體驗征服敵人的快感，展現策略與智慧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成為魔法世界的連鎖店商業大亨！ 準備好在魔法世界建造屬於你的商業帝國了嗎？瞭解商場經營的一切，從搬運鋪貨到擺放貨架，甚至培訓新的喵喵員工！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由《仙劍奇俠傳》系列正版授權卡牌RPG 手機遊戲《新仙劍奇俠傳Lite》今（20）日宣布正式上市。 官方表示，《新仙劍奇俠傳Lite》集結歷代經典角色，一場全新的仙劍之旅即將到來。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《神州M》的核心系統玩法為「武魂」、「降神」及「封獸」，此三大系統為玩家的俠客之旅提供了更多戰力提升及玩法策略變化。 「武魂系統」是玩家提升戰力的重要依據，透過任務、活動或召喚獲得後，可啟用武魂變身並針對戰局變化靈活切換能力，透過合成、暫存與收藏，打造專屬於俠士的武魂圖鑑與外觀風格。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLADE619</t>
+  </si>
+  <si>
+    <t>荒靈果*3、情義值*1000</t>
+  </si>
+  <si>
+    <t>競猜幣*1、巔峰幣*150、部落威望*5萬</t>
+  </si>
+  <si>
+    <t>珍珠*300、競猜幣*1</t>
+  </si>
+  <si>
+    <t>競猜幣*1、巔峰幣*150、靈石*10萬</t>
+  </si>
+  <si>
+    <t>珍珠*150</t>
+  </si>
+  <si>
+    <t>week1</t>
+  </si>
+  <si>
+    <t>珍珠*100、靈石*10萬</t>
+  </si>
+  <si>
+    <t>week2</t>
+  </si>
+  <si>
+    <t>珍珠*100、太陰石*150</t>
+  </si>
+  <si>
+    <t>week3</t>
+  </si>
+  <si>
+    <t>珍珠*100、荒靈果*1</t>
+  </si>
+  <si>
+    <t>week5</t>
+  </si>
+  <si>
+    <t>珍珠*100、懸賞刷新券*3</t>
+  </si>
+  <si>
+    <t>week6</t>
+  </si>
+  <si>
+    <t>珍珠*100、英雄經驗*5萬</t>
+  </si>
+  <si>
+    <t>week7</t>
+  </si>
+  <si>
+    <t>珍珠*100、戰帖*5</t>
+  </si>
+  <si>
+    <t>week8</t>
+  </si>
+  <si>
+    <t>珍珠*100、4星英雄精魄*30</t>
+  </si>
+  <si>
+    <t>week9</t>
+  </si>
+  <si>
+    <t>珍珠*100、青銅裝備*2</t>
+  </si>
+  <si>
+    <t>week10</t>
+  </si>
+  <si>
+    <t>珍珠*100、法寶殘片*200</t>
+  </si>
+  <si>
+    <t>CIVENARYDN10</t>
+  </si>
+  <si>
+    <t>高級招募令*10</t>
+  </si>
+  <si>
+    <t>GREATNESS-IS-OURS</t>
+  </si>
+  <si>
+    <t>高級招募令*10與資源</t>
+  </si>
+  <si>
+    <t>VIP666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVIP666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVIP777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVIP888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVIP999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100鑽石+1000金幣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200鑽石+2000金幣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300鑽石+3000金幣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500鑽石+5000金幣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000鑽石+10000金幣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000鑽石+20000金幣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000鑽石+50000金幣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivi</t>
+  </si>
+  <si>
+    <t>roger</t>
+  </si>
+  <si>
+    <t>Lite888</t>
+  </si>
+  <si>
+    <t>Lite777</t>
+  </si>
+  <si>
+    <t>Lite666</t>
+  </si>
+  <si>
+    <t>Litereleased</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>misspudding</t>
+  </si>
+  <si>
+    <t>et</t>
+  </si>
+  <si>
+    <t>SWEET</t>
+  </si>
+  <si>
+    <t>akaoni</t>
+  </si>
+  <si>
+    <t>DCUST4MT</t>
+  </si>
+  <si>
+    <t>FBedF7cc</t>
+  </si>
+  <si>
+    <t>DC7fANG8</t>
+  </si>
+  <si>
+    <t>DCbkGjBE</t>
+  </si>
+  <si>
+    <t>FBnneN4Y</t>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄傳說：卡卡布三部曲</t>
+  </si>
+  <si>
+    <t>卡卡布三部曲是頗具規模的虛構故事，三段故事分別發生於同一塊大陸、卻互相隔離的三個區域，但故事間又彼此互有關連。 穿越南北的大地的裂縫「卡卡布」，延伸至南邊橫亙東西向的險峻巨大山脈「大蛇的背骨」，兩者相連將三部作品的舞台完全隔絕。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip777</t>
+  </si>
+  <si>
+    <t>vip888</t>
+  </si>
+  <si>
+    <t>vip999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOHDAY1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP2025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOH0625OB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOHREADYGO5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOHREADYGO3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRAGONBOAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOH777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOH888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOH999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡來英雄</t>
+  </si>
+  <si>
+    <t>一天又一天的RPG</t>
+  </si>
+  <si>
+    <t>銀與血</t>
+  </si>
+  <si>
+    <t>緋石之心</t>
+  </si>
+  <si>
+    <t>YY6666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鑽石*500+一星橙裝套箱*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YXZ888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鑽石*500+高級英雄卡*10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOVE666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鑽石*200+金幣*250000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>holy2025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鑽石*200+經驗藥水*250K+星石*300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUCK2025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鑽石*200+金幣*500K+星石*300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鑽石*300+高級英雄卡*2+普通英雄卡*10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>親愛的勇者，歡迎進入「胡來國度」！
+       在混沌與秩序交織的「胡來國度」，一場不明危機正悄然蔓延——天空撕裂出詭異的暗影裂隙，大地滋生腐化的魔物，古老的預言警示著末日的臨近。作為被「淨土水晶」選中的勇者，你將從邊陲小鎮出發，集結性格各異的英雄：叛逆的森林精靈、狂熱的機械魔物、英勇的天神戰士……他們或因信念，或因利益，與你共同踏上征程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《一天又一天的RPG》以「日復一日」的冒險旅程為主題，玩家將在像素世界中扮演主角，透過每日選擇影響角色成長、觸發各種奇遇事件，體驗多重結局與人生百態。 遊戲結合輕鬆放置與策略養成，無論是休閒玩家還是喜愛深度劇情的冒險者，都能找到屬於自己的樂趣。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daydayRPG0430</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daydayRPG0501</t>
+  </si>
+  <si>
+    <t>daydayRPG0502</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advance0526</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advance0602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0530RPG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官方指出，《銀與血》集多元玩法於一身：命運絲線牽引，揭開扣人心弦的劇情；獵殺之夜降臨，強化你的忠誠眷屬；鮮血鬥技場中，與他人一決高下；月暮之城重鑄，成為運籌帷幄的領主。上線期間官方同步攜手多位人氣實況主展開實況試玩活動，全方位解析《銀與血》玩法亮點，助力領主們撰寫屬於自己的勝利史詩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《緋石之心》以濃厚的哥德藝術風格和末世奇幻世界觀為核心，講述在「神罰」降臨後，失憶的「醫生」將如何踏上覺醒之旅，尋找名為「緋石之心」的神秘力量，重啟文明與秩序。宏大的世界觀、超過 5,000 條主線文本、15 種以上豐富玩法，以及由中日 57 位人氣 CV 傾情演出，打造沉浸式敘事體驗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">S9XXCM2222X  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9EJTD2222V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Q43EPB2222U  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CX6DNN2222T  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SAB0626  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SABLAUNCH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAEH7649</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滔湧少女</t>
+  </si>
+  <si>
+    <t>漫威祕法狂潮</t>
+  </si>
+  <si>
+    <t>魔教回歸：2D MMORPG</t>
+  </si>
+  <si>
+    <t>曾經是天魔的我，醒來後竟回到了低等魔人！上吧！在全新的魔道世界中，成長為天魔的 MMORPG !!
+裝備不用抽！刷裝才是MMORPG的王道！8次轉生與全新轉職！透過覺醒獲得頓悟，最終成為天魔絕非難事！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《洶湧少女～WaveGirls》自事前預約開啟以來，獲得許多社長大人熱情支持，成功解鎖各階段達成獎勵！為慶祝預約人數突破 20 萬，各位社長大人只要在 6 月 25 日遊戲上線後下載並登入遊戲，即可獲得全部事前預約獎勵 —— 結識驍勇善戰又「波濤洶湧」的「海物娘」，帶領她們一起在嶄新的世界中展開冒險吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《漫威秘法狂潮》打造全新世界觀，在「夢魘（Nightmare）」入侵現實後，將整個宇宙拖入混亂的夢境之中。玩家將在奇異博士與夢遊者的引導下，集結熟悉的漫威英雄們，面對扭曲的反派與自身深層恐懼，包括緋紅女巫的潛意識崩壞、美國隊長的責任與悔恨，揭開一段從未曝光的心理戰線。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WG666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WG777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WG888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WG999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MMMGLMMMGL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橫幅圖片檔名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《屍戰王朝》是以朝鮮王朝為背景的屍戰驚悚 MMO 手遊，遊戲內設有王朝特色職業供玩家自由選擇。朝鮮王庭武士為朝鮮第一劍，天生的武藝奇才精通劍法，擅長揮舞長劍捍衛國家的榮譽和百姓的安寧。遊牧遊獵則是居住在朝鮮王朝北方邊境的民族，擅長使用短刀攻擊和召喚蒼鷹發射羽箭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《機甲變變變》是一款科幻機甲題材遊戲，主打「輕鬆射擊、瘋狂割草」的爽快戰鬥體驗，玩家將化身末日世界中的王牌機甲駕駛員，自由改裝各種帥氣、可愛機甲，搭配隕星炮、超級飛彈等毀滅級武器，無腦爽刷成群喪屍！ 單手就能輕鬆操作，見一個射一個，輕鬆上演千人斬，體驗無限割草快感，即使連戰數回也毫無壓力，真正做到「療癒又解壓」！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《狼少女蘭吉！》 7月1日 正式上線 Go Go Wolf Idle RPG 狼人變身放置型無限成長 RPG | 少女吃了西紅柿 月光下變身狼人 施展猛烈砍殺動作 召喚強大的技能 設定終極技能組合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由 Gravity Game Vision 打造的 MMORPG 手遊新作《RO 仙境傳說：曙光》今（3）日於港澳台地區雙平台（iOS / Android）正式上市。官方表示，本作延續《仙境傳說》經典 IP，結合創新的「英雄變身」與「雙人小隊」社交玩法，帶來全新 RO 體驗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西方魔幻風格網頁遊戲《星曲》的全新手機遊戲《星曲 Ultra》於今日正式上線。官方表示，本作由原班團隊第七大道打造，既保留了原作版本的核心元素，又結合行動裝置特性進行全面最佳化，經典與創新的完美融合，讓這個十三年前的經典 IP 煥發新生命力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屍戰王朝</t>
+  </si>
+  <si>
+    <t>星曲Ultra</t>
+  </si>
+  <si>
+    <t>狼少女蘭吉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>機甲變變變</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>welcome666</t>
+  </si>
+  <si>
+    <t>綁定金條*88、試煉石*15、魂力丹*30</t>
+  </si>
+  <si>
+    <t>DC888</t>
+  </si>
+  <si>
+    <t>綁定金條*188、靈體洗鍊石*10、精鐵*20</t>
+  </si>
+  <si>
+    <t>SZ6666</t>
+  </si>
+  <si>
+    <t>綁定金條*188、突破丹·騎*20、靈畫符·騎*50</t>
+  </si>
+  <si>
+    <t>SZ8888</t>
+  </si>
+  <si>
+    <t>綁定金條*300、精鐵*20、銅錢*18.89萬</t>
+  </si>
+  <si>
+    <t>Nikki666</t>
+  </si>
+  <si>
+    <t>2倍經驗藥水*1、銅錢*10萬、精鐵*5</t>
+  </si>
+  <si>
+    <t>Nikki888</t>
+  </si>
+  <si>
+    <t>突破丹·騎*5、靈畫符·騎*30、尋寶票*3</t>
+  </si>
+  <si>
+    <t>靈玉袋*5、魂力丹*10、精鐵*3</t>
+  </si>
+  <si>
+    <t>圖騰袋*5、靈畫符·騎*10、綺羅珠*20</t>
+  </si>
+  <si>
+    <t>神龕*2、騎寵進階料箱*10、尋寶票*3</t>
+  </si>
+  <si>
+    <t>鬼化丹·寵*10、精鐵*3、道門升級材料箱*5</t>
+  </si>
+  <si>
+    <t>尋寶票*3、綺羅珠*20、魂力丹*5</t>
+  </si>
+  <si>
+    <t>華裳幣*2、秘鑰·紅塵煉心*1、尋寶票*3</t>
+  </si>
+  <si>
+    <t>鑽石* 100，部件抽獎鑰匙* 1 ，飾品碎片*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA3333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鑽石* 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA7777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>強化石* 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA2025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金幣* 10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVIP666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVIP888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J0RO666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6tanRO666</t>
+  </si>
+  <si>
+    <t>RPG666</t>
+  </si>
+  <si>
+    <t>ROG888</t>
+  </si>
+  <si>
+    <t>FBHAPPY</t>
+  </si>
+  <si>
+    <t>ROSG</t>
+  </si>
+  <si>
+    <t>RO666</t>
+  </si>
+  <si>
+    <t>RO888</t>
+  </si>
+  <si>
+    <t>RO2025</t>
+  </si>
+  <si>
+    <t>RO999</t>
+  </si>
+  <si>
+    <t>VIPFree</t>
+  </si>
+  <si>
+    <t>更新中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七天災</t>
+  </si>
+  <si>
+    <t>百萬神界</t>
+  </si>
+  <si>
+    <t>Dark war</t>
+  </si>
+  <si>
+    <t>《第七天災》主打天災逃生玩法，各位救世主將在無法預測的災難中尋找生機，有阻斷各處通路的洪水，高溫引發的酷暑和持續掉血的蟲災等，副本最後還要面對數以萬計的魔潮進攻。 是在死亡倒計時中艱難生存，還是帶領眾人逃出生天，天災之下的故事由玩家書寫。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《百萬神界》是一款由上海沐瞳科技有限公司發行的策略角色扮演手遊，以奇幻神話為背景，融合卡牌收集與策略戰鬥元素。 遊戲以其精美的畫面、豐富的角色養成系統和多元化的策略玩法受到玩家喜愛。 作為一款免費下載的手遊，它支援多平台，操作簡單且易上手，適合各類玩家。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一場突如其來的殭屍病毒使人類文明分崩離析，你曾經溫馨舒適的生活不復存在。 一個個親人、朋友在你眼前變成了殭屍。 一路跌跌撞撞逃出來，現在的你面臨終極挑戰：建立避難所躲避殭屍末日、重新點亮人類文明的火種。 你能否順利應對這危機四伏的環境，並帶領其他倖存者一起重建文明？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEEPSPACE4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>極空許願券 ×10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAPPINESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鑽石×200＋體力×200＋心願之瓶·稀有×520＋訂製頭飾·「全宇宙最幸福的人」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3DLOVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100粉鑽+一張極空許願券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>love2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LnDxUki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LnDxIke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LnDxLuca</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LnDxFulgur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOVEDEEP1004</t>
+  </si>
+  <si>
+    <t>100000FOLLOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速魔方*1+銀砂磁石*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心願之瓶·珍貴*5+金幣*20000+體力*50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP555</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鑽石500、魔靈經驗5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>綁定龍晶*50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鑽石500、低級強化石10、低級強化石‧飾品*10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>綁定龍晶50、初級天神水晶10、潮汐神力1、風暴神力1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">vip999 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>svip555 </t>
+  </si>
+  <si>
+    <t>svip666 </t>
+  </si>
+  <si>
+    <t>svip777 </t>
+  </si>
+  <si>
+    <t>svip999 </t>
+  </si>
+  <si>
+    <t>ssvip444 </t>
+  </si>
+  <si>
+    <t>ssvip555 </t>
+  </si>
+  <si>
+    <t>sssvip333 </t>
+  </si>
+  <si>
+    <t>sssvip444 </t>
+  </si>
+  <si>
+    <t>sssvip555 </t>
+  </si>
+  <si>
+    <t>sssvip666 </t>
+  </si>
+  <si>
+    <t>sssvip777 </t>
+  </si>
+  <si>
+    <t>sssvip888 </t>
+  </si>
+  <si>
+    <t>sssvip999</t>
+  </si>
+  <si>
+    <t>YYDS666</t>
+  </si>
+  <si>
+    <t>LUCK888</t>
+  </si>
+  <si>
+    <t>突破石×100、普通召喚契約×3、金幣×66萬</t>
+  </si>
+  <si>
+    <t>GOD888</t>
+  </si>
+  <si>
+    <t>普通召喚契約×5、突破石×150、靈力×88萬</t>
+  </si>
+  <si>
+    <t>普通尋寶鑰匙×2、鑽石×100、金幣×88萬</t>
+  </si>
+  <si>
+    <t>普通尋寶鑰匙×3、刷新券×3、桃花釀×1</t>
+  </si>
+  <si>
+    <t>GODS188</t>
+  </si>
+  <si>
+    <t>普通尋寶鑰匙×10、突破石×88、鑽石×88</t>
+  </si>
+  <si>
+    <t>GODS288</t>
+  </si>
+  <si>
+    <t>高級尋寶鑰匙×1、突破石×188、鑽石×100</t>
+  </si>
+  <si>
+    <t>GODS388</t>
+  </si>
+  <si>
+    <t>高級召喚契約×2、突破石×288、鑽石×200</t>
+  </si>
+  <si>
+    <t>GODS588</t>
+  </si>
+  <si>
+    <t>高級召喚契約×3、千萬金幣禮×1、鑽石×300</t>
+  </si>
+  <si>
+    <t>GODS688</t>
+  </si>
+  <si>
+    <t>1000抽好禮×1、鑽石×400</t>
+  </si>
+  <si>
+    <t>RO仙境傳說：曙光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4832,553 +5663,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>《雪月風花：Eternal Blade》的故事設定在「雪月鏡」墜裂三界屏障之際，玩家將以卡牌為契，駕馭天律與凡俗戰場，親手重寫三界規則。遊戲美術由韓國團隊操刀，採用 Live2D 技術打造動態神將覺醒效果，配合百種陣營形態切換，呈現出史詩級的韓系美學幻想畫面。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《文明帝國：同盟時代》基於策略遊戲《文明帝國》系列研發，提供玩家無限的探索與戰鬥的可能性。遊戲中，玩家可以親身體驗到探索的樂趣，揭開神秘世界的面紗；感受擴張領土的刺激，建立強大的文明；享受開發資源的成就感，推動文明的發展；以及體驗征服敵人的快感，展現策略與智慧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成為魔法世界的連鎖店商業大亨！ 準備好在魔法世界建造屬於你的商業帝國了嗎？瞭解商場經營的一切，從搬運鋪貨到擺放貨架，甚至培訓新的喵喵員工！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由《仙劍奇俠傳》系列正版授權卡牌RPG 手機遊戲《新仙劍奇俠傳Lite》今（20）日宣布正式上市。 官方表示，《新仙劍奇俠傳Lite》集結歷代經典角色，一場全新的仙劍之旅即將到來。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《神州M》的核心系統玩法為「武魂」、「降神」及「封獸」，此三大系統為玩家的俠客之旅提供了更多戰力提升及玩法策略變化。 「武魂系統」是玩家提升戰力的重要依據，透過任務、活動或召喚獲得後，可啟用武魂變身並針對戰局變化靈活切換能力，透過合成、暫存與收藏，打造專屬於俠士的武魂圖鑑與外觀風格。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLADE619</t>
-  </si>
-  <si>
-    <t>荒靈果*3、情義值*1000</t>
-  </si>
-  <si>
-    <t>競猜幣*1、巔峰幣*150、部落威望*5萬</t>
-  </si>
-  <si>
-    <t>珍珠*300、競猜幣*1</t>
-  </si>
-  <si>
-    <t>競猜幣*1、巔峰幣*150、靈石*10萬</t>
-  </si>
-  <si>
-    <t>珍珠*150</t>
-  </si>
-  <si>
-    <t>week1</t>
-  </si>
-  <si>
-    <t>珍珠*100、靈石*10萬</t>
-  </si>
-  <si>
-    <t>week2</t>
-  </si>
-  <si>
-    <t>珍珠*100、太陰石*150</t>
-  </si>
-  <si>
-    <t>week3</t>
-  </si>
-  <si>
-    <t>珍珠*100、荒靈果*1</t>
-  </si>
-  <si>
-    <t>week5</t>
-  </si>
-  <si>
-    <t>珍珠*100、懸賞刷新券*3</t>
-  </si>
-  <si>
-    <t>week6</t>
-  </si>
-  <si>
-    <t>珍珠*100、英雄經驗*5萬</t>
-  </si>
-  <si>
-    <t>week7</t>
-  </si>
-  <si>
-    <t>珍珠*100、戰帖*5</t>
-  </si>
-  <si>
-    <t>week8</t>
-  </si>
-  <si>
-    <t>珍珠*100、4星英雄精魄*30</t>
-  </si>
-  <si>
-    <t>week9</t>
-  </si>
-  <si>
-    <t>珍珠*100、青銅裝備*2</t>
-  </si>
-  <si>
-    <t>week10</t>
-  </si>
-  <si>
-    <t>珍珠*100、法寶殘片*200</t>
-  </si>
-  <si>
-    <t>CIVENARYDN10</t>
-  </si>
-  <si>
-    <t>高級招募令*10</t>
-  </si>
-  <si>
-    <t>GREATNESS-IS-OURS</t>
-  </si>
-  <si>
-    <t>高級招募令*10與資源</t>
-  </si>
-  <si>
-    <t>VIP666</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP777</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SVIP666</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SVIP777</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SVIP888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SVIP999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100鑽石+1000金幣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200鑽石+2000金幣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300鑽石+3000金幣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500鑽石+5000金幣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000鑽石+10000金幣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000鑽石+20000金幣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000鑽石+50000金幣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vivi</t>
-  </si>
-  <si>
-    <t>roger</t>
-  </si>
-  <si>
-    <t>Lite888</t>
-  </si>
-  <si>
-    <t>Lite777</t>
-  </si>
-  <si>
-    <t>Lite666</t>
-  </si>
-  <si>
-    <t>Litereleased</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>misspudding</t>
-  </si>
-  <si>
-    <t>et</t>
-  </si>
-  <si>
-    <t>SWEET</t>
-  </si>
-  <si>
-    <t>akaoni</t>
-  </si>
-  <si>
-    <t>DCUST4MT</t>
-  </si>
-  <si>
-    <t>FBedF7cc</t>
-  </si>
-  <si>
-    <t>DC7fANG8</t>
-  </si>
-  <si>
-    <t>DCbkGjBE</t>
-  </si>
-  <si>
-    <t>FBnneN4Y</t>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄傳說：卡卡布三部曲</t>
-  </si>
-  <si>
-    <t>卡卡布三部曲是頗具規模的虛構故事，三段故事分別發生於同一塊大陸、卻互相隔離的三個區域，但故事間又彼此互有關連。 穿越南北的大地的裂縫「卡卡布」，延伸至南邊橫亙東西向的險峻巨大山脈「大蛇的背骨」，兩者相連將三部作品的舞台完全隔絕。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip666</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip777</t>
-  </si>
-  <si>
-    <t>vip888</t>
-  </si>
-  <si>
-    <t>vip999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOHDAY1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP2025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOH0625OB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOHREADYGO5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOHREADYGO3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DRAGONBOAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOH777</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOH888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOH999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡來英雄</t>
-  </si>
-  <si>
-    <t>一天又一天的RPG</t>
-  </si>
-  <si>
-    <t>銀與血</t>
-  </si>
-  <si>
-    <t>緋石之心</t>
-  </si>
-  <si>
-    <t>YY6666</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鑽石*500+一星橙裝套箱*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YXZ888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鑽石*500+高級英雄卡*10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOVE666</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鑽石*200+金幣*250000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>holy2025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鑽石*200+經驗藥水*250K+星石*300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LUCK2025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鑽石*200+金幣*500K+星石*300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CODE000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鑽石*300+高級英雄卡*2+普通英雄卡*10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>親愛的勇者，歡迎進入「胡來國度」！
-       在混沌與秩序交織的「胡來國度」，一場不明危機正悄然蔓延——天空撕裂出詭異的暗影裂隙，大地滋生腐化的魔物，古老的預言警示著末日的臨近。作為被「淨土水晶」選中的勇者，你將從邊陲小鎮出發，集結性格各異的英雄：叛逆的森林精靈、狂熱的機械魔物、英勇的天神戰士……他們或因信念，或因利益，與你共同踏上征程。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《一天又一天的RPG》以「日復一日」的冒險旅程為主題，玩家將在像素世界中扮演主角，透過每日選擇影響角色成長、觸發各種奇遇事件，體驗多重結局與人生百態。 遊戲結合輕鬆放置與策略養成，無論是休閒玩家還是喜愛深度劇情的冒險者，都能找到屬於自己的樂趣。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>daydayRPG0430</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>daydayRPG0501</t>
-  </si>
-  <si>
-    <t>daydayRPG0502</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>advance0526</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>advance0602</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0530RPG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官方指出，《銀與血》集多元玩法於一身：命運絲線牽引，揭開扣人心弦的劇情；獵殺之夜降臨，強化你的忠誠眷屬；鮮血鬥技場中，與他人一決高下；月暮之城重鑄，成為運籌帷幄的領主。上線期間官方同步攜手多位人氣實況主展開實況試玩活動，全方位解析《銀與血》玩法亮點，助力領主們撰寫屬於自己的勝利史詩。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《緋石之心》以濃厚的哥德藝術風格和末世奇幻世界觀為核心，講述在「神罰」降臨後，失憶的「醫生」將如何踏上覺醒之旅，尋找名為「緋石之心」的神秘力量，重啟文明與秩序。宏大的世界觀、超過 5,000 條主線文本、15 種以上豐富玩法，以及由中日 57 位人氣 CV 傾情演出，打造沉浸式敘事體驗。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">S9XXCM2222X  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A9EJTD2222V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Q43EPB2222U  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CX6DNN2222T  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SAB0626  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SABLAUNCH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAEH7649</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP666</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滔湧少女</t>
-  </si>
-  <si>
-    <t>漫威祕法狂潮</t>
-  </si>
-  <si>
-    <t>魔教回歸：2D MMORPG</t>
-  </si>
-  <si>
-    <t>曾經是天魔的我，醒來後竟回到了低等魔人！上吧！在全新的魔道世界中，成長為天魔的 MMORPG !!
-裝備不用抽！刷裝才是MMORPG的王道！8次轉生與全新轉職！透過覺醒獲得頓悟，最終成為天魔絕非難事！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《洶湧少女～WaveGirls》自事前預約開啟以來，獲得許多社長大人熱情支持，成功解鎖各階段達成獎勵！為慶祝預約人數突破 20 萬，各位社長大人只要在 6 月 25 日遊戲上線後下載並登入遊戲，即可獲得全部事前預約獎勵 —— 結識驍勇善戰又「波濤洶湧」的「海物娘」，帶領她們一起在嶄新的世界中展開冒險吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《漫威秘法狂潮》打造全新世界觀，在「夢魘（Nightmare）」入侵現實後，將整個宇宙拖入混亂的夢境之中。玩家將在奇異博士與夢遊者的引導下，集結熟悉的漫威英雄們，面對扭曲的反派與自身深層恐懼，包括緋紅女巫的潛意識崩壞、美國隊長的責任與悔恨，揭開一段從未曝光的心理戰線。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WG666</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WG777</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WG888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WG999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MMMGLMMMGL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP666</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP777</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIP888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>橫幅圖片檔名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《屍戰王朝》是以朝鮮王朝為背景的屍戰驚悚 MMO 手遊，遊戲內設有王朝特色職業供玩家自由選擇。朝鮮王庭武士為朝鮮第一劍，天生的武藝奇才精通劍法，擅長揮舞長劍捍衛國家的榮譽和百姓的安寧。遊牧遊獵則是居住在朝鮮王朝北方邊境的民族，擅長使用短刀攻擊和召喚蒼鷹發射羽箭。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《機甲變變變》是一款科幻機甲題材遊戲，主打「輕鬆射擊、瘋狂割草」的爽快戰鬥體驗，玩家將化身末日世界中的王牌機甲駕駛員，自由改裝各種帥氣、可愛機甲，搭配隕星炮、超級飛彈等毀滅級武器，無腦爽刷成群喪屍！ 單手就能輕鬆操作，見一個射一個，輕鬆上演千人斬，體驗無限割草快感，即使連戰數回也毫無壓力，真正做到「療癒又解壓」！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《狼少女蘭吉！》 7月1日 正式上線 Go Go Wolf Idle RPG 狼人變身放置型無限成長 RPG | 少女吃了西紅柿 月光下變身狼人 施展猛烈砍殺動作 召喚強大的技能 設定終極技能組合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由 Gravity Game Vision 打造的 MMORPG 手遊新作《RO 仙境傳說：曙光》今（3）日於港澳台地區雙平台（iOS / Android）正式上市。官方表示，本作延續《仙境傳說》經典 IP，結合創新的「英雄變身」與「雙人小隊」社交玩法，帶來全新 RO 體驗。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西方魔幻風格網頁遊戲《星曲》的全新手機遊戲《星曲 Ultra》於今日正式上線。官方表示，本作由原班團隊第七大道打造，既保留了原作版本的核心元素，又結合行動裝置特性進行全面最佳化，經典與創新的完美融合，讓這個十三年前的經典 IP 煥發新生命力。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>屍戰王朝</t>
-  </si>
-  <si>
-    <t>星曲Ultra</t>
-  </si>
-  <si>
-    <t>狼少女蘭吉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>機甲變變變</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>welcome666</t>
-  </si>
-  <si>
-    <t>綁定金條*88、試煉石*15、魂力丹*30</t>
-  </si>
-  <si>
-    <t>DC888</t>
-  </si>
-  <si>
-    <t>綁定金條*188、靈體洗鍊石*10、精鐵*20</t>
-  </si>
-  <si>
-    <t>SZ6666</t>
-  </si>
-  <si>
-    <t>綁定金條*188、突破丹·騎*20、靈畫符·騎*50</t>
-  </si>
-  <si>
-    <t>SZ8888</t>
-  </si>
-  <si>
-    <t>綁定金條*300、精鐵*20、銅錢*18.89萬</t>
-  </si>
-  <si>
-    <t>Nikki666</t>
-  </si>
-  <si>
-    <t>2倍經驗藥水*1、銅錢*10萬、精鐵*5</t>
-  </si>
-  <si>
-    <t>Nikki888</t>
-  </si>
-  <si>
-    <t>突破丹·騎*5、靈畫符·騎*30、尋寶票*3</t>
-  </si>
-  <si>
-    <t>靈玉袋*5、魂力丹*10、精鐵*3</t>
-  </si>
-  <si>
-    <t>圖騰袋*5、靈畫符·騎*10、綺羅珠*20</t>
-  </si>
-  <si>
-    <t>神龕*2、騎寵進階料箱*10、尋寶票*3</t>
-  </si>
-  <si>
-    <t>鬼化丹·寵*10、精鐵*3、道門升級材料箱*5</t>
-  </si>
-  <si>
-    <t>尋寶票*3、綺羅珠*20、魂力丹*5</t>
-  </si>
-  <si>
-    <t>華裳幣*2、秘鑰·紅塵煉心*1、尋寶票*3</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">MICHAN </t>
     </r>
@@ -5394,102 +5678,12 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>鑽石* 100，部件抽獎鑰匙* 1 ，飾品碎片*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MA3333</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鑽石* 50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MA7777</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>強化石* 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MA2025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金幣* 10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SVIP666</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SVIP888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J0RO666</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6tanRO666</t>
-  </si>
-  <si>
-    <t>RPG666</t>
-  </si>
-  <si>
-    <t>ROG888</t>
-  </si>
-  <si>
-    <t>FBHAPPY</t>
-  </si>
-  <si>
-    <t>ROSG</t>
-  </si>
-  <si>
-    <t>RO666</t>
-  </si>
-  <si>
-    <t>RO888</t>
-  </si>
-  <si>
-    <t>RO2025</t>
-  </si>
-  <si>
-    <t>RO999</t>
-  </si>
-  <si>
-    <t>VIPFree</t>
-  </si>
-  <si>
-    <t>更新中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>RO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>仙境傳說：曙光</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5525,79 +5719,22 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Inherit"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0F0F0F"/>
-      <name val="Inherit"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF222222"/>
       <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -5605,35 +5742,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5658,23 +5771,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -5979,16 +6075,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW657"/>
+  <dimension ref="A1:AW656"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A138" sqref="A138"/>
+      <selection pane="bottomRight" activeCell="A140" sqref="A140:XFD140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.85546875" style="2" customWidth="1"/>
     <col min="2" max="3" width="37.28515625" style="2" customWidth="1"/>
@@ -5998,7 +6094,7 @@
     <col min="35" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6006,7 +6102,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -6147,7 +6243,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="2" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>107</v>
       </c>
@@ -6282,7 +6378,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="3" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="3" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>108</v>
       </c>
@@ -6327,7 +6423,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="4" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>109</v>
       </c>
@@ -6369,7 +6465,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="5" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="5" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>110</v>
       </c>
@@ -6468,7 +6564,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="6" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="6" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>111</v>
       </c>
@@ -6495,7 +6591,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="7" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>112</v>
       </c>
@@ -6558,7 +6654,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="8" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>113</v>
       </c>
@@ -6615,7 +6711,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="9" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="9" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>114</v>
       </c>
@@ -6708,7 +6804,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="10" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>115</v>
       </c>
@@ -6777,7 +6873,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="11" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>116</v>
       </c>
@@ -6816,7 +6912,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="12" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="12" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>117</v>
       </c>
@@ -6849,7 +6945,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="13" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="13" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>118</v>
       </c>
@@ -6918,7 +7014,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="14" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>119</v>
       </c>
@@ -7011,7 +7107,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="15" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="15" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>120</v>
       </c>
@@ -7062,7 +7158,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="16" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="16" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>121</v>
       </c>
@@ -7089,7 +7185,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="19.899999999999999" customHeight="1">
+    <row r="17" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>122</v>
       </c>
@@ -7152,7 +7248,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="19.899999999999999" customHeight="1">
+    <row r="18" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>123</v>
       </c>
@@ -7197,7 +7293,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="19.899999999999999" customHeight="1">
+    <row r="19" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>124</v>
       </c>
@@ -7266,7 +7362,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="19.899999999999999" customHeight="1">
+    <row r="20" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>125</v>
       </c>
@@ -7353,7 +7449,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="19.899999999999999" customHeight="1">
+    <row r="21" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>126</v>
       </c>
@@ -7404,7 +7500,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="19.899999999999999" customHeight="1">
+    <row r="22" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>127</v>
       </c>
@@ -7431,7 +7527,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="19.899999999999999" customHeight="1">
+    <row r="23" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>128</v>
       </c>
@@ -7512,7 +7608,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="19.899999999999999" customHeight="1">
+    <row r="24" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>129</v>
       </c>
@@ -7569,7 +7665,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="19.899999999999999" customHeight="1">
+    <row r="25" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>130</v>
       </c>
@@ -7644,7 +7740,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="19.899999999999999" customHeight="1">
+    <row r="26" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>131</v>
       </c>
@@ -7674,7 +7770,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="19.899999999999999" customHeight="1">
+    <row r="27" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>132</v>
       </c>
@@ -7695,7 +7791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="19.899999999999999" customHeight="1">
+    <row r="28" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>133</v>
       </c>
@@ -7728,7 +7824,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="19.899999999999999" customHeight="1">
+    <row r="29" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>134</v>
       </c>
@@ -7755,7 +7851,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="19.899999999999999" customHeight="1">
+    <row r="30" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>135</v>
       </c>
@@ -7824,7 +7920,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="19.899999999999999" customHeight="1">
+    <row r="31" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>136</v>
       </c>
@@ -7863,7 +7959,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="19.899999999999999" customHeight="1">
+    <row r="32" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>137</v>
       </c>
@@ -7890,7 +7986,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="19.899999999999999" customHeight="1">
+    <row r="33" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>138</v>
       </c>
@@ -7977,7 +8073,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="19.899999999999999" customHeight="1">
+    <row r="34" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>139</v>
       </c>
@@ -8070,7 +8166,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="19.899999999999999" customHeight="1">
+    <row r="35" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>140</v>
       </c>
@@ -8115,7 +8211,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="19.899999999999999" customHeight="1">
+    <row r="36" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>141</v>
       </c>
@@ -8178,7 +8274,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="19.899999999999999" customHeight="1">
+    <row r="37" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>142</v>
       </c>
@@ -8211,7 +8307,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="38" spans="1:35" ht="19.899999999999999" customHeight="1">
+    <row r="38" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>336</v>
       </c>
@@ -8256,7 +8352,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="19.899999999999999" customHeight="1">
+    <row r="39" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>143</v>
       </c>
@@ -8301,7 +8397,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="40" spans="1:35" ht="19.899999999999999" customHeight="1">
+    <row r="40" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>144</v>
       </c>
@@ -8352,7 +8448,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="41" spans="1:35" ht="19.899999999999999" customHeight="1">
+    <row r="41" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>145</v>
       </c>
@@ -8415,7 +8511,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="42" spans="1:35" ht="19.899999999999999" customHeight="1">
+    <row r="42" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>146</v>
       </c>
@@ -8514,7 +8610,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="43" spans="1:35" ht="19.899999999999999" customHeight="1">
+    <row r="43" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>147</v>
       </c>
@@ -8613,7 +8709,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="44" spans="1:35" ht="19.899999999999999" customHeight="1">
+    <row r="44" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>148</v>
       </c>
@@ -8688,7 +8784,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="45" spans="1:35" ht="19.899999999999999" customHeight="1">
+    <row r="45" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>149</v>
       </c>
@@ -8787,7 +8883,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="46" spans="1:35" ht="19.899999999999999" customHeight="1">
+    <row r="46" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>150</v>
       </c>
@@ -8843,8 +8939,68 @@
       <c r="U46" s="2" t="s">
         <v>758</v>
       </c>
+      <c r="V46" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="W46" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="X46" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="Y46" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="Z46" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="AA46" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="AB46" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="AC46" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="AD46" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="AE46" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="AF46" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="AG46" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="AH46" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="AI46" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="AJ46" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="AK46" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="AL46" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="AM46" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AN46" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="AO46" s="2" t="s">
+        <v>1243</v>
+      </c>
     </row>
-    <row r="47" spans="1:35" ht="19.899999999999999" customHeight="1">
+    <row r="47" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>151</v>
       </c>
@@ -8895,7 +9051,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="48" spans="1:35" ht="19.899999999999999" customHeight="1">
+    <row r="48" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>152</v>
       </c>
@@ -8976,7 +9132,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="49" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="49" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>153</v>
       </c>
@@ -9021,7 +9177,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="50" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="50" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>154</v>
       </c>
@@ -9090,7 +9246,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="51" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="51" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>155</v>
       </c>
@@ -9135,7 +9291,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="52" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="52" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>156</v>
       </c>
@@ -9168,7 +9324,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="53" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="53" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>157</v>
       </c>
@@ -9213,7 +9369,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="54" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="54" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>158</v>
       </c>
@@ -9342,7 +9498,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="55" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="55" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>159</v>
       </c>
@@ -9459,7 +9615,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="56" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="56" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>160</v>
       </c>
@@ -9536,7 +9692,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="57" spans="1:49" ht="34.5" customHeight="1">
+    <row r="57" spans="1:49" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>161</v>
       </c>
@@ -9629,7 +9785,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="58" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="58" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>162</v>
       </c>
@@ -9668,7 +9824,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="59" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="59" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>163</v>
       </c>
@@ -9743,7 +9899,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="60" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="60" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>164</v>
       </c>
@@ -9842,7 +9998,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="61" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="61" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>52</v>
       </c>
@@ -9869,7 +10025,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="62" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="62" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>165</v>
       </c>
@@ -9980,7 +10136,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="63" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="63" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>166</v>
       </c>
@@ -10121,7 +10277,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="64" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="64" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>167</v>
       </c>
@@ -10154,7 +10310,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="65" spans="1:45" ht="19.899999999999999" customHeight="1">
+    <row r="65" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>168</v>
       </c>
@@ -10211,7 +10367,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="66" spans="1:45" ht="19.899999999999999" customHeight="1">
+    <row r="66" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>169</v>
       </c>
@@ -10268,7 +10424,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="67" spans="1:45" ht="19.899999999999999" customHeight="1">
+    <row r="67" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>170</v>
       </c>
@@ -10331,7 +10487,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="68" spans="1:45" ht="19.899999999999999" customHeight="1">
+    <row r="68" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>171</v>
       </c>
@@ -10406,7 +10562,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="69" spans="1:45" ht="19.899999999999999" customHeight="1">
+    <row r="69" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>172</v>
       </c>
@@ -10445,7 +10601,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="70" spans="1:45" ht="19.899999999999999" customHeight="1">
+    <row r="70" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>173</v>
       </c>
@@ -10484,7 +10640,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="71" spans="1:45" ht="19.899999999999999" customHeight="1">
+    <row r="71" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>174</v>
       </c>
@@ -10613,7 +10769,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="72" spans="1:45" ht="19.899999999999999" customHeight="1">
+    <row r="72" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>175</v>
       </c>
@@ -10640,7 +10796,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="73" spans="1:45" ht="19.899999999999999" customHeight="1">
+    <row r="73" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>176</v>
       </c>
@@ -10679,7 +10835,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="74" spans="1:45" ht="19.899999999999999" customHeight="1">
+    <row r="74" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>177</v>
       </c>
@@ -10766,7 +10922,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="75" spans="1:45" ht="19.899999999999999" customHeight="1">
+    <row r="75" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>178</v>
       </c>
@@ -10853,7 +11009,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="76" spans="1:45" ht="19.899999999999999" customHeight="1">
+    <row r="76" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>179</v>
       </c>
@@ -10892,7 +11048,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="77" spans="1:45" ht="19.899999999999999" customHeight="1">
+    <row r="77" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>180</v>
       </c>
@@ -10961,7 +11117,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="78" spans="1:45" ht="19.899999999999999" customHeight="1">
+    <row r="78" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>181</v>
       </c>
@@ -11030,7 +11186,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="79" spans="1:45" ht="19.899999999999999" customHeight="1">
+    <row r="79" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>182</v>
       </c>
@@ -11111,7 +11267,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="80" spans="1:45" ht="19.899999999999999" customHeight="1">
+    <row r="80" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>183</v>
       </c>
@@ -11174,7 +11330,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="81" spans="1:41" ht="19.899999999999999" customHeight="1">
+    <row r="81" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>184</v>
       </c>
@@ -11225,7 +11381,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="82" spans="1:41" ht="19.899999999999999" customHeight="1">
+    <row r="82" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>185</v>
       </c>
@@ -11285,7 +11441,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="83" spans="1:41" ht="19.899999999999999" customHeight="1">
+    <row r="83" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>186</v>
       </c>
@@ -11342,7 +11498,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="84" spans="1:41" ht="19.899999999999999" customHeight="1">
+    <row r="84" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>187</v>
       </c>
@@ -11384,7 +11540,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="85" spans="1:41" ht="19.899999999999999" customHeight="1">
+    <row r="85" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>188</v>
       </c>
@@ -11459,7 +11615,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="86" spans="1:41" ht="19.899999999999999" customHeight="1">
+    <row r="86" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>189</v>
       </c>
@@ -11492,7 +11648,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="87" spans="1:41" ht="19.899999999999999" customHeight="1">
+    <row r="87" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>190</v>
       </c>
@@ -11591,7 +11747,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="88" spans="1:41" ht="19.899999999999999" customHeight="1">
+    <row r="88" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>191</v>
       </c>
@@ -11660,7 +11816,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="89" spans="1:41" ht="19.899999999999999" customHeight="1">
+    <row r="89" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>192</v>
       </c>
@@ -11687,7 +11843,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="90" spans="1:41" ht="19.899999999999999" customHeight="1">
+    <row r="90" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>193</v>
       </c>
@@ -11729,7 +11885,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="91" spans="1:41" ht="19.899999999999999" customHeight="1">
+    <row r="91" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>194</v>
       </c>
@@ -11768,7 +11924,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="92" spans="1:41" ht="19.899999999999999" customHeight="1">
+    <row r="92" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>195</v>
       </c>
@@ -11885,7 +12041,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="93" spans="1:41" ht="19.899999999999999" customHeight="1">
+    <row r="93" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>196</v>
       </c>
@@ -11945,7 +12101,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="94" spans="1:41" ht="19.899999999999999" customHeight="1">
+    <row r="94" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>197</v>
       </c>
@@ -11978,7 +12134,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="95" spans="1:41" ht="19.899999999999999" customHeight="1">
+    <row r="95" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>198</v>
       </c>
@@ -12035,7 +12191,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="96" spans="1:41" ht="19.899999999999999" customHeight="1">
+    <row r="96" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>199</v>
       </c>
@@ -12077,7 +12233,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="97" spans="1:48" ht="19.899999999999999" customHeight="1">
+    <row r="97" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>200</v>
       </c>
@@ -12104,7 +12260,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="98" spans="1:48" ht="19.899999999999999" customHeight="1">
+    <row r="98" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>201</v>
       </c>
@@ -12239,7 +12395,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="99" spans="1:48" ht="19.899999999999999" customHeight="1">
+    <row r="99" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>202</v>
       </c>
@@ -12308,7 +12464,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="100" spans="1:48" ht="19.899999999999999" customHeight="1">
+    <row r="100" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>203</v>
       </c>
@@ -12407,7 +12563,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="101" spans="1:48" ht="19.899999999999999" customHeight="1">
+    <row r="101" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>204</v>
       </c>
@@ -12494,7 +12650,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="102" spans="1:48" ht="19.899999999999999" customHeight="1">
+    <row r="102" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>205</v>
       </c>
@@ -12551,7 +12707,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="103" spans="1:48" ht="19.899999999999999" customHeight="1">
+    <row r="103" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>206</v>
       </c>
@@ -12620,7 +12776,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="104" spans="1:48" ht="19.899999999999999" customHeight="1">
+    <row r="104" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>207</v>
       </c>
@@ -12722,7 +12878,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="105" spans="1:48" ht="19.899999999999999" customHeight="1">
+    <row r="105" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>208</v>
       </c>
@@ -12824,7 +12980,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="106" spans="1:48" ht="19.899999999999999" customHeight="1">
+    <row r="106" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>209</v>
       </c>
@@ -12899,7 +13055,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="107" spans="1:48" ht="19.899999999999999" customHeight="1">
+    <row r="107" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
         <v>210</v>
       </c>
@@ -12920,7 +13076,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:48" ht="19.899999999999999" customHeight="1">
+    <row r="108" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
         <v>211</v>
       </c>
@@ -12947,7 +13103,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="109" spans="1:48" ht="19.899999999999999" customHeight="1">
+    <row r="109" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
         <v>212</v>
       </c>
@@ -12956,7 +13112,7 @@
         <v>giftcodesbanner/電鋸果汁大亂鬥-bar.jpg</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>1303</v>
+        <v>1540</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>20</v>
@@ -12974,7 +13130,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="110" spans="1:48" ht="19.899999999999999" customHeight="1">
+    <row r="110" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>213</v>
       </c>
@@ -13013,7 +13169,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="111" spans="1:48" ht="19.899999999999999" customHeight="1">
+    <row r="111" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>214</v>
       </c>
@@ -13082,7 +13238,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="112" spans="1:48" ht="19.899999999999999" customHeight="1">
+    <row r="112" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>1221</v>
       </c>
@@ -13133,7 +13289,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="113" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="113" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>1222</v>
       </c>
@@ -13226,7 +13382,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="114" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="114" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>1223</v>
       </c>
@@ -13325,7 +13481,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="115" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="115" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>1267</v>
       </c>
@@ -13352,7 +13508,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="116" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="116" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>1268</v>
       </c>
@@ -13379,7 +13535,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="117" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="117" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>1269</v>
       </c>
@@ -13412,7 +13568,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="118" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="118" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
         <v>1270</v>
       </c>
@@ -13439,7 +13595,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="119" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="119" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>1271</v>
       </c>
@@ -13502,7 +13658,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="120" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="120" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>1294</v>
       </c>
@@ -13529,7 +13685,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="121" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="121" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>1295</v>
       </c>
@@ -13556,7 +13712,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="122" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="122" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>1298</v>
       </c>
@@ -13565,7 +13721,7 @@
         <v>giftcodesbanner/雪月風花-bar.jpg</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>20</v>
@@ -13577,97 +13733,97 @@
         <v>21</v>
       </c>
       <c r="J122" s="9" t="s">
+        <v>1308</v>
+      </c>
+      <c r="K122" s="9" t="s">
         <v>1309</v>
-      </c>
-      <c r="K122" s="9" t="s">
-        <v>1310</v>
       </c>
       <c r="L122" s="9" t="s">
         <v>232</v>
       </c>
       <c r="M122" s="9" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="N122" s="9" t="s">
         <v>69</v>
       </c>
       <c r="O122" s="9" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="P122" s="9" t="s">
         <v>70</v>
       </c>
       <c r="Q122" s="9" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="R122" s="9" t="s">
         <v>269</v>
       </c>
       <c r="S122" s="9" t="s">
+        <v>1313</v>
+      </c>
+      <c r="T122" s="9" t="s">
         <v>1314</v>
       </c>
-      <c r="T122" s="9" t="s">
+      <c r="U122" s="9" t="s">
         <v>1315</v>
       </c>
-      <c r="U122" s="9" t="s">
+      <c r="V122" s="9" t="s">
         <v>1316</v>
       </c>
-      <c r="V122" s="9" t="s">
+      <c r="W122" s="9" t="s">
         <v>1317</v>
       </c>
-      <c r="W122" s="9" t="s">
+      <c r="X122" s="9" t="s">
         <v>1318</v>
       </c>
-      <c r="X122" s="9" t="s">
+      <c r="Y122" s="9" t="s">
         <v>1319</v>
       </c>
-      <c r="Y122" s="9" t="s">
+      <c r="Z122" s="9" t="s">
+        <v>1318</v>
+      </c>
+      <c r="AA122" s="9" t="s">
+        <v>1319</v>
+      </c>
+      <c r="AB122" s="9" t="s">
         <v>1320</v>
       </c>
-      <c r="Z122" s="9" t="s">
-        <v>1319</v>
-      </c>
-      <c r="AA122" s="9" t="s">
-        <v>1320</v>
-      </c>
-      <c r="AB122" s="9" t="s">
+      <c r="AC122" s="9" t="s">
         <v>1321</v>
       </c>
-      <c r="AC122" s="9" t="s">
+      <c r="AD122" s="9" t="s">
         <v>1322</v>
       </c>
-      <c r="AD122" s="9" t="s">
+      <c r="AE122" s="9" t="s">
         <v>1323</v>
       </c>
-      <c r="AE122" s="9" t="s">
+      <c r="AF122" s="9" t="s">
         <v>1324</v>
       </c>
-      <c r="AF122" s="9" t="s">
+      <c r="AG122" s="9" t="s">
         <v>1325</v>
       </c>
-      <c r="AG122" s="9" t="s">
+      <c r="AH122" s="9" t="s">
         <v>1326</v>
       </c>
-      <c r="AH122" s="9" t="s">
+      <c r="AI122" s="9" t="s">
         <v>1327</v>
       </c>
-      <c r="AI122" s="9" t="s">
+      <c r="AJ122" s="9" t="s">
         <v>1328</v>
       </c>
-      <c r="AJ122" s="9" t="s">
+      <c r="AK122" s="9" t="s">
         <v>1329</v>
       </c>
-      <c r="AK122" s="9" t="s">
+      <c r="AL122" s="9" t="s">
         <v>1330</v>
       </c>
-      <c r="AL122" s="9" t="s">
+      <c r="AM122" s="9" t="s">
         <v>1331</v>
       </c>
-      <c r="AM122" s="9" t="s">
-        <v>1332</v>
-      </c>
     </row>
-    <row r="123" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="123" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
         <v>1299</v>
       </c>
@@ -13676,7 +13832,7 @@
         <v>giftcodesbanner/文明帝國：同盟時代-bar.jpg</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>20</v>
@@ -13688,19 +13844,19 @@
         <v>21</v>
       </c>
       <c r="J123" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="K123" s="3" t="s">
         <v>1333</v>
       </c>
-      <c r="K123" s="3" t="s">
+      <c r="L123" s="3" t="s">
         <v>1334</v>
       </c>
-      <c r="L123" s="3" t="s">
+      <c r="M123" s="3" t="s">
         <v>1335</v>
       </c>
-      <c r="M123" s="3" t="s">
-        <v>1336</v>
-      </c>
     </row>
-    <row r="124" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="124" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
         <v>1300</v>
       </c>
@@ -13709,7 +13865,7 @@
         <v>giftcodesbanner/魔法商店大亨-bar.jpg</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>20</v>
@@ -13721,49 +13877,49 @@
         <v>21</v>
       </c>
       <c r="J124" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="L124" s="2" t="s">
         <v>1337</v>
       </c>
-      <c r="K124" s="2" t="s">
+      <c r="M124" s="2" t="s">
         <v>1344</v>
       </c>
-      <c r="L124" s="2" t="s">
+      <c r="N124" s="2" t="s">
         <v>1338</v>
       </c>
-      <c r="M124" s="2" t="s">
+      <c r="O124" s="2" t="s">
         <v>1345</v>
       </c>
-      <c r="N124" s="2" t="s">
+      <c r="P124" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="O124" s="2" t="s">
+      <c r="Q124" s="2" t="s">
         <v>1346</v>
       </c>
-      <c r="P124" s="2" t="s">
+      <c r="R124" s="2" t="s">
         <v>1340</v>
       </c>
-      <c r="Q124" s="2" t="s">
+      <c r="S124" s="2" t="s">
         <v>1347</v>
       </c>
-      <c r="R124" s="2" t="s">
+      <c r="T124" s="2" t="s">
         <v>1341</v>
       </c>
-      <c r="S124" s="2" t="s">
+      <c r="U124" s="2" t="s">
         <v>1348</v>
       </c>
-      <c r="T124" s="2" t="s">
+      <c r="V124" s="2" t="s">
         <v>1342</v>
       </c>
-      <c r="U124" s="2" t="s">
+      <c r="W124" s="2" t="s">
         <v>1349</v>
       </c>
-      <c r="V124" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="W124" s="2" t="s">
-        <v>1350</v>
-      </c>
     </row>
-    <row r="125" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="125" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
         <v>1301</v>
       </c>
@@ -13772,7 +13928,7 @@
         <v>giftcodesbanner/新仙劍奇俠傳lite-bar.jpg</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>20</v>
@@ -13784,31 +13940,31 @@
         <v>21</v>
       </c>
       <c r="J125" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="L125" s="2" t="s">
         <v>1351</v>
       </c>
-      <c r="K125" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="L125" s="2" t="s">
+      <c r="M125" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="N125" s="2" t="s">
         <v>1352</v>
       </c>
-      <c r="M125" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="N125" s="2" t="s">
+      <c r="O125" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="P125" s="2" t="s">
         <v>1353</v>
       </c>
-      <c r="O125" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="P125" s="2" t="s">
+      <c r="Q125" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="R125" s="2" t="s">
         <v>1354</v>
-      </c>
-      <c r="Q125" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="R125" s="2" t="s">
-        <v>1355</v>
       </c>
       <c r="S125" s="2" t="s">
         <v>1243</v>
@@ -13832,79 +13988,79 @@
         <v>1243</v>
       </c>
       <c r="Z125" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="AA125" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AB125" s="2" t="s">
         <v>1356</v>
       </c>
-      <c r="AA125" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AB125" s="2" t="s">
+      <c r="AC125" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AD125" s="2" t="s">
         <v>1357</v>
       </c>
-      <c r="AC125" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AD125" s="2" t="s">
+      <c r="AE125" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AF125" s="2" t="s">
         <v>1358</v>
       </c>
-      <c r="AE125" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AF125" s="2" t="s">
+      <c r="AG125" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AH125" s="2" t="s">
         <v>1359</v>
       </c>
-      <c r="AG125" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AH125" s="2" t="s">
+      <c r="AI125" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AJ125" s="2" t="s">
         <v>1360</v>
       </c>
-      <c r="AI125" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AJ125" s="2" t="s">
+      <c r="AK125" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AL125" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="AM125" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AN125" s="2" t="s">
         <v>1361</v>
       </c>
-      <c r="AK125" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AL125" s="2" t="s">
-        <v>1356</v>
-      </c>
-      <c r="AM125" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AN125" s="2" t="s">
+      <c r="AO125" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AP125" s="2" t="s">
         <v>1362</v>
       </c>
-      <c r="AO125" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AP125" s="2" t="s">
+      <c r="AQ125" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AR125" s="2" t="s">
         <v>1363</v>
       </c>
-      <c r="AQ125" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AR125" s="2" t="s">
+      <c r="AS125" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AT125" s="2" t="s">
         <v>1364</v>
       </c>
-      <c r="AS125" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AT125" s="2" t="s">
+      <c r="AU125" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AV125" s="2" t="s">
         <v>1365</v>
       </c>
-      <c r="AU125" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AV125" s="2" t="s">
-        <v>1366</v>
-      </c>
       <c r="AW125" s="2" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="126" spans="1:49" ht="19.899999999999999" customHeight="1">
+    <row r="126" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
         <v>1302</v>
       </c>
@@ -13913,7 +14069,7 @@
         <v>giftcodesbanner/神州M-bar.jpg</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>20</v>
@@ -13925,28 +14081,28 @@
         <v>21</v>
       </c>
       <c r="J126" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="M126" s="2" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="127" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
         <v>1367</v>
-      </c>
-      <c r="K126" s="2" t="s">
-        <v>1367</v>
-      </c>
-      <c r="L126" s="2" t="s">
-        <v>1367</v>
-      </c>
-      <c r="M126" s="2" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="127" spans="1:49" ht="19.899999999999999" customHeight="1">
-      <c r="A127" s="2" t="s">
-        <v>1368</v>
       </c>
       <c r="B127" s="2" t="str">
         <f>"giftcodesbanner/" &amp; A127 &amp; "-bar.jpg"</f>
         <v>giftcodesbanner/英雄傳說：卡卡布三部曲-bar.jpg</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>20</v>
@@ -13958,94 +14114,94 @@
         <v>21</v>
       </c>
       <c r="J127" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="L127" s="2" t="s">
         <v>1370</v>
       </c>
-      <c r="K127" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="L127" s="2" t="s">
+      <c r="M127" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="N127" s="2" t="s">
         <v>1371</v>
       </c>
-      <c r="M127" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="N127" s="2" t="s">
+      <c r="O127" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="P127" s="2" t="s">
         <v>1372</v>
       </c>
-      <c r="O127" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="P127" s="2" t="s">
+      <c r="Q127" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="R127" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="S127" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="T127" s="2" t="s">
         <v>1373</v>
       </c>
-      <c r="Q127" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="R127" s="2" t="s">
+      <c r="U127" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="V127" s="2" t="s">
         <v>1375</v>
       </c>
-      <c r="S127" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="T127" s="2" t="s">
-        <v>1374</v>
-      </c>
-      <c r="U127" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="V127" s="2" t="s">
+      <c r="W127" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="X127" s="2" t="s">
         <v>1376</v>
       </c>
-      <c r="W127" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="X127" s="2" t="s">
+      <c r="Y127" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="Z127" s="2" t="s">
         <v>1377</v>
       </c>
-      <c r="Y127" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="Z127" s="2" t="s">
+      <c r="AA127" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AB127" s="2" t="s">
         <v>1378</v>
       </c>
-      <c r="AA127" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AB127" s="2" t="s">
+      <c r="AC127" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AD127" s="2" t="s">
         <v>1379</v>
       </c>
-      <c r="AC127" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AD127" s="2" t="s">
+      <c r="AE127" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AF127" s="2" t="s">
         <v>1380</v>
       </c>
-      <c r="AE127" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AF127" s="2" t="s">
+      <c r="AG127" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AH127" s="2" t="s">
         <v>1381</v>
       </c>
-      <c r="AG127" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AH127" s="2" t="s">
+      <c r="AI127" s="2" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="128" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="8" t="s">
         <v>1382</v>
       </c>
-      <c r="AI127" s="2" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="128" spans="1:49" ht="19.899999999999999" customHeight="1">
-      <c r="A128" s="8" t="s">
-        <v>1383</v>
-      </c>
       <c r="B128" s="2" t="str">
-        <f t="shared" ref="B128:B139" si="2">"giftcodesbanner/" &amp; A128 &amp; "-bar.jpg"</f>
+        <f t="shared" ref="B128:B134" si="2">"giftcodesbanner/" &amp; A128 &amp; "-bar.jpg"</f>
         <v>giftcodesbanner/胡來英雄-bar.jpg</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>20</v>
@@ -14057,52 +14213,52 @@
         <v>21</v>
       </c>
       <c r="J128" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="K128" s="2" t="s">
         <v>1387</v>
       </c>
-      <c r="K128" s="2" t="s">
+      <c r="L128" s="2" t="s">
         <v>1388</v>
       </c>
-      <c r="L128" s="2" t="s">
+      <c r="M128" s="2" t="s">
         <v>1389</v>
       </c>
-      <c r="M128" s="2" t="s">
+      <c r="N128" s="2" t="s">
         <v>1390</v>
       </c>
-      <c r="N128" s="2" t="s">
+      <c r="O128" s="2" t="s">
         <v>1391</v>
       </c>
-      <c r="O128" s="2" t="s">
+      <c r="P128" s="2" t="s">
         <v>1392</v>
       </c>
-      <c r="P128" s="2" t="s">
+      <c r="Q128" s="2" t="s">
         <v>1393</v>
       </c>
-      <c r="Q128" s="2" t="s">
+      <c r="R128" s="2" t="s">
         <v>1394</v>
       </c>
-      <c r="R128" s="2" t="s">
+      <c r="S128" s="2" t="s">
         <v>1395</v>
       </c>
-      <c r="S128" s="2" t="s">
+      <c r="T128" s="2" t="s">
         <v>1396</v>
       </c>
-      <c r="T128" s="2" t="s">
+      <c r="U128" s="2" t="s">
         <v>1397</v>
       </c>
-      <c r="U128" s="2" t="s">
-        <v>1398</v>
-      </c>
     </row>
-    <row r="129" spans="1:35" ht="19.899999999999999" customHeight="1">
+    <row r="129" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B129" s="2" t="str">
         <f t="shared" si="2"/>
         <v>giftcodesbanner/一天又一天的RPG-bar.jpg</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>20</v>
@@ -14114,52 +14270,52 @@
         <v>21</v>
       </c>
       <c r="J129" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="L129" s="2" t="s">
         <v>1401</v>
       </c>
-      <c r="K129" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="L129" s="2" t="s">
+      <c r="M129" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="N129" s="2" t="s">
         <v>1402</v>
       </c>
-      <c r="M129" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="N129" s="2" t="s">
+      <c r="O129" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="P129" s="2" t="s">
         <v>1403</v>
       </c>
-      <c r="O129" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="P129" s="2" t="s">
+      <c r="Q129" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="R129" s="2" t="s">
         <v>1404</v>
       </c>
-      <c r="Q129" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="R129" s="2" t="s">
+      <c r="S129" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="T129" s="2" t="s">
         <v>1405</v>
       </c>
-      <c r="S129" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="T129" s="2" t="s">
-        <v>1406</v>
-      </c>
       <c r="U129" s="2" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="130" spans="1:35" ht="19.899999999999999" customHeight="1">
+    <row r="130" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B130" s="2" t="str">
         <f t="shared" si="2"/>
         <v>giftcodesbanner/銀與血-bar.jpg</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>20</v>
@@ -14171,52 +14327,52 @@
         <v>21</v>
       </c>
       <c r="J130" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="L130" s="2" t="s">
         <v>1409</v>
       </c>
-      <c r="K130" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="L130" s="2" t="s">
+      <c r="M130" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="N130" s="2" t="s">
         <v>1410</v>
       </c>
-      <c r="M130" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="N130" s="2" t="s">
+      <c r="O130" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="P130" s="2" t="s">
         <v>1411</v>
       </c>
-      <c r="O130" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="P130" s="2" t="s">
+      <c r="Q130" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="R130" s="2" t="s">
         <v>1412</v>
       </c>
-      <c r="Q130" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="R130" s="2" t="s">
+      <c r="S130" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="T130" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="S130" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="T130" s="2" t="s">
-        <v>1414</v>
-      </c>
       <c r="U130" s="2" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="131" spans="1:35" ht="19.899999999999999" customHeight="1">
+    <row r="131" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B131" s="2" t="str">
         <f t="shared" si="2"/>
         <v>giftcodesbanner/緋石之心-bar.jpg</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>20</v>
@@ -14228,28 +14384,28 @@
         <v>21</v>
       </c>
       <c r="J131" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="L131" s="2" t="s">
         <v>1415</v>
       </c>
-      <c r="K131" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="L131" s="2" t="s">
+      <c r="M131" s="2" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="132" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="8" t="s">
         <v>1416</v>
-      </c>
-      <c r="M131" s="2" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="132" spans="1:35" ht="19.899999999999999" customHeight="1">
-      <c r="A132" s="8" t="s">
-        <v>1417</v>
       </c>
       <c r="B132" s="2" t="str">
         <f t="shared" si="2"/>
         <v>giftcodesbanner/滔湧少女-bar.jpg</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>20</v>
@@ -14261,40 +14417,40 @@
         <v>21</v>
       </c>
       <c r="J132" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="L132" s="2" t="s">
         <v>1423</v>
       </c>
-      <c r="K132" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="L132" s="2" t="s">
+      <c r="M132" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="N132" s="2" t="s">
         <v>1424</v>
       </c>
-      <c r="M132" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="N132" s="2" t="s">
+      <c r="O132" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="P132" s="2" t="s">
         <v>1425</v>
       </c>
-      <c r="O132" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="P132" s="2" t="s">
-        <v>1426</v>
-      </c>
       <c r="Q132" s="2" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="133" spans="1:35" ht="19.899999999999999" customHeight="1">
+    <row r="133" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="8" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B133" s="2" t="str">
         <f t="shared" si="2"/>
         <v>giftcodesbanner/漫威祕法狂潮-bar.jpg</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>20</v>
@@ -14306,22 +14462,22 @@
         <v>21</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="K133" s="2" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="134" spans="1:35" ht="19.899999999999999" customHeight="1" thickBot="1">
+    <row r="134" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B134" s="2" t="str">
         <f t="shared" si="2"/>
         <v>giftcodesbanner/魔教回歸：2D MMORPG-bar.jpg</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>20</v>
@@ -14333,34 +14489,34 @@
         <v>21</v>
       </c>
       <c r="J134" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="K134" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="L134" s="2" t="s">
         <v>1428</v>
       </c>
-      <c r="K134" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="L134" s="2" t="s">
+      <c r="M134" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="N134" s="2" t="s">
         <v>1429</v>
       </c>
-      <c r="M134" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="N134" s="2" t="s">
-        <v>1430</v>
-      </c>
       <c r="O134" s="2" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="135" spans="1:35" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A135" s="11" t="s">
-        <v>1437</v>
+    <row r="135" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="8" t="s">
+        <v>1436</v>
       </c>
       <c r="C135" s="2" t="str">
         <f>"giftcodesbanner/" &amp; A135 &amp; "-禮包碼.jpg"</f>
         <v>giftcodesbanner/屍戰王朝-禮包碼.jpg</v>
       </c>
-      <c r="D135" s="10" t="s">
-        <v>1432</v>
+      <c r="D135" s="5" t="s">
+        <v>1431</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>20</v>
@@ -14371,89 +14527,89 @@
       <c r="G135" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J135" s="13" t="s">
+      <c r="J135" s="9" t="s">
+        <v>1440</v>
+      </c>
+      <c r="K135" s="9" t="s">
         <v>1441</v>
       </c>
-      <c r="K135" s="14" t="s">
+      <c r="L135" s="9" t="s">
         <v>1442</v>
       </c>
-      <c r="L135" s="13" t="s">
+      <c r="M135" s="9" t="s">
         <v>1443</v>
       </c>
-      <c r="M135" s="14" t="s">
+      <c r="N135" s="9" t="s">
         <v>1444</v>
       </c>
-      <c r="N135" s="13" t="s">
+      <c r="O135" s="9" t="s">
         <v>1445</v>
       </c>
-      <c r="O135" s="14" t="s">
+      <c r="P135" s="9" t="s">
         <v>1446</v>
       </c>
-      <c r="P135" s="13" t="s">
+      <c r="Q135" s="9" t="s">
         <v>1447</v>
       </c>
-      <c r="Q135" s="14" t="s">
+      <c r="R135" s="9" t="s">
         <v>1448</v>
       </c>
-      <c r="R135" s="13" t="s">
+      <c r="S135" s="9" t="s">
         <v>1449</v>
       </c>
-      <c r="S135" s="14" t="s">
+      <c r="T135" s="9" t="s">
         <v>1450</v>
       </c>
-      <c r="T135" s="13" t="s">
+      <c r="U135" s="9" t="s">
         <v>1451</v>
       </c>
-      <c r="U135" s="14" t="s">
+      <c r="V135" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="W135" s="9" t="s">
         <v>1452</v>
       </c>
-      <c r="V135" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="W135" s="14" t="s">
+      <c r="X135" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y135" s="9" t="s">
         <v>1453</v>
       </c>
-      <c r="X135" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y135" s="14" t="s">
+      <c r="Z135" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA135" s="9" t="s">
         <v>1454</v>
       </c>
-      <c r="Z135" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA135" s="14" t="s">
+      <c r="AB135" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC135" s="9" t="s">
         <v>1455</v>
       </c>
-      <c r="AB135" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC135" s="14" t="s">
+      <c r="AD135" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE135" s="9" t="s">
         <v>1456</v>
       </c>
-      <c r="AD135" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="AE135" s="14" t="s">
+      <c r="AF135" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AG135" s="9" t="s">
         <v>1457</v>
       </c>
-      <c r="AF135" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="AG135" s="14" t="s">
-        <v>1458</v>
-      </c>
     </row>
-    <row r="136" spans="1:35" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A136" s="12" t="s">
-        <v>1440</v>
+    <row r="136" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="8" t="s">
+        <v>1439</v>
       </c>
       <c r="C136" s="2" t="str">
-        <f t="shared" ref="C136:C139" si="3">"giftcodesbanner/" &amp; A136 &amp; "-禮包碼.jpg"</f>
+        <f t="shared" ref="C136:C142" si="3">"giftcodesbanner/" &amp; A136 &amp; "-禮包碼.jpg"</f>
         <v>giftcodesbanner/機甲變變變-禮包碼.jpg</v>
       </c>
-      <c r="D136" s="10" t="s">
-        <v>1433</v>
+      <c r="D136" s="5" t="s">
+        <v>1432</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>20</v>
@@ -14464,41 +14620,41 @@
       <c r="G136" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J136" s="15" t="s">
+      <c r="J136" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="L136" s="2" t="s">
         <v>1459</v>
       </c>
-      <c r="K136" s="2" t="s">
+      <c r="M136" s="2" t="s">
         <v>1460</v>
       </c>
-      <c r="L136" s="2" t="s">
+      <c r="N136" s="2" t="s">
         <v>1461</v>
       </c>
-      <c r="M136" s="2" t="s">
+      <c r="O136" s="2" t="s">
         <v>1462</v>
       </c>
-      <c r="N136" s="2" t="s">
+      <c r="P136" s="2" t="s">
         <v>1463</v>
       </c>
-      <c r="O136" s="2" t="s">
+      <c r="Q136" s="2" t="s">
         <v>1464</v>
       </c>
-      <c r="P136" s="2" t="s">
-        <v>1465</v>
-      </c>
-      <c r="Q136" s="2" t="s">
-        <v>1466</v>
-      </c>
     </row>
-    <row r="137" spans="1:35" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A137" s="12" t="s">
-        <v>1439</v>
+    <row r="137" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="8" t="s">
+        <v>1438</v>
       </c>
       <c r="C137" s="2" t="str">
         <f t="shared" si="3"/>
         <v>giftcodesbanner/狼少女蘭吉-禮包碼.jpg</v>
       </c>
-      <c r="D137" s="10" t="s">
-        <v>1434</v>
+      <c r="D137" s="5" t="s">
+        <v>1433</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>20</v>
@@ -14510,28 +14666,28 @@
         <v>21</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
-    <row r="138" spans="1:35" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A138" s="11" t="s">
-        <v>1481</v>
+    <row r="138" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="8" t="s">
+        <v>1539</v>
       </c>
       <c r="C138" s="2" t="str">
         <f t="shared" si="3"/>
         <v>giftcodesbanner/RO仙境傳說：曙光-禮包碼.jpg</v>
       </c>
-      <c r="D138" s="10" t="s">
-        <v>1435</v>
+      <c r="D138" s="5" t="s">
+        <v>1434</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>20</v>
@@ -14543,94 +14699,94 @@
         <v>21</v>
       </c>
       <c r="J138" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="L138" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="M138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="N138" s="2" t="s">
         <v>1467</v>
       </c>
-      <c r="K138" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="L138" s="2" t="s">
+      <c r="O138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="P138" s="2" t="s">
         <v>1468</v>
       </c>
-      <c r="M138" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="N138" s="2" t="s">
+      <c r="Q138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="R138" s="2" t="s">
         <v>1469</v>
       </c>
-      <c r="O138" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="P138" s="16" t="s">
+      <c r="S138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="T138" s="2" t="s">
         <v>1470</v>
       </c>
-      <c r="Q138" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="R138" s="16" t="s">
+      <c r="U138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="V138" s="2" t="s">
         <v>1471</v>
       </c>
-      <c r="S138" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="T138" s="16" t="s">
+      <c r="W138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="X138" s="2" t="s">
         <v>1472</v>
       </c>
-      <c r="U138" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="V138" s="16" t="s">
+      <c r="Y138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="Z138" s="2" t="s">
         <v>1473</v>
       </c>
-      <c r="W138" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="X138" s="16" t="s">
+      <c r="AA138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AB138" s="2" t="s">
         <v>1474</v>
       </c>
-      <c r="Y138" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="Z138" s="16" t="s">
+      <c r="AC138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AD138" s="2" t="s">
         <v>1475</v>
       </c>
-      <c r="AA138" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AB138" s="16" t="s">
+      <c r="AE138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AF138" s="2" t="s">
         <v>1476</v>
       </c>
-      <c r="AC138" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AD138" s="16" t="s">
+      <c r="AG138" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AH138" s="2" t="s">
         <v>1477</v>
       </c>
-      <c r="AE138" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AF138" s="16" t="s">
-        <v>1478</v>
-      </c>
-      <c r="AG138" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AH138" s="16" t="s">
-        <v>1479</v>
-      </c>
       <c r="AI138" s="2" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="139" spans="1:35" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A139" s="11" t="s">
-        <v>1438</v>
+    <row r="139" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="8" t="s">
+        <v>1437</v>
       </c>
       <c r="C139" s="2" t="str">
         <f t="shared" si="3"/>
         <v>giftcodesbanner/星曲Ultra-禮包碼.jpg</v>
       </c>
-      <c r="D139" s="10" t="s">
-        <v>1436</v>
+      <c r="D139" s="5" t="s">
+        <v>1435</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>20</v>
@@ -14642,536 +14798,781 @@
         <v>21</v>
       </c>
       <c r="J139" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="L139" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="M139" s="2" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="140" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="8" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C140" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>giftcodesbanner/第七天災-禮包碼.jpg</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="L140" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="M140" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="N140" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O140" s="2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="P140" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="Q140" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="R140" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="S140" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="T140" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="U140" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="V140" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="W140" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="X140" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="Y140" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="Z140" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="AA140" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AB140" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="AC140" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AD140" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="AE140" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AF140" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="AG140" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AH140" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="AI140" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AJ140" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="AK140" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AL140" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="AM140" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AN140" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="AO140" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AP140" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="AQ140" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AR140" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="AS140" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AT140" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="AU140" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AV140" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="AW140" s="2" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="141" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="8" t="s">
         <v>1480</v>
       </c>
-      <c r="K139" s="2" t="s">
-        <v>1480</v>
-      </c>
-      <c r="L139" s="2" t="s">
-        <v>1480</v>
-      </c>
-      <c r="M139" s="2" t="s">
-        <v>1480</v>
+      <c r="C141" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>giftcodesbanner/百萬神界-禮包碼.jpg</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>1523</v>
+      </c>
+      <c r="K141" s="4" t="s">
+        <v>1524</v>
+      </c>
+      <c r="L141" s="4" t="s">
+        <v>1525</v>
+      </c>
+      <c r="M141" s="4" t="s">
+        <v>1526</v>
+      </c>
+      <c r="N141" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O141" s="4" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P141" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q141" s="4" t="s">
+        <v>1528</v>
+      </c>
+      <c r="R141" s="4" t="s">
+        <v>1529</v>
+      </c>
+      <c r="S141" s="4" t="s">
+        <v>1530</v>
+      </c>
+      <c r="T141" s="4" t="s">
+        <v>1531</v>
+      </c>
+      <c r="U141" s="4" t="s">
+        <v>1532</v>
+      </c>
+      <c r="V141" s="4" t="s">
+        <v>1533</v>
+      </c>
+      <c r="W141" s="4" t="s">
+        <v>1534</v>
+      </c>
+      <c r="X141" s="4" t="s">
+        <v>1535</v>
+      </c>
+      <c r="Y141" s="4" t="s">
+        <v>1536</v>
+      </c>
+      <c r="Z141" s="4" t="s">
+        <v>1537</v>
+      </c>
+      <c r="AA141" s="4" t="s">
+        <v>1538</v>
       </c>
     </row>
-    <row r="140" spans="1:35" ht="19.899999999999999" customHeight="1"/>
-    <row r="141" spans="1:35" ht="19.899999999999999" customHeight="1"/>
-    <row r="142" spans="1:35" ht="19.899999999999999" customHeight="1"/>
-    <row r="143" spans="1:35" ht="19.899999999999999" customHeight="1"/>
-    <row r="144" spans="1:35" ht="19.899999999999999" customHeight="1"/>
-    <row r="145" ht="19.899999999999999" customHeight="1"/>
-    <row r="146" ht="19.899999999999999" customHeight="1"/>
-    <row r="147" ht="19.899999999999999" customHeight="1"/>
-    <row r="148" ht="19.899999999999999" customHeight="1"/>
-    <row r="149" ht="19.899999999999999" customHeight="1"/>
-    <row r="150" ht="19.899999999999999" customHeight="1"/>
-    <row r="151" ht="19.899999999999999" customHeight="1"/>
-    <row r="152" ht="19.899999999999999" customHeight="1"/>
-    <row r="153" ht="19.899999999999999" customHeight="1"/>
-    <row r="154" ht="19.899999999999999" customHeight="1"/>
-    <row r="155" ht="19.899999999999999" customHeight="1"/>
-    <row r="156" ht="19.899999999999999" customHeight="1"/>
-    <row r="157" ht="19.899999999999999" customHeight="1"/>
-    <row r="158" ht="19.899999999999999" customHeight="1"/>
-    <row r="159" ht="19.899999999999999" customHeight="1"/>
-    <row r="160" ht="19.899999999999999" customHeight="1"/>
-    <row r="161" ht="19.899999999999999" customHeight="1"/>
-    <row r="162" ht="19.899999999999999" customHeight="1"/>
-    <row r="163" ht="19.899999999999999" customHeight="1"/>
-    <row r="164" ht="19.899999999999999" customHeight="1"/>
-    <row r="165" ht="19.899999999999999" customHeight="1"/>
-    <row r="166" ht="19.899999999999999" customHeight="1"/>
-    <row r="167" ht="19.899999999999999" customHeight="1"/>
-    <row r="168" ht="19.899999999999999" customHeight="1"/>
-    <row r="169" ht="19.899999999999999" customHeight="1"/>
-    <row r="170" ht="19.899999999999999" customHeight="1"/>
-    <row r="171" ht="19.899999999999999" customHeight="1"/>
-    <row r="172" ht="19.899999999999999" customHeight="1"/>
-    <row r="173" ht="19.899999999999999" customHeight="1"/>
-    <row r="174" ht="19.899999999999999" customHeight="1"/>
-    <row r="175" ht="19.899999999999999" customHeight="1"/>
-    <row r="176" ht="19.899999999999999" customHeight="1"/>
-    <row r="177" ht="19.899999999999999" customHeight="1"/>
-    <row r="178" ht="19.899999999999999" customHeight="1"/>
-    <row r="179" ht="19.899999999999999" customHeight="1"/>
-    <row r="180" ht="19.899999999999999" customHeight="1"/>
-    <row r="181" ht="19.899999999999999" customHeight="1"/>
-    <row r="182" ht="19.899999999999999" customHeight="1"/>
-    <row r="183" ht="19.899999999999999" customHeight="1"/>
-    <row r="184" ht="19.899999999999999" customHeight="1"/>
-    <row r="185" ht="19.899999999999999" customHeight="1"/>
-    <row r="186" ht="19.899999999999999" customHeight="1"/>
-    <row r="187" ht="19.899999999999999" customHeight="1"/>
-    <row r="188" ht="19.899999999999999" customHeight="1"/>
-    <row r="189" ht="19.899999999999999" customHeight="1"/>
-    <row r="190" ht="19.899999999999999" customHeight="1"/>
-    <row r="191" ht="19.899999999999999" customHeight="1"/>
-    <row r="192" ht="19.899999999999999" customHeight="1"/>
-    <row r="193" ht="19.899999999999999" customHeight="1"/>
-    <row r="194" ht="19.899999999999999" customHeight="1"/>
-    <row r="195" ht="19.899999999999999" customHeight="1"/>
-    <row r="196" ht="19.899999999999999" customHeight="1"/>
-    <row r="197" ht="19.899999999999999" customHeight="1"/>
-    <row r="198" ht="19.899999999999999" customHeight="1"/>
-    <row r="199" ht="19.899999999999999" customHeight="1"/>
-    <row r="200" ht="19.899999999999999" customHeight="1"/>
-    <row r="201" ht="19.899999999999999" customHeight="1"/>
-    <row r="202" ht="19.899999999999999" customHeight="1"/>
-    <row r="203" ht="19.899999999999999" customHeight="1"/>
-    <row r="204" ht="19.899999999999999" customHeight="1"/>
-    <row r="205" ht="19.899999999999999" customHeight="1"/>
-    <row r="206" ht="19.899999999999999" customHeight="1"/>
-    <row r="207" ht="19.899999999999999" customHeight="1"/>
-    <row r="208" ht="19.899999999999999" customHeight="1"/>
-    <row r="209" ht="19.899999999999999" customHeight="1"/>
-    <row r="210" ht="19.899999999999999" customHeight="1"/>
-    <row r="211" ht="19.899999999999999" customHeight="1"/>
-    <row r="212" ht="19.899999999999999" customHeight="1"/>
-    <row r="213" ht="19.899999999999999" customHeight="1"/>
-    <row r="214" ht="19.899999999999999" customHeight="1"/>
-    <row r="215" ht="19.899999999999999" customHeight="1"/>
-    <row r="216" ht="19.899999999999999" customHeight="1"/>
-    <row r="217" ht="19.899999999999999" customHeight="1"/>
-    <row r="218" ht="19.899999999999999" customHeight="1"/>
-    <row r="219" ht="19.899999999999999" customHeight="1"/>
-    <row r="220" ht="19.899999999999999" customHeight="1"/>
-    <row r="221" ht="19.899999999999999" customHeight="1"/>
-    <row r="222" ht="19.899999999999999" customHeight="1"/>
-    <row r="223" ht="19.899999999999999" customHeight="1"/>
-    <row r="224" ht="19.899999999999999" customHeight="1"/>
-    <row r="225" ht="19.899999999999999" customHeight="1"/>
-    <row r="226" ht="19.899999999999999" customHeight="1"/>
-    <row r="227" ht="19.899999999999999" customHeight="1"/>
-    <row r="228" ht="19.899999999999999" customHeight="1"/>
-    <row r="229" ht="19.899999999999999" customHeight="1"/>
-    <row r="230" ht="19.899999999999999" customHeight="1"/>
-    <row r="231" ht="19.899999999999999" customHeight="1"/>
-    <row r="232" ht="19.899999999999999" customHeight="1"/>
-    <row r="233" ht="19.899999999999999" customHeight="1"/>
-    <row r="234" ht="19.899999999999999" customHeight="1"/>
-    <row r="235" ht="19.899999999999999" customHeight="1"/>
-    <row r="236" ht="19.899999999999999" customHeight="1"/>
-    <row r="237" ht="19.899999999999999" customHeight="1"/>
-    <row r="238" ht="19.899999999999999" customHeight="1"/>
-    <row r="239" ht="19.899999999999999" customHeight="1"/>
-    <row r="240" ht="19.899999999999999" customHeight="1"/>
-    <row r="241" ht="19.899999999999999" customHeight="1"/>
-    <row r="242" ht="19.899999999999999" customHeight="1"/>
-    <row r="243" ht="19.899999999999999" customHeight="1"/>
-    <row r="244" ht="19.899999999999999" customHeight="1"/>
-    <row r="245" ht="19.899999999999999" customHeight="1"/>
-    <row r="246" ht="19.899999999999999" customHeight="1"/>
-    <row r="247" ht="19.899999999999999" customHeight="1"/>
-    <row r="248" ht="19.899999999999999" customHeight="1"/>
-    <row r="249" ht="19.899999999999999" customHeight="1"/>
-    <row r="250" ht="19.899999999999999" customHeight="1"/>
-    <row r="251" ht="19.899999999999999" customHeight="1"/>
-    <row r="252" ht="19.899999999999999" customHeight="1"/>
-    <row r="253" ht="19.899999999999999" customHeight="1"/>
-    <row r="254" ht="19.899999999999999" customHeight="1"/>
-    <row r="255" ht="19.899999999999999" customHeight="1"/>
-    <row r="256" ht="19.899999999999999" customHeight="1"/>
-    <row r="257" ht="19.899999999999999" customHeight="1"/>
-    <row r="258" ht="19.899999999999999" customHeight="1"/>
-    <row r="259" ht="19.899999999999999" customHeight="1"/>
-    <row r="260" ht="19.899999999999999" customHeight="1"/>
-    <row r="261" ht="19.899999999999999" customHeight="1"/>
-    <row r="262" ht="19.899999999999999" customHeight="1"/>
-    <row r="263" ht="19.899999999999999" customHeight="1"/>
-    <row r="264" ht="19.899999999999999" customHeight="1"/>
-    <row r="265" ht="19.899999999999999" customHeight="1"/>
-    <row r="266" ht="19.899999999999999" customHeight="1"/>
-    <row r="267" ht="19.899999999999999" customHeight="1"/>
-    <row r="268" ht="19.899999999999999" customHeight="1"/>
-    <row r="269" ht="19.899999999999999" customHeight="1"/>
-    <row r="270" ht="19.899999999999999" customHeight="1"/>
-    <row r="271" ht="19.899999999999999" customHeight="1"/>
-    <row r="272" ht="19.899999999999999" customHeight="1"/>
-    <row r="273" ht="19.899999999999999" customHeight="1"/>
-    <row r="274" ht="19.899999999999999" customHeight="1"/>
-    <row r="275" ht="19.899999999999999" customHeight="1"/>
-    <row r="276" ht="19.899999999999999" customHeight="1"/>
-    <row r="277" ht="19.899999999999999" customHeight="1"/>
-    <row r="278" ht="19.899999999999999" customHeight="1"/>
-    <row r="279" ht="19.899999999999999" customHeight="1"/>
-    <row r="280" ht="19.899999999999999" customHeight="1"/>
-    <row r="281" ht="19.899999999999999" customHeight="1"/>
-    <row r="282" ht="19.899999999999999" customHeight="1"/>
-    <row r="283" ht="19.899999999999999" customHeight="1"/>
-    <row r="284" ht="19.899999999999999" customHeight="1"/>
-    <row r="285" ht="19.899999999999999" customHeight="1"/>
-    <row r="286" ht="19.899999999999999" customHeight="1"/>
-    <row r="287" ht="19.899999999999999" customHeight="1"/>
-    <row r="288" ht="19.899999999999999" customHeight="1"/>
-    <row r="289" ht="19.899999999999999" customHeight="1"/>
-    <row r="290" ht="19.899999999999999" customHeight="1"/>
-    <row r="291" ht="19.899999999999999" customHeight="1"/>
-    <row r="292" ht="19.899999999999999" customHeight="1"/>
-    <row r="293" ht="19.899999999999999" customHeight="1"/>
-    <row r="294" ht="19.899999999999999" customHeight="1"/>
-    <row r="295" ht="19.899999999999999" customHeight="1"/>
-    <row r="296" ht="19.899999999999999" customHeight="1"/>
-    <row r="297" ht="19.899999999999999" customHeight="1"/>
-    <row r="298" ht="19.899999999999999" customHeight="1"/>
-    <row r="299" ht="19.899999999999999" customHeight="1"/>
-    <row r="300" ht="19.899999999999999" customHeight="1"/>
-    <row r="301" ht="19.899999999999999" customHeight="1"/>
-    <row r="302" ht="19.899999999999999" customHeight="1"/>
-    <row r="303" ht="19.899999999999999" customHeight="1"/>
-    <row r="304" ht="19.899999999999999" customHeight="1"/>
-    <row r="305" ht="19.899999999999999" customHeight="1"/>
-    <row r="306" ht="19.899999999999999" customHeight="1"/>
-    <row r="307" ht="19.899999999999999" customHeight="1"/>
-    <row r="308" ht="19.899999999999999" customHeight="1"/>
-    <row r="309" ht="19.899999999999999" customHeight="1"/>
-    <row r="310" ht="19.899999999999999" customHeight="1"/>
-    <row r="311" ht="19.899999999999999" customHeight="1"/>
-    <row r="312" ht="19.899999999999999" customHeight="1"/>
-    <row r="313" ht="19.899999999999999" customHeight="1"/>
-    <row r="314" ht="19.899999999999999" customHeight="1"/>
-    <row r="315" ht="19.899999999999999" customHeight="1"/>
-    <row r="316" ht="19.899999999999999" customHeight="1"/>
-    <row r="317" ht="19.899999999999999" customHeight="1"/>
-    <row r="318" ht="19.899999999999999" customHeight="1"/>
-    <row r="319" ht="19.899999999999999" customHeight="1"/>
-    <row r="320" ht="19.899999999999999" customHeight="1"/>
-    <row r="321" ht="19.899999999999999" customHeight="1"/>
-    <row r="322" ht="19.899999999999999" customHeight="1"/>
-    <row r="323" ht="19.899999999999999" customHeight="1"/>
-    <row r="324" ht="19.899999999999999" customHeight="1"/>
-    <row r="325" ht="19.899999999999999" customHeight="1"/>
-    <row r="326" ht="19.899999999999999" customHeight="1"/>
-    <row r="327" ht="19.899999999999999" customHeight="1"/>
-    <row r="328" ht="19.899999999999999" customHeight="1"/>
-    <row r="329" ht="19.899999999999999" customHeight="1"/>
-    <row r="330" ht="19.899999999999999" customHeight="1"/>
-    <row r="331" ht="19.899999999999999" customHeight="1"/>
-    <row r="332" ht="19.899999999999999" customHeight="1"/>
-    <row r="333" ht="19.899999999999999" customHeight="1"/>
-    <row r="334" ht="19.899999999999999" customHeight="1"/>
-    <row r="335" ht="19.899999999999999" customHeight="1"/>
-    <row r="336" ht="19.899999999999999" customHeight="1"/>
-    <row r="337" ht="19.899999999999999" customHeight="1"/>
-    <row r="338" ht="19.899999999999999" customHeight="1"/>
-    <row r="339" ht="19.899999999999999" customHeight="1"/>
-    <row r="340" ht="19.899999999999999" customHeight="1"/>
-    <row r="341" ht="19.899999999999999" customHeight="1"/>
-    <row r="342" ht="19.899999999999999" customHeight="1"/>
-    <row r="343" ht="19.899999999999999" customHeight="1"/>
-    <row r="344" ht="19.899999999999999" customHeight="1"/>
-    <row r="345" ht="19.899999999999999" customHeight="1"/>
-    <row r="346" ht="19.899999999999999" customHeight="1"/>
-    <row r="347" ht="19.899999999999999" customHeight="1"/>
-    <row r="348" ht="19.899999999999999" customHeight="1"/>
-    <row r="349" ht="19.899999999999999" customHeight="1"/>
-    <row r="350" ht="19.899999999999999" customHeight="1"/>
-    <row r="351" ht="19.899999999999999" customHeight="1"/>
-    <row r="352" ht="19.899999999999999" customHeight="1"/>
-    <row r="353" ht="19.899999999999999" customHeight="1"/>
-    <row r="354" ht="19.899999999999999" customHeight="1"/>
-    <row r="355" ht="19.899999999999999" customHeight="1"/>
-    <row r="356" ht="19.899999999999999" customHeight="1"/>
-    <row r="357" ht="19.899999999999999" customHeight="1"/>
-    <row r="358" ht="19.899999999999999" customHeight="1"/>
-    <row r="359" ht="19.899999999999999" customHeight="1"/>
-    <row r="360" ht="19.899999999999999" customHeight="1"/>
-    <row r="361" ht="19.899999999999999" customHeight="1"/>
-    <row r="362" ht="19.899999999999999" customHeight="1"/>
-    <row r="363" ht="19.899999999999999" customHeight="1"/>
-    <row r="364" ht="19.899999999999999" customHeight="1"/>
-    <row r="365" ht="19.899999999999999" customHeight="1"/>
-    <row r="366" ht="19.899999999999999" customHeight="1"/>
-    <row r="367" ht="19.899999999999999" customHeight="1"/>
-    <row r="368" ht="19.899999999999999" customHeight="1"/>
-    <row r="369" ht="19.899999999999999" customHeight="1"/>
-    <row r="370" ht="19.899999999999999" customHeight="1"/>
-    <row r="371" ht="19.899999999999999" customHeight="1"/>
-    <row r="372" ht="19.899999999999999" customHeight="1"/>
-    <row r="373" ht="19.899999999999999" customHeight="1"/>
-    <row r="374" ht="19.899999999999999" customHeight="1"/>
-    <row r="375" ht="19.899999999999999" customHeight="1"/>
-    <row r="376" ht="19.899999999999999" customHeight="1"/>
-    <row r="377" ht="19.899999999999999" customHeight="1"/>
-    <row r="378" ht="19.899999999999999" customHeight="1"/>
-    <row r="379" ht="19.899999999999999" customHeight="1"/>
-    <row r="380" ht="19.899999999999999" customHeight="1"/>
-    <row r="381" ht="19.899999999999999" customHeight="1"/>
-    <row r="382" ht="19.899999999999999" customHeight="1"/>
-    <row r="383" ht="19.899999999999999" customHeight="1"/>
-    <row r="384" ht="19.899999999999999" customHeight="1"/>
-    <row r="385" ht="19.899999999999999" customHeight="1"/>
-    <row r="386" ht="19.899999999999999" customHeight="1"/>
-    <row r="387" ht="19.899999999999999" customHeight="1"/>
-    <row r="388" ht="19.899999999999999" customHeight="1"/>
-    <row r="389" ht="19.899999999999999" customHeight="1"/>
-    <row r="390" ht="19.899999999999999" customHeight="1"/>
-    <row r="391" ht="19.899999999999999" customHeight="1"/>
-    <row r="392" ht="19.899999999999999" customHeight="1"/>
-    <row r="393" ht="19.899999999999999" customHeight="1"/>
-    <row r="394" ht="19.899999999999999" customHeight="1"/>
-    <row r="395" ht="19.899999999999999" customHeight="1"/>
-    <row r="396" ht="19.899999999999999" customHeight="1"/>
-    <row r="397" ht="19.899999999999999" customHeight="1"/>
-    <row r="398" ht="19.899999999999999" customHeight="1"/>
-    <row r="399" ht="19.899999999999999" customHeight="1"/>
-    <row r="400" ht="19.899999999999999" customHeight="1"/>
-    <row r="401" ht="19.899999999999999" customHeight="1"/>
-    <row r="402" ht="19.899999999999999" customHeight="1"/>
-    <row r="403" ht="19.899999999999999" customHeight="1"/>
-    <row r="404" ht="19.899999999999999" customHeight="1"/>
-    <row r="405" ht="19.899999999999999" customHeight="1"/>
-    <row r="406" ht="19.899999999999999" customHeight="1"/>
-    <row r="407" ht="19.899999999999999" customHeight="1"/>
-    <row r="408" ht="19.899999999999999" customHeight="1"/>
-    <row r="409" ht="19.899999999999999" customHeight="1"/>
-    <row r="410" ht="19.899999999999999" customHeight="1"/>
-    <row r="411" ht="19.899999999999999" customHeight="1"/>
-    <row r="412" ht="19.899999999999999" customHeight="1"/>
-    <row r="413" ht="19.899999999999999" customHeight="1"/>
-    <row r="414" ht="19.899999999999999" customHeight="1"/>
-    <row r="415" ht="19.899999999999999" customHeight="1"/>
-    <row r="416" ht="19.899999999999999" customHeight="1"/>
-    <row r="417" ht="19.899999999999999" customHeight="1"/>
-    <row r="418" ht="19.899999999999999" customHeight="1"/>
-    <row r="419" ht="19.899999999999999" customHeight="1"/>
-    <row r="420" ht="19.899999999999999" customHeight="1"/>
-    <row r="421" ht="19.899999999999999" customHeight="1"/>
-    <row r="422" ht="19.899999999999999" customHeight="1"/>
-    <row r="423" ht="19.899999999999999" customHeight="1"/>
-    <row r="424" ht="19.899999999999999" customHeight="1"/>
-    <row r="425" ht="19.899999999999999" customHeight="1"/>
-    <row r="426" ht="19.899999999999999" customHeight="1"/>
-    <row r="427" ht="19.899999999999999" customHeight="1"/>
-    <row r="428" ht="19.899999999999999" customHeight="1"/>
-    <row r="429" ht="19.899999999999999" customHeight="1"/>
-    <row r="430" ht="19.899999999999999" customHeight="1"/>
-    <row r="431" ht="19.899999999999999" customHeight="1"/>
-    <row r="432" ht="19.899999999999999" customHeight="1"/>
-    <row r="433" ht="19.899999999999999" customHeight="1"/>
-    <row r="434" ht="19.899999999999999" customHeight="1"/>
-    <row r="435" ht="19.899999999999999" customHeight="1"/>
-    <row r="436" ht="19.899999999999999" customHeight="1"/>
-    <row r="437" ht="19.899999999999999" customHeight="1"/>
-    <row r="438" ht="19.899999999999999" customHeight="1"/>
-    <row r="439" ht="19.899999999999999" customHeight="1"/>
-    <row r="440" ht="19.899999999999999" customHeight="1"/>
-    <row r="441" ht="19.899999999999999" customHeight="1"/>
-    <row r="442" ht="19.899999999999999" customHeight="1"/>
-    <row r="443" ht="19.899999999999999" customHeight="1"/>
-    <row r="444" ht="19.899999999999999" customHeight="1"/>
-    <row r="445" ht="19.899999999999999" customHeight="1"/>
-    <row r="446" ht="19.899999999999999" customHeight="1"/>
-    <row r="447" ht="19.899999999999999" customHeight="1"/>
-    <row r="448" ht="19.899999999999999" customHeight="1"/>
-    <row r="449" ht="19.899999999999999" customHeight="1"/>
-    <row r="450" ht="19.899999999999999" customHeight="1"/>
-    <row r="451" ht="19.899999999999999" customHeight="1"/>
-    <row r="452" ht="19.899999999999999" customHeight="1"/>
-    <row r="453" ht="19.899999999999999" customHeight="1"/>
-    <row r="454" ht="19.899999999999999" customHeight="1"/>
-    <row r="455" ht="19.899999999999999" customHeight="1"/>
-    <row r="456" ht="19.899999999999999" customHeight="1"/>
-    <row r="457" ht="19.899999999999999" customHeight="1"/>
-    <row r="458" ht="19.899999999999999" customHeight="1"/>
-    <row r="459" ht="19.899999999999999" customHeight="1"/>
-    <row r="460" ht="19.899999999999999" customHeight="1"/>
-    <row r="461" ht="19.899999999999999" customHeight="1"/>
-    <row r="462" ht="19.899999999999999" customHeight="1"/>
-    <row r="463" ht="19.899999999999999" customHeight="1"/>
-    <row r="464" ht="19.899999999999999" customHeight="1"/>
-    <row r="465" ht="19.899999999999999" customHeight="1"/>
-    <row r="466" ht="19.899999999999999" customHeight="1"/>
-    <row r="467" ht="19.899999999999999" customHeight="1"/>
-    <row r="468" ht="19.899999999999999" customHeight="1"/>
-    <row r="469" ht="19.899999999999999" customHeight="1"/>
-    <row r="470" ht="19.899999999999999" customHeight="1"/>
-    <row r="471" ht="19.899999999999999" customHeight="1"/>
-    <row r="472" ht="19.899999999999999" customHeight="1"/>
-    <row r="473" ht="19.899999999999999" customHeight="1"/>
-    <row r="474" ht="19.899999999999999" customHeight="1"/>
-    <row r="475" ht="19.899999999999999" customHeight="1"/>
-    <row r="476" ht="19.899999999999999" customHeight="1"/>
-    <row r="477" ht="19.899999999999999" customHeight="1"/>
-    <row r="478" ht="19.899999999999999" customHeight="1"/>
-    <row r="479" ht="19.899999999999999" customHeight="1"/>
-    <row r="480" ht="19.899999999999999" customHeight="1"/>
-    <row r="481" ht="19.899999999999999" customHeight="1"/>
-    <row r="482" ht="19.899999999999999" customHeight="1"/>
-    <row r="483" ht="19.899999999999999" customHeight="1"/>
-    <row r="484" ht="19.899999999999999" customHeight="1"/>
-    <row r="485" ht="19.899999999999999" customHeight="1"/>
-    <row r="486" ht="19.899999999999999" customHeight="1"/>
-    <row r="487" ht="19.899999999999999" customHeight="1"/>
-    <row r="488" ht="19.899999999999999" customHeight="1"/>
-    <row r="489" ht="19.899999999999999" customHeight="1"/>
-    <row r="490" ht="19.899999999999999" customHeight="1"/>
-    <row r="491" ht="19.899999999999999" customHeight="1"/>
-    <row r="492" ht="19.899999999999999" customHeight="1"/>
-    <row r="493" ht="19.899999999999999" customHeight="1"/>
-    <row r="494" ht="19.899999999999999" customHeight="1"/>
-    <row r="495" ht="19.899999999999999" customHeight="1"/>
-    <row r="496" ht="19.899999999999999" customHeight="1"/>
-    <row r="497" ht="19.899999999999999" customHeight="1"/>
-    <row r="498" ht="19.899999999999999" customHeight="1"/>
-    <row r="499" ht="19.899999999999999" customHeight="1"/>
-    <row r="500" ht="19.899999999999999" customHeight="1"/>
-    <row r="501" ht="19.899999999999999" customHeight="1"/>
-    <row r="502" ht="19.899999999999999" customHeight="1"/>
-    <row r="503" ht="19.899999999999999" customHeight="1"/>
-    <row r="504" ht="19.899999999999999" customHeight="1"/>
-    <row r="505" ht="19.899999999999999" customHeight="1"/>
-    <row r="506" ht="19.899999999999999" customHeight="1"/>
-    <row r="507" ht="19.899999999999999" customHeight="1"/>
-    <row r="508" ht="19.899999999999999" customHeight="1"/>
-    <row r="509" ht="19.899999999999999" customHeight="1"/>
-    <row r="510" ht="19.899999999999999" customHeight="1"/>
-    <row r="511" ht="19.899999999999999" customHeight="1"/>
-    <row r="512" ht="19.899999999999999" customHeight="1"/>
-    <row r="513" ht="19.899999999999999" customHeight="1"/>
-    <row r="514" ht="19.899999999999999" customHeight="1"/>
-    <row r="515" ht="19.899999999999999" customHeight="1"/>
-    <row r="516" ht="19.899999999999999" customHeight="1"/>
-    <row r="517" ht="19.899999999999999" customHeight="1"/>
-    <row r="518" ht="19.899999999999999" customHeight="1"/>
-    <row r="519" ht="19.899999999999999" customHeight="1"/>
-    <row r="520" ht="19.899999999999999" customHeight="1"/>
-    <row r="521" ht="19.899999999999999" customHeight="1"/>
-    <row r="522" ht="19.899999999999999" customHeight="1"/>
-    <row r="523" ht="19.899999999999999" customHeight="1"/>
-    <row r="524" ht="19.899999999999999" customHeight="1"/>
-    <row r="525" ht="19.899999999999999" customHeight="1"/>
-    <row r="526" ht="19.899999999999999" customHeight="1"/>
-    <row r="527" ht="19.899999999999999" customHeight="1"/>
-    <row r="528" ht="19.899999999999999" customHeight="1"/>
-    <row r="529" ht="19.899999999999999" customHeight="1"/>
-    <row r="530" ht="19.899999999999999" customHeight="1"/>
-    <row r="531" ht="19.899999999999999" customHeight="1"/>
-    <row r="532" ht="19.899999999999999" customHeight="1"/>
-    <row r="533" ht="19.899999999999999" customHeight="1"/>
-    <row r="534" ht="19.899999999999999" customHeight="1"/>
-    <row r="535" ht="19.899999999999999" customHeight="1"/>
-    <row r="536" ht="19.899999999999999" customHeight="1"/>
-    <row r="537" ht="19.899999999999999" customHeight="1"/>
-    <row r="538" ht="19.899999999999999" customHeight="1"/>
-    <row r="539" ht="19.899999999999999" customHeight="1"/>
-    <row r="540" ht="19.899999999999999" customHeight="1"/>
-    <row r="541" ht="19.899999999999999" customHeight="1"/>
-    <row r="542" ht="19.899999999999999" customHeight="1"/>
-    <row r="543" ht="19.899999999999999" customHeight="1"/>
-    <row r="544" ht="19.899999999999999" customHeight="1"/>
-    <row r="545" ht="19.899999999999999" customHeight="1"/>
-    <row r="546" ht="19.899999999999999" customHeight="1"/>
-    <row r="547" ht="19.899999999999999" customHeight="1"/>
-    <row r="548" ht="19.899999999999999" customHeight="1"/>
-    <row r="549" ht="19.899999999999999" customHeight="1"/>
-    <row r="550" ht="19.899999999999999" customHeight="1"/>
-    <row r="551" ht="19.899999999999999" customHeight="1"/>
-    <row r="552" ht="19.899999999999999" customHeight="1"/>
-    <row r="553" ht="19.899999999999999" customHeight="1"/>
-    <row r="554" ht="19.899999999999999" customHeight="1"/>
-    <row r="555" ht="19.899999999999999" customHeight="1"/>
-    <row r="556" ht="19.899999999999999" customHeight="1"/>
-    <row r="557" ht="19.899999999999999" customHeight="1"/>
-    <row r="558" ht="19.899999999999999" customHeight="1"/>
-    <row r="559" ht="19.899999999999999" customHeight="1"/>
-    <row r="560" ht="19.899999999999999" customHeight="1"/>
-    <row r="561" ht="19.899999999999999" customHeight="1"/>
-    <row r="562" ht="19.899999999999999" customHeight="1"/>
-    <row r="563" ht="19.899999999999999" customHeight="1"/>
-    <row r="564" ht="19.899999999999999" customHeight="1"/>
-    <row r="565" ht="19.899999999999999" customHeight="1"/>
-    <row r="566" ht="19.899999999999999" customHeight="1"/>
-    <row r="567" ht="19.899999999999999" customHeight="1"/>
-    <row r="568" ht="19.899999999999999" customHeight="1"/>
-    <row r="569" ht="19.899999999999999" customHeight="1"/>
-    <row r="570" ht="19.899999999999999" customHeight="1"/>
-    <row r="571" ht="19.899999999999999" customHeight="1"/>
-    <row r="572" ht="19.899999999999999" customHeight="1"/>
-    <row r="573" ht="19.899999999999999" customHeight="1"/>
-    <row r="574" ht="19.899999999999999" customHeight="1"/>
-    <row r="575" ht="19.899999999999999" customHeight="1"/>
-    <row r="576" ht="19.899999999999999" customHeight="1"/>
-    <row r="577" ht="19.899999999999999" customHeight="1"/>
-    <row r="578" ht="19.899999999999999" customHeight="1"/>
-    <row r="579" ht="19.899999999999999" customHeight="1"/>
-    <row r="580" ht="19.899999999999999" customHeight="1"/>
-    <row r="581" ht="19.899999999999999" customHeight="1"/>
-    <row r="582" ht="19.899999999999999" customHeight="1"/>
-    <row r="583" ht="19.899999999999999" customHeight="1"/>
-    <row r="584" ht="19.899999999999999" customHeight="1"/>
-    <row r="585" ht="19.899999999999999" customHeight="1"/>
-    <row r="586" ht="19.899999999999999" customHeight="1"/>
-    <row r="587" ht="19.899999999999999" customHeight="1"/>
-    <row r="588" ht="19.899999999999999" customHeight="1"/>
-    <row r="589" ht="19.899999999999999" customHeight="1"/>
-    <row r="590" ht="19.899999999999999" customHeight="1"/>
-    <row r="591" ht="19.899999999999999" customHeight="1"/>
-    <row r="592" ht="19.899999999999999" customHeight="1"/>
-    <row r="593" ht="19.899999999999999" customHeight="1"/>
-    <row r="594" ht="19.899999999999999" customHeight="1"/>
-    <row r="595" ht="19.899999999999999" customHeight="1"/>
-    <row r="596" ht="19.899999999999999" customHeight="1"/>
-    <row r="597" ht="19.899999999999999" customHeight="1"/>
-    <row r="598" ht="19.899999999999999" customHeight="1"/>
-    <row r="599" ht="19.899999999999999" customHeight="1"/>
-    <row r="600" ht="19.899999999999999" customHeight="1"/>
-    <row r="601" ht="19.899999999999999" customHeight="1"/>
-    <row r="602" ht="19.899999999999999" customHeight="1"/>
-    <row r="603" ht="19.899999999999999" customHeight="1"/>
-    <row r="604" ht="19.899999999999999" customHeight="1"/>
-    <row r="605" ht="19.899999999999999" customHeight="1"/>
-    <row r="606" ht="19.899999999999999" customHeight="1"/>
-    <row r="607" ht="19.899999999999999" customHeight="1"/>
-    <row r="608" ht="19.899999999999999" customHeight="1"/>
-    <row r="609" ht="19.899999999999999" customHeight="1"/>
-    <row r="610" ht="19.899999999999999" customHeight="1"/>
-    <row r="611" ht="19.899999999999999" customHeight="1"/>
-    <row r="612" ht="19.899999999999999" customHeight="1"/>
-    <row r="613" ht="19.899999999999999" customHeight="1"/>
-    <row r="614" ht="19.899999999999999" customHeight="1"/>
-    <row r="615" ht="19.899999999999999" customHeight="1"/>
-    <row r="616" ht="19.899999999999999" customHeight="1"/>
-    <row r="617" ht="19.899999999999999" customHeight="1"/>
-    <row r="618" ht="19.899999999999999" customHeight="1"/>
-    <row r="619" ht="19.899999999999999" customHeight="1"/>
-    <row r="620" ht="19.899999999999999" customHeight="1"/>
-    <row r="621" ht="19.899999999999999" customHeight="1"/>
-    <row r="622" ht="19.899999999999999" customHeight="1"/>
-    <row r="623" ht="19.899999999999999" customHeight="1"/>
-    <row r="624" ht="19.899999999999999" customHeight="1"/>
-    <row r="625" ht="19.899999999999999" customHeight="1"/>
-    <row r="626" ht="19.899999999999999" customHeight="1"/>
-    <row r="627" ht="19.899999999999999" customHeight="1"/>
-    <row r="628" ht="19.899999999999999" customHeight="1"/>
-    <row r="629" ht="19.899999999999999" customHeight="1"/>
-    <row r="630" ht="19.899999999999999" customHeight="1"/>
-    <row r="631" ht="19.899999999999999" customHeight="1"/>
-    <row r="632" ht="19.899999999999999" customHeight="1"/>
-    <row r="633" ht="19.899999999999999" customHeight="1"/>
-    <row r="634" ht="19.899999999999999" customHeight="1"/>
-    <row r="635" ht="19.899999999999999" customHeight="1"/>
-    <row r="636" ht="19.899999999999999" customHeight="1"/>
-    <row r="637" ht="19.899999999999999" customHeight="1"/>
-    <row r="638" ht="19.899999999999999" customHeight="1"/>
-    <row r="639" ht="19.899999999999999" customHeight="1"/>
-    <row r="640" ht="19.899999999999999" customHeight="1"/>
-    <row r="641" ht="19.899999999999999" customHeight="1"/>
-    <row r="642" ht="19.899999999999999" customHeight="1"/>
-    <row r="643" ht="19.899999999999999" customHeight="1"/>
-    <row r="644" ht="19.899999999999999" customHeight="1"/>
-    <row r="645" ht="19.899999999999999" customHeight="1"/>
-    <row r="646" ht="19.899999999999999" customHeight="1"/>
-    <row r="647" ht="19.899999999999999" customHeight="1"/>
-    <row r="648" ht="19.899999999999999" customHeight="1"/>
-    <row r="649" ht="19.899999999999999" customHeight="1"/>
-    <row r="650" ht="19.899999999999999" customHeight="1"/>
-    <row r="651" ht="19.899999999999999" customHeight="1"/>
-    <row r="652" ht="19.899999999999999" customHeight="1"/>
-    <row r="653" ht="19.899999999999999" customHeight="1"/>
-    <row r="654" ht="19.899999999999999" customHeight="1"/>
-    <row r="655" ht="19.899999999999999" customHeight="1"/>
-    <row r="656" ht="19.899999999999999" customHeight="1"/>
-    <row r="657" ht="19.899999999999999" customHeight="1"/>
+    <row r="142" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="8" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C142" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>giftcodesbanner/Dark war-禮包碼.jpg</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="143" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/giftcodes.xlsx
+++ b/giftcodes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2704" uniqueCount="1542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="1552">
   <si>
     <t>遊戲名稱</t>
   </si>
@@ -5678,12 +5678,53 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>美男惡徒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《美男惡徒－暗夜中綻放的邪惡之戀》 「CROWN」是由維多利亞女王欽命成立的秘密組織。所有的成員都是擁有「童話詛咒」的男子，而這些詛咒賦予他們特殊的力量。他們以「以惡制惡」的方式，執行暗殺等任務，維護國家的穩定。
+　　原為郵差的妳，因意外得知 CROWN 的秘密而被迫成為「童話師」，負責記錄成員們的詛咒故事。在一個月內除了要與所有成員一起同住外，還需要記錄所有成員的故事，期間不得與任何人墜入愛河，否則將面臨死亡的命運。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破5,000人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉蛋券 ×3、雞尾酒套餐（體力+100）×1、經典編織低髻髮型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破10,000人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉蛋券 ×3、鑽石 ×200、玫瑰模樣的維多利亞風黑色洋裝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破30,000人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉蛋券 ×4、鑽石 ×300、雞尾酒套餐（體力+100）×2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破50,000人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保證★4角色的【標準角色卡轉蛋券】×1！、鑽石x1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5725,6 +5766,12 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5746,7 +5793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5770,6 +5817,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6078,10 +6128,10 @@
   <dimension ref="A1:AW656"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B131" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A140" sqref="A140:XFD140"/>
+      <selection pane="bottomRight" activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -14605,7 +14655,7 @@
         <v>1439</v>
       </c>
       <c r="C136" s="2" t="str">
-        <f t="shared" ref="C136:C142" si="3">"giftcodesbanner/" &amp; A136 &amp; "-禮包碼.jpg"</f>
+        <f t="shared" ref="C136:C143" si="3">"giftcodesbanner/" &amp; A136 &amp; "-禮包碼.jpg"</f>
         <v>giftcodesbanner/機甲變變變-禮包碼.jpg</v>
       </c>
       <c r="D136" s="5" t="s">
@@ -15059,7 +15109,51 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="143" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="10" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C143" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>giftcodesbanner/美男惡徒-禮包碼.jpg</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>1545</v>
+      </c>
+      <c r="L143" s="2" t="s">
+        <v>1546</v>
+      </c>
+      <c r="M143" s="2" t="s">
+        <v>1547</v>
+      </c>
+      <c r="N143" s="2" t="s">
+        <v>1548</v>
+      </c>
+      <c r="O143" s="2" t="s">
+        <v>1549</v>
+      </c>
+      <c r="P143" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="Q143" s="2" t="s">
+        <v>1551</v>
+      </c>
+    </row>
     <row r="144" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="145" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="146" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/giftcodes.xlsx
+++ b/giftcodes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="1552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="1569">
   <si>
     <t>遊戲名稱</t>
   </si>
@@ -5719,12 +5719,95 @@
     <t>保證★4角色的【標準角色卡轉蛋券】×1！、鑽石x1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>三國冰河時代</t>
+  </si>
+  <si>
+    <t>暗黑崛起</t>
+  </si>
+  <si>
+    <t>轉生魔劍士養成：策略放置RPG</t>
+  </si>
+  <si>
+    <t>輕鬆系三國冰雪模擬經營遊戲《三國冰河時代》今日再度公開全新重點與核心玩法特色，進一步展現「不肝也能玩」的輕鬆體驗，準備這個夏季來一場” 冰的” 三國演習。兩位人氣武將「孫尚香」與「張飛」也同步現身，將以全新造型與技能設計加入各位主公的隊伍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【純正暗黑體驗，探索祕境之戰】戰法職業流派與豐富的職業內容同步釋出！與來自深海的邪惡勢力對抗，守護結界殘存的能量，成為統禦賽季最強的英雄！
+【暢快連擊無限割草，享受廝殺的快感】雙搖桿操作，無體力限制想戰就戰，面對不斷襲擊的敵人，使用各式各樣的技能爽快連擊、無限割草，Hack and Slash，簡單操作隨時暢玩，Speedrun考驗操作技術，回歸遊戲最純粹的樂趣。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「死亡不是終點復仇才正要開始。」
+魔劍士亞莉亞在與魔王決戰前夕遭到摯友們的背叛而喪命。
+然而她在死亡邊緣重獲新生回到了過去還是新手劍士的時代。
+帶著未來的記憶亞莉亞展開了第二次復仇與成長的旅程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ice666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ice777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ice888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ice999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icewar666</t>
+  </si>
+  <si>
+    <t>icewar777</t>
+  </si>
+  <si>
+    <t>icewar888</t>
+  </si>
+  <si>
+    <t>icewar999</t>
+  </si>
+  <si>
+    <t>FBVALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>極速漂移：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3V3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《極速漂移:3v3》與全球玩家組隊競速、漂移，暢享速度激情。 《極速漂移:3v3》與許多世界頂尖車商合作，讓你能夠駕駛知名品牌的正版豪華車。 炫技般地做出令人驚嘆的漂移，在多樣且逼真的賽道上展開激烈的3v3 對戰，還能與全球玩家組隊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5772,16 +5855,41 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF1F1F1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -5789,11 +5897,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5821,6 +5944,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -6128,10 +6256,10 @@
   <dimension ref="A1:AW656"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F131" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G141" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A143" sqref="A143"/>
+      <selection pane="bottomRight" activeCell="L151" sqref="L151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -14655,7 +14783,7 @@
         <v>1439</v>
       </c>
       <c r="C136" s="2" t="str">
-        <f t="shared" ref="C136:C143" si="3">"giftcodesbanner/" &amp; A136 &amp; "-禮包碼.jpg"</f>
+        <f t="shared" ref="C136:C147" si="3">"giftcodesbanner/" &amp; A136 &amp; "-禮包碼.jpg"</f>
         <v>giftcodesbanner/機甲變變變-禮包碼.jpg</v>
       </c>
       <c r="D136" s="5" t="s">
@@ -15154,23 +15282,181 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="144" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" spans="1:49" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="11" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C144" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>giftcodesbanner/三國冰河時代-禮包碼.jpg</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>1558</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>1559</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="N144" s="2" t="s">
+        <v>1560</v>
+      </c>
+      <c r="O144" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="P144" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="Q144" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="R144" s="13" t="s">
+        <v>1562</v>
+      </c>
+      <c r="S144" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="T144" s="13" t="s">
+        <v>1563</v>
+      </c>
+      <c r="U144" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="V144" s="13" t="s">
+        <v>1564</v>
+      </c>
+      <c r="W144" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="X144" s="13" t="s">
+        <v>1565</v>
+      </c>
+      <c r="Y144" s="2" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="12" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C145" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>giftcodesbanner/暗黑崛起-禮包碼.jpg</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="12" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C146" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>giftcodesbanner/轉生魔劍士養成：策略放置RPG-禮包碼.jpg</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="L146" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="M146" s="2" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="11" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C147" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>giftcodesbanner/極速漂移：3V3-禮包碼.jpg</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="L147" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="M147" s="2" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="161" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="162" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="163" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/giftcodes.xlsx
+++ b/giftcodes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="1569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2805" uniqueCount="1589">
   <si>
     <t>遊戲名稱</t>
   </si>
@@ -5800,6 +5800,89 @@
   </si>
   <si>
     <t>《極速漂移:3v3》與全球玩家組隊競速、漂移，暢享速度激情。 《極速漂移:3v3》與許多世界頂尖車商合作，讓你能夠駕駛知名品牌的正版豪華車。 炫技般地做出令人驚嘆的漂移，在多樣且逼真的賽道上展開激烈的3v3 對戰，還能與全球玩家組隊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗羅大陸：獵魂世界</t>
+  </si>
+  <si>
+    <t>指點兵兵</t>
+  </si>
+  <si>
+    <t>《斗羅大陸：獵魂世界》作為首款基於頂尖國漫 IP《斗羅大陸》打造的開放世界 RPG，細膩還原魂獸、魂環、魂骨等核心設定，無論是施展酷炫魂技的燃魂激鬥，還是與夥伴組隊獵殺強大魂獸，都將為玩家帶來最真實的斗羅冒險。
+　　官方今日重磅釋出「斗羅時空」終極代言影片，影片中，終極一班原班人馬傾情演繹，從現實校園跨入斗羅大世界的時空，完美詮釋了遊戲「突破界限、勇敢冒險」的核心精神，點燃所有粉絲玩家的戰鬥熱血！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">《指點兵兵》這是一款以三國歷史為背景的塔防類策略遊戲。生於亂世，為了維護世間太平，玩家需要不斷招兵買馬，透過合理的資源配置和戰術安排，建造城池，排兵布陣，抵禦敵人的進攻，最後成為名震一方的主公。
+每局戰鬥共20波敵軍攻勢，透過隨機卡牌強化部隊，打造獨特戰術流派！
+主公將不斷解鎖新型兵種，合適的兵種互相搭配，可獲得獨一無二的聯合技！
+透過招兵買馬，軍師運籌帷幄，武將決勝千里，協助玩家過關斬將！
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP555</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>終極斗羅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首款斗羅大世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>獵魂777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃金昊天錘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全民獵魂瓜分百萬現金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗羅大陸獵魂世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真斗羅真開放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魂師回歸禮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MMO666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MMO777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MMO888</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6256,10 +6339,10 @@
   <dimension ref="A1:AW656"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G141" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B141" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L151" sqref="L151"/>
+      <selection pane="bottomRight" activeCell="AA152" sqref="AA152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
@@ -14783,7 +14866,7 @@
         <v>1439</v>
       </c>
       <c r="C136" s="2" t="str">
-        <f t="shared" ref="C136:C147" si="3">"giftcodesbanner/" &amp; A136 &amp; "-禮包碼.jpg"</f>
+        <f t="shared" ref="C136:C149" si="3">"giftcodesbanner/" &amp; A136 &amp; "-禮包碼.jpg"</f>
         <v>giftcodesbanner/機甲變變變-禮包碼.jpg</v>
       </c>
       <c r="D136" s="5" t="s">
@@ -15351,7 +15434,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:31" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="12" t="s">
         <v>1553</v>
       </c>
@@ -15378,7 +15461,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:31" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="12" t="s">
         <v>1554</v>
       </c>
@@ -15411,7 +15494,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:31" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="11" t="s">
         <v>1567</v>
       </c>
@@ -15444,19 +15527,155 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" spans="1:31" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="12" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C148" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>giftcodesbanner/斗羅大陸：獵魂世界-禮包碼.jpg</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="L148" s="2" t="s">
+        <v>1579</v>
+      </c>
+      <c r="M148" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="N148" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="O148" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="P148" s="2" t="s">
+        <v>1581</v>
+      </c>
+      <c r="Q148" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="R148" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="S148" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="T148" s="2" t="s">
+        <v>1583</v>
+      </c>
+      <c r="U148" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="V148" s="2" t="s">
+        <v>1584</v>
+      </c>
+      <c r="W148" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="X148" s="2" t="s">
+        <v>1585</v>
+      </c>
+      <c r="Y148" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="Z148" s="2" t="s">
+        <v>1586</v>
+      </c>
+      <c r="AA148" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AB148" s="2" t="s">
+        <v>1587</v>
+      </c>
+      <c r="AC148" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AD148" s="2" t="s">
+        <v>1588</v>
+      </c>
+      <c r="AE148" s="2" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="149" spans="1:31" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="12" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C149" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>giftcodesbanner/指點兵兵-禮包碼.jpg</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K149" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="L149" s="2" t="s">
+        <v>1575</v>
+      </c>
+      <c r="M149" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="N149" s="2" t="s">
+        <v>1574</v>
+      </c>
+      <c r="O149" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="P149" s="2" t="s">
+        <v>1576</v>
+      </c>
+      <c r="Q149" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="R149" s="2" t="s">
+        <v>1577</v>
+      </c>
+      <c r="S149" s="2" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="150" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="161" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="162" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="163" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/giftcodes.xlsx
+++ b/giftcodes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2805" uniqueCount="1589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="1601">
   <si>
     <t>遊戲名稱</t>
   </si>
@@ -5885,12 +5885,65 @@
     <t>MMO888</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>變身傳奇</t>
+  </si>
+  <si>
+    <t>Blue eyes：公會大師</t>
+  </si>
+  <si>
+    <t>《變身傳奇》是一款掛機角色扮演遊戲，玩家在遊戲中扮演被神選中的勇者，獲得變身力量，在奇幻世界中冒險，並不斷進化成傳奇英雄。 遊戲主打輕鬆的掛機體驗，即使離線也能持續成長，並提供豐富的社交和pvp元素。  化身為傳說中的英雄，體驗更強大的力量與華麗的戰鬥。 透過冒險與戰鬥成長，在競爭中勝出，奪取無可匹敵的地位！ 放置型動作RPG的真正樂趣無論何時何地都能輕鬆培養角色。 即使你暫時離線，英雄也會持續成長，當你回來時，將展開一場刺激的戰鬥並獲得豐富的獎勵！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>『地球、武林界、符文大地、艾爾弗拉多、魯坎……無數個世界被「高塔」所選中。
+被選中的世界【玩家】，可登上高塔，不斷變強。
+他們為了登上更高的殿堂，創立了【公會】。
+所以說【Blue Eyes】，
+這個如今成為傳說的公會名稱，是所有公會大師的夢想與目標。』</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即將更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEGLOBALOPEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dead Spirit Box (Non-Enhanceable) x1
+Common Element x50
+Common Soul Fragment x200
+Summon Stone Fragment x10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>進入主畫面，點選右上角四個點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>進入右下設定（齒輪）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>點擊添加優惠券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先點擊CS code右邊的複製</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>點添加優惠券貼上Cscode跟禮包碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5957,8 +6010,21 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF9900"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF9900"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5971,8 +6037,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1A1A1A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -5995,11 +6067,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -6032,6 +6113,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -6339,13 +6426,13 @@
   <dimension ref="A1:AW656"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B141" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D136" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA152" sqref="AA152"/>
+      <selection pane="bottomRight" activeCell="I152" sqref="I152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5"/>
   <cols>
     <col min="1" max="1" width="27.85546875" style="2" customWidth="1"/>
     <col min="2" max="3" width="37.28515625" style="2" customWidth="1"/>
@@ -6355,7 +6442,7 @@
     <col min="35" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6504,7 +6591,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>107</v>
       </c>
@@ -6639,7 +6726,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="3" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>108</v>
       </c>
@@ -6684,7 +6771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>109</v>
       </c>
@@ -6726,7 +6813,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="5" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>110</v>
       </c>
@@ -6825,7 +6912,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="6" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>111</v>
       </c>
@@ -6852,7 +6939,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>112</v>
       </c>
@@ -6915,7 +7002,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>113</v>
       </c>
@@ -6972,7 +7059,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="9" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>114</v>
       </c>
@@ -7065,7 +7152,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>115</v>
       </c>
@@ -7134,7 +7221,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>116</v>
       </c>
@@ -7173,7 +7260,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="12" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>117</v>
       </c>
@@ -7206,7 +7293,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="13" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>118</v>
       </c>
@@ -7275,7 +7362,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>119</v>
       </c>
@@ -7368,7 +7455,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="15" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>120</v>
       </c>
@@ -7419,7 +7506,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="16" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>121</v>
       </c>
@@ -7446,7 +7533,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" ht="19.899999999999999" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>122</v>
       </c>
@@ -7509,7 +7596,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" ht="19.899999999999999" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>123</v>
       </c>
@@ -7554,7 +7641,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" ht="19.899999999999999" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>124</v>
       </c>
@@ -7623,7 +7710,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" ht="19.899999999999999" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>125</v>
       </c>
@@ -7710,7 +7797,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>126</v>
       </c>
@@ -7761,7 +7848,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" ht="19.899999999999999" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>127</v>
       </c>
@@ -7788,7 +7875,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" ht="19.899999999999999" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>128</v>
       </c>
@@ -7869,7 +7956,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" ht="19.899999999999999" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>129</v>
       </c>
@@ -7926,7 +8013,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" ht="19.899999999999999" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>130</v>
       </c>
@@ -8001,7 +8088,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" ht="19.899999999999999" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>131</v>
       </c>
@@ -8031,7 +8118,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" ht="19.899999999999999" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>132</v>
       </c>
@@ -8052,7 +8139,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" ht="19.899999999999999" customHeight="1">
       <c r="A28" s="5" t="s">
         <v>133</v>
       </c>
@@ -8085,7 +8172,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" ht="19.899999999999999" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>134</v>
       </c>
@@ -8112,7 +8199,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" ht="19.899999999999999" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>135</v>
       </c>
@@ -8181,7 +8268,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" ht="19.899999999999999" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>136</v>
       </c>
@@ -8220,7 +8307,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" ht="19.899999999999999" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>137</v>
       </c>
@@ -8247,7 +8334,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="33" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>138</v>
       </c>
@@ -8334,7 +8421,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="34" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>139</v>
       </c>
@@ -8427,7 +8514,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="35" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>140</v>
       </c>
@@ -8472,7 +8559,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="36" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>141</v>
       </c>
@@ -8535,7 +8622,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="37" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>142</v>
       </c>
@@ -8568,7 +8655,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="38" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A38" s="5" t="s">
         <v>336</v>
       </c>
@@ -8613,7 +8700,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="39" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>143</v>
       </c>
@@ -8658,7 +8745,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="40" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>144</v>
       </c>
@@ -8709,7 +8796,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="41" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>145</v>
       </c>
@@ -8772,7 +8859,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="42" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A42" s="5" t="s">
         <v>146</v>
       </c>
@@ -8871,7 +8958,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="43" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A43" s="5" t="s">
         <v>147</v>
       </c>
@@ -8970,7 +9057,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="44" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A44" s="5" t="s">
         <v>148</v>
       </c>
@@ -9045,7 +9132,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="45" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>149</v>
       </c>
@@ -9144,7 +9231,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="46" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A46" s="5" t="s">
         <v>150</v>
       </c>
@@ -9261,7 +9348,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="47" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A47" s="5" t="s">
         <v>151</v>
       </c>
@@ -9312,7 +9399,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="48" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A48" s="5" t="s">
         <v>152</v>
       </c>
@@ -9393,7 +9480,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="49" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A49" s="5" t="s">
         <v>153</v>
       </c>
@@ -9438,7 +9525,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="50" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A50" s="5" t="s">
         <v>154</v>
       </c>
@@ -9507,7 +9594,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="51" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A51" s="5" t="s">
         <v>155</v>
       </c>
@@ -9552,7 +9639,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="52" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A52" s="5" t="s">
         <v>156</v>
       </c>
@@ -9585,7 +9672,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="53" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A53" s="5" t="s">
         <v>157</v>
       </c>
@@ -9630,7 +9717,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="54" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A54" s="5" t="s">
         <v>158</v>
       </c>
@@ -9759,7 +9846,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="55" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A55" s="5" t="s">
         <v>159</v>
       </c>
@@ -9876,7 +9963,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="56" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A56" s="5" t="s">
         <v>160</v>
       </c>
@@ -9953,7 +10040,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="57" spans="1:49" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:49" ht="34.5" customHeight="1">
       <c r="A57" s="5" t="s">
         <v>161</v>
       </c>
@@ -10046,7 +10133,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="58" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A58" s="5" t="s">
         <v>162</v>
       </c>
@@ -10085,7 +10172,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="59" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A59" s="5" t="s">
         <v>163</v>
       </c>
@@ -10160,7 +10247,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="60" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A60" s="5" t="s">
         <v>164</v>
       </c>
@@ -10259,7 +10346,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="61" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A61" s="5" t="s">
         <v>52</v>
       </c>
@@ -10286,7 +10373,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="62" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A62" s="5" t="s">
         <v>165</v>
       </c>
@@ -10397,7 +10484,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="63" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A63" s="5" t="s">
         <v>166</v>
       </c>
@@ -10538,7 +10625,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="64" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A64" s="5" t="s">
         <v>167</v>
       </c>
@@ -10571,7 +10658,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="65" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:45" ht="19.899999999999999" customHeight="1">
       <c r="A65" s="5" t="s">
         <v>168</v>
       </c>
@@ -10628,7 +10715,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="66" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:45" ht="19.899999999999999" customHeight="1">
       <c r="A66" s="5" t="s">
         <v>169</v>
       </c>
@@ -10685,7 +10772,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="67" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:45" ht="19.899999999999999" customHeight="1">
       <c r="A67" s="5" t="s">
         <v>170</v>
       </c>
@@ -10748,7 +10835,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="68" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:45" ht="19.899999999999999" customHeight="1">
       <c r="A68" s="5" t="s">
         <v>171</v>
       </c>
@@ -10823,7 +10910,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="69" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:45" ht="19.899999999999999" customHeight="1">
       <c r="A69" s="5" t="s">
         <v>172</v>
       </c>
@@ -10862,7 +10949,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="70" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:45" ht="19.899999999999999" customHeight="1">
       <c r="A70" s="5" t="s">
         <v>173</v>
       </c>
@@ -10901,7 +10988,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="71" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:45" ht="19.899999999999999" customHeight="1">
       <c r="A71" s="5" t="s">
         <v>174</v>
       </c>
@@ -11030,7 +11117,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="72" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:45" ht="19.899999999999999" customHeight="1">
       <c r="A72" s="5" t="s">
         <v>175</v>
       </c>
@@ -11057,7 +11144,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="73" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:45" ht="19.899999999999999" customHeight="1">
       <c r="A73" s="5" t="s">
         <v>176</v>
       </c>
@@ -11096,7 +11183,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="74" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:45" ht="19.899999999999999" customHeight="1">
       <c r="A74" s="5" t="s">
         <v>177</v>
       </c>
@@ -11183,7 +11270,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="75" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:45" ht="19.899999999999999" customHeight="1">
       <c r="A75" s="5" t="s">
         <v>178</v>
       </c>
@@ -11270,7 +11357,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="76" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:45" ht="19.899999999999999" customHeight="1">
       <c r="A76" s="5" t="s">
         <v>179</v>
       </c>
@@ -11309,7 +11396,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="77" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:45" ht="19.899999999999999" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>180</v>
       </c>
@@ -11378,7 +11465,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="78" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:45" ht="19.899999999999999" customHeight="1">
       <c r="A78" s="5" t="s">
         <v>181</v>
       </c>
@@ -11447,7 +11534,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="79" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:45" ht="19.899999999999999" customHeight="1">
       <c r="A79" s="5" t="s">
         <v>182</v>
       </c>
@@ -11528,7 +11615,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="80" spans="1:45" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:45" ht="19.899999999999999" customHeight="1">
       <c r="A80" s="5" t="s">
         <v>183</v>
       </c>
@@ -11591,7 +11678,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="81" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A81" s="5" t="s">
         <v>184</v>
       </c>
@@ -11642,7 +11729,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="82" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A82" s="5" t="s">
         <v>185</v>
       </c>
@@ -11702,7 +11789,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="83" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A83" s="5" t="s">
         <v>186</v>
       </c>
@@ -11759,7 +11846,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="84" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A84" s="5" t="s">
         <v>187</v>
       </c>
@@ -11801,7 +11888,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="85" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A85" s="5" t="s">
         <v>188</v>
       </c>
@@ -11876,7 +11963,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="86" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A86" s="5" t="s">
         <v>189</v>
       </c>
@@ -11909,7 +11996,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="87" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A87" s="5" t="s">
         <v>190</v>
       </c>
@@ -12008,7 +12095,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="88" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A88" s="5" t="s">
         <v>191</v>
       </c>
@@ -12077,7 +12164,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="89" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A89" s="5" t="s">
         <v>192</v>
       </c>
@@ -12104,7 +12191,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="90" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A90" s="5" t="s">
         <v>193</v>
       </c>
@@ -12146,7 +12233,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="91" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A91" s="5" t="s">
         <v>194</v>
       </c>
@@ -12185,7 +12272,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="92" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A92" s="5" t="s">
         <v>195</v>
       </c>
@@ -12302,7 +12389,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="93" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A93" s="5" t="s">
         <v>196</v>
       </c>
@@ -12362,7 +12449,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="94" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A94" s="5" t="s">
         <v>197</v>
       </c>
@@ -12395,7 +12482,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="95" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A95" s="5" t="s">
         <v>198</v>
       </c>
@@ -12452,7 +12539,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="96" spans="1:41" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A96" s="5" t="s">
         <v>199</v>
       </c>
@@ -12494,7 +12581,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="97" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:48" ht="19.899999999999999" customHeight="1">
       <c r="A97" s="5" t="s">
         <v>200</v>
       </c>
@@ -12521,7 +12608,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="98" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:48" ht="19.899999999999999" customHeight="1">
       <c r="A98" s="5" t="s">
         <v>201</v>
       </c>
@@ -12656,7 +12743,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="99" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:48" ht="19.899999999999999" customHeight="1">
       <c r="A99" s="5" t="s">
         <v>202</v>
       </c>
@@ -12725,7 +12812,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="100" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:48" ht="19.899999999999999" customHeight="1">
       <c r="A100" s="5" t="s">
         <v>203</v>
       </c>
@@ -12824,7 +12911,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="101" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:48" ht="19.899999999999999" customHeight="1">
       <c r="A101" s="5" t="s">
         <v>204</v>
       </c>
@@ -12911,7 +12998,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="102" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:48" ht="19.899999999999999" customHeight="1">
       <c r="A102" s="5" t="s">
         <v>205</v>
       </c>
@@ -12968,7 +13055,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="103" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:48" ht="19.899999999999999" customHeight="1">
       <c r="A103" s="2" t="s">
         <v>206</v>
       </c>
@@ -13037,7 +13124,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="104" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:48" ht="19.899999999999999" customHeight="1">
       <c r="A104" s="2" t="s">
         <v>207</v>
       </c>
@@ -13139,7 +13226,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="105" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:48" ht="19.899999999999999" customHeight="1">
       <c r="A105" s="8" t="s">
         <v>208</v>
       </c>
@@ -13241,7 +13328,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="106" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:48" ht="19.899999999999999" customHeight="1">
       <c r="A106" s="8" t="s">
         <v>209</v>
       </c>
@@ -13316,7 +13403,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="107" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:48" ht="19.899999999999999" customHeight="1">
       <c r="A107" s="8" t="s">
         <v>210</v>
       </c>
@@ -13337,7 +13424,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:48" ht="19.899999999999999" customHeight="1">
       <c r="A108" s="8" t="s">
         <v>211</v>
       </c>
@@ -13364,7 +13451,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="109" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:48" ht="19.899999999999999" customHeight="1">
       <c r="A109" s="8" t="s">
         <v>212</v>
       </c>
@@ -13391,7 +13478,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="110" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:48" ht="19.899999999999999" customHeight="1">
       <c r="A110" s="8" t="s">
         <v>213</v>
       </c>
@@ -13430,7 +13517,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="111" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:48" ht="19.899999999999999" customHeight="1">
       <c r="A111" s="8" t="s">
         <v>214</v>
       </c>
@@ -13499,7 +13586,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="112" spans="1:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:48" ht="19.899999999999999" customHeight="1">
       <c r="A112" s="8" t="s">
         <v>1221</v>
       </c>
@@ -13550,7 +13637,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="113" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A113" s="8" t="s">
         <v>1222</v>
       </c>
@@ -13643,7 +13730,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="114" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A114" s="8" t="s">
         <v>1223</v>
       </c>
@@ -13742,7 +13829,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="115" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A115" s="8" t="s">
         <v>1267</v>
       </c>
@@ -13769,7 +13856,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="116" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A116" s="8" t="s">
         <v>1268</v>
       </c>
@@ -13796,7 +13883,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="117" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A117" s="8" t="s">
         <v>1269</v>
       </c>
@@ -13829,7 +13916,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="118" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A118" s="8" t="s">
         <v>1270</v>
       </c>
@@ -13856,7 +13943,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="119" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A119" s="5" t="s">
         <v>1271</v>
       </c>
@@ -13919,7 +14006,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="120" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A120" s="2" t="s">
         <v>1294</v>
       </c>
@@ -13946,7 +14033,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="121" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A121" s="2" t="s">
         <v>1295</v>
       </c>
@@ -13973,7 +14060,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="122" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A122" s="8" t="s">
         <v>1298</v>
       </c>
@@ -14084,7 +14171,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="123" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A123" s="8" t="s">
         <v>1299</v>
       </c>
@@ -14117,7 +14204,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="124" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A124" s="8" t="s">
         <v>1300</v>
       </c>
@@ -14180,7 +14267,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="125" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A125" s="8" t="s">
         <v>1301</v>
       </c>
@@ -14321,7 +14408,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="126" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A126" s="8" t="s">
         <v>1302</v>
       </c>
@@ -14354,7 +14441,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="127" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A127" s="2" t="s">
         <v>1367</v>
       </c>
@@ -14453,7 +14540,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="128" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A128" s="8" t="s">
         <v>1382</v>
       </c>
@@ -14510,7 +14597,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="129" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A129" s="8" t="s">
         <v>1383</v>
       </c>
@@ -14567,7 +14654,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="130" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A130" s="8" t="s">
         <v>1384</v>
       </c>
@@ -14624,7 +14711,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="131" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A131" s="8" t="s">
         <v>1385</v>
       </c>
@@ -14657,7 +14744,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="132" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A132" s="8" t="s">
         <v>1416</v>
       </c>
@@ -14702,7 +14789,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="133" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A133" s="8" t="s">
         <v>1417</v>
       </c>
@@ -14729,7 +14816,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="134" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A134" s="8" t="s">
         <v>1418</v>
       </c>
@@ -14768,7 +14855,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="135" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A135" s="8" t="s">
         <v>1436</v>
       </c>
@@ -14861,12 +14948,12 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="136" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A136" s="8" t="s">
         <v>1439</v>
       </c>
       <c r="C136" s="2" t="str">
-        <f t="shared" ref="C136:C149" si="3">"giftcodesbanner/" &amp; A136 &amp; "-禮包碼.jpg"</f>
+        <f t="shared" ref="C136:C151" si="3">"giftcodesbanner/" &amp; A136 &amp; "-禮包碼.jpg"</f>
         <v>giftcodesbanner/機甲變變變-禮包碼.jpg</v>
       </c>
       <c r="D136" s="5" t="s">
@@ -14906,7 +14993,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="137" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A137" s="8" t="s">
         <v>1438</v>
       </c>
@@ -14939,7 +15026,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="138" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A138" s="8" t="s">
         <v>1539</v>
       </c>
@@ -15038,7 +15125,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="139" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A139" s="8" t="s">
         <v>1437</v>
       </c>
@@ -15071,7 +15158,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="140" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A140" s="8" t="s">
         <v>1479</v>
       </c>
@@ -15212,7 +15299,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="141" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A141" s="8" t="s">
         <v>1480</v>
       </c>
@@ -15287,7 +15374,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="142" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A142" s="8" t="s">
         <v>1481</v>
       </c>
@@ -15320,7 +15407,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="143" spans="1:49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:49" ht="19.899999999999999" customHeight="1">
       <c r="A143" s="10" t="s">
         <v>1542</v>
       </c>
@@ -15365,7 +15452,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="144" spans="1:49" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:49" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A144" s="11" t="s">
         <v>1552</v>
       </c>
@@ -15434,7 +15521,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="145" spans="1:31" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:31" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A145" s="12" t="s">
         <v>1553</v>
       </c>
@@ -15461,7 +15548,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="146" spans="1:31" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:31" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A146" s="12" t="s">
         <v>1554</v>
       </c>
@@ -15494,7 +15581,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="147" spans="1:31" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:31" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A147" s="11" t="s">
         <v>1567</v>
       </c>
@@ -15527,7 +15614,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="148" spans="1:31" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:31" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A148" s="12" t="s">
         <v>1569</v>
       </c>
@@ -15614,7 +15701,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="149" spans="1:31" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:31" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A149" s="12" t="s">
         <v>1570</v>
       </c>
@@ -15665,513 +15752,593 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="150" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" spans="1:31" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" spans="1:31" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A150" s="12" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C150" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>giftcodesbanner/變身傳奇-禮包碼.jpg</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>1593</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>1593</v>
+      </c>
+      <c r="L150" s="2" t="s">
+        <v>1593</v>
+      </c>
+      <c r="M150" s="2" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="151" spans="1:31" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A151" s="12" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C151" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>giftcodesbanner/Blue eyes：公會大師-禮包碼.jpg</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>1597</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>1599</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="J151" s="14" t="s">
+        <v>1594</v>
+      </c>
+      <c r="K151" s="15" t="s">
+        <v>1595</v>
+      </c>
+      <c r="L151" s="14"/>
+      <c r="M151" s="15"/>
+      <c r="N151" s="14"/>
+      <c r="O151" s="15"/>
+      <c r="P151" s="14"/>
+      <c r="Q151" s="15"/>
+      <c r="R151" s="14"/>
+      <c r="S151" s="15"/>
+      <c r="T151" s="14"/>
+      <c r="U151" s="15"/>
+      <c r="V151" s="14"/>
+      <c r="W151" s="15"/>
+      <c r="X151" s="14"/>
+      <c r="Y151" s="15"/>
+      <c r="Z151" s="14"/>
+      <c r="AA151" s="15"/>
+    </row>
+    <row r="152" spans="1:31" ht="19.899999999999999" customHeight="1"/>
+    <row r="153" spans="1:31" ht="19.899999999999999" customHeight="1"/>
+    <row r="154" spans="1:31" ht="19.899999999999999" customHeight="1"/>
+    <row r="155" spans="1:31" ht="19.899999999999999" customHeight="1"/>
+    <row r="156" spans="1:31" ht="19.899999999999999" customHeight="1"/>
+    <row r="157" spans="1:31" ht="19.899999999999999" customHeight="1"/>
+    <row r="158" spans="1:31" ht="19.899999999999999" customHeight="1"/>
+    <row r="159" spans="1:31" ht="19.899999999999999" customHeight="1"/>
+    <row r="160" spans="1:31" ht="19.899999999999999" customHeight="1"/>
+    <row r="161" ht="19.899999999999999" customHeight="1"/>
+    <row r="162" ht="19.899999999999999" customHeight="1"/>
+    <row r="163" ht="19.899999999999999" customHeight="1"/>
+    <row r="164" ht="19.899999999999999" customHeight="1"/>
+    <row r="165" ht="19.899999999999999" customHeight="1"/>
+    <row r="166" ht="19.899999999999999" customHeight="1"/>
+    <row r="167" ht="19.899999999999999" customHeight="1"/>
+    <row r="168" ht="19.899999999999999" customHeight="1"/>
+    <row r="169" ht="19.899999999999999" customHeight="1"/>
+    <row r="170" ht="19.899999999999999" customHeight="1"/>
+    <row r="171" ht="19.899999999999999" customHeight="1"/>
+    <row r="172" ht="19.899999999999999" customHeight="1"/>
+    <row r="173" ht="19.899999999999999" customHeight="1"/>
+    <row r="174" ht="19.899999999999999" customHeight="1"/>
+    <row r="175" ht="19.899999999999999" customHeight="1"/>
+    <row r="176" ht="19.899999999999999" customHeight="1"/>
+    <row r="177" ht="19.899999999999999" customHeight="1"/>
+    <row r="178" ht="19.899999999999999" customHeight="1"/>
+    <row r="179" ht="19.899999999999999" customHeight="1"/>
+    <row r="180" ht="19.899999999999999" customHeight="1"/>
+    <row r="181" ht="19.899999999999999" customHeight="1"/>
+    <row r="182" ht="19.899999999999999" customHeight="1"/>
+    <row r="183" ht="19.899999999999999" customHeight="1"/>
+    <row r="184" ht="19.899999999999999" customHeight="1"/>
+    <row r="185" ht="19.899999999999999" customHeight="1"/>
+    <row r="186" ht="19.899999999999999" customHeight="1"/>
+    <row r="187" ht="19.899999999999999" customHeight="1"/>
+    <row r="188" ht="19.899999999999999" customHeight="1"/>
+    <row r="189" ht="19.899999999999999" customHeight="1"/>
+    <row r="190" ht="19.899999999999999" customHeight="1"/>
+    <row r="191" ht="19.899999999999999" customHeight="1"/>
+    <row r="192" ht="19.899999999999999" customHeight="1"/>
+    <row r="193" ht="19.899999999999999" customHeight="1"/>
+    <row r="194" ht="19.899999999999999" customHeight="1"/>
+    <row r="195" ht="19.899999999999999" customHeight="1"/>
+    <row r="196" ht="19.899999999999999" customHeight="1"/>
+    <row r="197" ht="19.899999999999999" customHeight="1"/>
+    <row r="198" ht="19.899999999999999" customHeight="1"/>
+    <row r="199" ht="19.899999999999999" customHeight="1"/>
+    <row r="200" ht="19.899999999999999" customHeight="1"/>
+    <row r="201" ht="19.899999999999999" customHeight="1"/>
+    <row r="202" ht="19.899999999999999" customHeight="1"/>
+    <row r="203" ht="19.899999999999999" customHeight="1"/>
+    <row r="204" ht="19.899999999999999" customHeight="1"/>
+    <row r="205" ht="19.899999999999999" customHeight="1"/>
+    <row r="206" ht="19.899999999999999" customHeight="1"/>
+    <row r="207" ht="19.899999999999999" customHeight="1"/>
+    <row r="208" ht="19.899999999999999" customHeight="1"/>
+    <row r="209" ht="19.899999999999999" customHeight="1"/>
+    <row r="210" ht="19.899999999999999" customHeight="1"/>
+    <row r="211" ht="19.899999999999999" customHeight="1"/>
+    <row r="212" ht="19.899999999999999" customHeight="1"/>
+    <row r="213" ht="19.899999999999999" customHeight="1"/>
+    <row r="214" ht="19.899999999999999" customHeight="1"/>
+    <row r="215" ht="19.899999999999999" customHeight="1"/>
+    <row r="216" ht="19.899999999999999" customHeight="1"/>
+    <row r="217" ht="19.899999999999999" customHeight="1"/>
+    <row r="218" ht="19.899999999999999" customHeight="1"/>
+    <row r="219" ht="19.899999999999999" customHeight="1"/>
+    <row r="220" ht="19.899999999999999" customHeight="1"/>
+    <row r="221" ht="19.899999999999999" customHeight="1"/>
+    <row r="222" ht="19.899999999999999" customHeight="1"/>
+    <row r="223" ht="19.899999999999999" customHeight="1"/>
+    <row r="224" ht="19.899999999999999" customHeight="1"/>
+    <row r="225" ht="19.899999999999999" customHeight="1"/>
+    <row r="226" ht="19.899999999999999" customHeight="1"/>
+    <row r="227" ht="19.899999999999999" customHeight="1"/>
+    <row r="228" ht="19.899999999999999" customHeight="1"/>
+    <row r="229" ht="19.899999999999999" customHeight="1"/>
+    <row r="230" ht="19.899999999999999" customHeight="1"/>
+    <row r="231" ht="19.899999999999999" customHeight="1"/>
+    <row r="232" ht="19.899999999999999" customHeight="1"/>
+    <row r="233" ht="19.899999999999999" customHeight="1"/>
+    <row r="234" ht="19.899999999999999" customHeight="1"/>
+    <row r="235" ht="19.899999999999999" customHeight="1"/>
+    <row r="236" ht="19.899999999999999" customHeight="1"/>
+    <row r="237" ht="19.899999999999999" customHeight="1"/>
+    <row r="238" ht="19.899999999999999" customHeight="1"/>
+    <row r="239" ht="19.899999999999999" customHeight="1"/>
+    <row r="240" ht="19.899999999999999" customHeight="1"/>
+    <row r="241" ht="19.899999999999999" customHeight="1"/>
+    <row r="242" ht="19.899999999999999" customHeight="1"/>
+    <row r="243" ht="19.899999999999999" customHeight="1"/>
+    <row r="244" ht="19.899999999999999" customHeight="1"/>
+    <row r="245" ht="19.899999999999999" customHeight="1"/>
+    <row r="246" ht="19.899999999999999" customHeight="1"/>
+    <row r="247" ht="19.899999999999999" customHeight="1"/>
+    <row r="248" ht="19.899999999999999" customHeight="1"/>
+    <row r="249" ht="19.899999999999999" customHeight="1"/>
+    <row r="250" ht="19.899999999999999" customHeight="1"/>
+    <row r="251" ht="19.899999999999999" customHeight="1"/>
+    <row r="252" ht="19.899999999999999" customHeight="1"/>
+    <row r="253" ht="19.899999999999999" customHeight="1"/>
+    <row r="254" ht="19.899999999999999" customHeight="1"/>
+    <row r="255" ht="19.899999999999999" customHeight="1"/>
+    <row r="256" ht="19.899999999999999" customHeight="1"/>
+    <row r="257" ht="19.899999999999999" customHeight="1"/>
+    <row r="258" ht="19.899999999999999" customHeight="1"/>
+    <row r="259" ht="19.899999999999999" customHeight="1"/>
+    <row r="260" ht="19.899999999999999" customHeight="1"/>
+    <row r="261" ht="19.899999999999999" customHeight="1"/>
+    <row r="262" ht="19.899999999999999" customHeight="1"/>
+    <row r="263" ht="19.899999999999999" customHeight="1"/>
+    <row r="264" ht="19.899999999999999" customHeight="1"/>
+    <row r="265" ht="19.899999999999999" customHeight="1"/>
+    <row r="266" ht="19.899999999999999" customHeight="1"/>
+    <row r="267" ht="19.899999999999999" customHeight="1"/>
+    <row r="268" ht="19.899999999999999" customHeight="1"/>
+    <row r="269" ht="19.899999999999999" customHeight="1"/>
+    <row r="270" ht="19.899999999999999" customHeight="1"/>
+    <row r="271" ht="19.899999999999999" customHeight="1"/>
+    <row r="272" ht="19.899999999999999" customHeight="1"/>
+    <row r="273" ht="19.899999999999999" customHeight="1"/>
+    <row r="274" ht="19.899999999999999" customHeight="1"/>
+    <row r="275" ht="19.899999999999999" customHeight="1"/>
+    <row r="276" ht="19.899999999999999" customHeight="1"/>
+    <row r="277" ht="19.899999999999999" customHeight="1"/>
+    <row r="278" ht="19.899999999999999" customHeight="1"/>
+    <row r="279" ht="19.899999999999999" customHeight="1"/>
+    <row r="280" ht="19.899999999999999" customHeight="1"/>
+    <row r="281" ht="19.899999999999999" customHeight="1"/>
+    <row r="282" ht="19.899999999999999" customHeight="1"/>
+    <row r="283" ht="19.899999999999999" customHeight="1"/>
+    <row r="284" ht="19.899999999999999" customHeight="1"/>
+    <row r="285" ht="19.899999999999999" customHeight="1"/>
+    <row r="286" ht="19.899999999999999" customHeight="1"/>
+    <row r="287" ht="19.899999999999999" customHeight="1"/>
+    <row r="288" ht="19.899999999999999" customHeight="1"/>
+    <row r="289" ht="19.899999999999999" customHeight="1"/>
+    <row r="290" ht="19.899999999999999" customHeight="1"/>
+    <row r="291" ht="19.899999999999999" customHeight="1"/>
+    <row r="292" ht="19.899999999999999" customHeight="1"/>
+    <row r="293" ht="19.899999999999999" customHeight="1"/>
+    <row r="294" ht="19.899999999999999" customHeight="1"/>
+    <row r="295" ht="19.899999999999999" customHeight="1"/>
+    <row r="296" ht="19.899999999999999" customHeight="1"/>
+    <row r="297" ht="19.899999999999999" customHeight="1"/>
+    <row r="298" ht="19.899999999999999" customHeight="1"/>
+    <row r="299" ht="19.899999999999999" customHeight="1"/>
+    <row r="300" ht="19.899999999999999" customHeight="1"/>
+    <row r="301" ht="19.899999999999999" customHeight="1"/>
+    <row r="302" ht="19.899999999999999" customHeight="1"/>
+    <row r="303" ht="19.899999999999999" customHeight="1"/>
+    <row r="304" ht="19.899999999999999" customHeight="1"/>
+    <row r="305" ht="19.899999999999999" customHeight="1"/>
+    <row r="306" ht="19.899999999999999" customHeight="1"/>
+    <row r="307" ht="19.899999999999999" customHeight="1"/>
+    <row r="308" ht="19.899999999999999" customHeight="1"/>
+    <row r="309" ht="19.899999999999999" customHeight="1"/>
+    <row r="310" ht="19.899999999999999" customHeight="1"/>
+    <row r="311" ht="19.899999999999999" customHeight="1"/>
+    <row r="312" ht="19.899999999999999" customHeight="1"/>
+    <row r="313" ht="19.899999999999999" customHeight="1"/>
+    <row r="314" ht="19.899999999999999" customHeight="1"/>
+    <row r="315" ht="19.899999999999999" customHeight="1"/>
+    <row r="316" ht="19.899999999999999" customHeight="1"/>
+    <row r="317" ht="19.899999999999999" customHeight="1"/>
+    <row r="318" ht="19.899999999999999" customHeight="1"/>
+    <row r="319" ht="19.899999999999999" customHeight="1"/>
+    <row r="320" ht="19.899999999999999" customHeight="1"/>
+    <row r="321" ht="19.899999999999999" customHeight="1"/>
+    <row r="322" ht="19.899999999999999" customHeight="1"/>
+    <row r="323" ht="19.899999999999999" customHeight="1"/>
+    <row r="324" ht="19.899999999999999" customHeight="1"/>
+    <row r="325" ht="19.899999999999999" customHeight="1"/>
+    <row r="326" ht="19.899999999999999" customHeight="1"/>
+    <row r="327" ht="19.899999999999999" customHeight="1"/>
+    <row r="328" ht="19.899999999999999" customHeight="1"/>
+    <row r="329" ht="19.899999999999999" customHeight="1"/>
+    <row r="330" ht="19.899999999999999" customHeight="1"/>
+    <row r="331" ht="19.899999999999999" customHeight="1"/>
+    <row r="332" ht="19.899999999999999" customHeight="1"/>
+    <row r="333" ht="19.899999999999999" customHeight="1"/>
+    <row r="334" ht="19.899999999999999" customHeight="1"/>
+    <row r="335" ht="19.899999999999999" customHeight="1"/>
+    <row r="336" ht="19.899999999999999" customHeight="1"/>
+    <row r="337" ht="19.899999999999999" customHeight="1"/>
+    <row r="338" ht="19.899999999999999" customHeight="1"/>
+    <row r="339" ht="19.899999999999999" customHeight="1"/>
+    <row r="340" ht="19.899999999999999" customHeight="1"/>
+    <row r="341" ht="19.899999999999999" customHeight="1"/>
+    <row r="342" ht="19.899999999999999" customHeight="1"/>
+    <row r="343" ht="19.899999999999999" customHeight="1"/>
+    <row r="344" ht="19.899999999999999" customHeight="1"/>
+    <row r="345" ht="19.899999999999999" customHeight="1"/>
+    <row r="346" ht="19.899999999999999" customHeight="1"/>
+    <row r="347" ht="19.899999999999999" customHeight="1"/>
+    <row r="348" ht="19.899999999999999" customHeight="1"/>
+    <row r="349" ht="19.899999999999999" customHeight="1"/>
+    <row r="350" ht="19.899999999999999" customHeight="1"/>
+    <row r="351" ht="19.899999999999999" customHeight="1"/>
+    <row r="352" ht="19.899999999999999" customHeight="1"/>
+    <row r="353" ht="19.899999999999999" customHeight="1"/>
+    <row r="354" ht="19.899999999999999" customHeight="1"/>
+    <row r="355" ht="19.899999999999999" customHeight="1"/>
+    <row r="356" ht="19.899999999999999" customHeight="1"/>
+    <row r="357" ht="19.899999999999999" customHeight="1"/>
+    <row r="358" ht="19.899999999999999" customHeight="1"/>
+    <row r="359" ht="19.899999999999999" customHeight="1"/>
+    <row r="360" ht="19.899999999999999" customHeight="1"/>
+    <row r="361" ht="19.899999999999999" customHeight="1"/>
+    <row r="362" ht="19.899999999999999" customHeight="1"/>
+    <row r="363" ht="19.899999999999999" customHeight="1"/>
+    <row r="364" ht="19.899999999999999" customHeight="1"/>
+    <row r="365" ht="19.899999999999999" customHeight="1"/>
+    <row r="366" ht="19.899999999999999" customHeight="1"/>
+    <row r="367" ht="19.899999999999999" customHeight="1"/>
+    <row r="368" ht="19.899999999999999" customHeight="1"/>
+    <row r="369" ht="19.899999999999999" customHeight="1"/>
+    <row r="370" ht="19.899999999999999" customHeight="1"/>
+    <row r="371" ht="19.899999999999999" customHeight="1"/>
+    <row r="372" ht="19.899999999999999" customHeight="1"/>
+    <row r="373" ht="19.899999999999999" customHeight="1"/>
+    <row r="374" ht="19.899999999999999" customHeight="1"/>
+    <row r="375" ht="19.899999999999999" customHeight="1"/>
+    <row r="376" ht="19.899999999999999" customHeight="1"/>
+    <row r="377" ht="19.899999999999999" customHeight="1"/>
+    <row r="378" ht="19.899999999999999" customHeight="1"/>
+    <row r="379" ht="19.899999999999999" customHeight="1"/>
+    <row r="380" ht="19.899999999999999" customHeight="1"/>
+    <row r="381" ht="19.899999999999999" customHeight="1"/>
+    <row r="382" ht="19.899999999999999" customHeight="1"/>
+    <row r="383" ht="19.899999999999999" customHeight="1"/>
+    <row r="384" ht="19.899999999999999" customHeight="1"/>
+    <row r="385" ht="19.899999999999999" customHeight="1"/>
+    <row r="386" ht="19.899999999999999" customHeight="1"/>
+    <row r="387" ht="19.899999999999999" customHeight="1"/>
+    <row r="388" ht="19.899999999999999" customHeight="1"/>
+    <row r="389" ht="19.899999999999999" customHeight="1"/>
+    <row r="390" ht="19.899999999999999" customHeight="1"/>
+    <row r="391" ht="19.899999999999999" customHeight="1"/>
+    <row r="392" ht="19.899999999999999" customHeight="1"/>
+    <row r="393" ht="19.899999999999999" customHeight="1"/>
+    <row r="394" ht="19.899999999999999" customHeight="1"/>
+    <row r="395" ht="19.899999999999999" customHeight="1"/>
+    <row r="396" ht="19.899999999999999" customHeight="1"/>
+    <row r="397" ht="19.899999999999999" customHeight="1"/>
+    <row r="398" ht="19.899999999999999" customHeight="1"/>
+    <row r="399" ht="19.899999999999999" customHeight="1"/>
+    <row r="400" ht="19.899999999999999" customHeight="1"/>
+    <row r="401" ht="19.899999999999999" customHeight="1"/>
+    <row r="402" ht="19.899999999999999" customHeight="1"/>
+    <row r="403" ht="19.899999999999999" customHeight="1"/>
+    <row r="404" ht="19.899999999999999" customHeight="1"/>
+    <row r="405" ht="19.899999999999999" customHeight="1"/>
+    <row r="406" ht="19.899999999999999" customHeight="1"/>
+    <row r="407" ht="19.899999999999999" customHeight="1"/>
+    <row r="408" ht="19.899999999999999" customHeight="1"/>
+    <row r="409" ht="19.899999999999999" customHeight="1"/>
+    <row r="410" ht="19.899999999999999" customHeight="1"/>
+    <row r="411" ht="19.899999999999999" customHeight="1"/>
+    <row r="412" ht="19.899999999999999" customHeight="1"/>
+    <row r="413" ht="19.899999999999999" customHeight="1"/>
+    <row r="414" ht="19.899999999999999" customHeight="1"/>
+    <row r="415" ht="19.899999999999999" customHeight="1"/>
+    <row r="416" ht="19.899999999999999" customHeight="1"/>
+    <row r="417" ht="19.899999999999999" customHeight="1"/>
+    <row r="418" ht="19.899999999999999" customHeight="1"/>
+    <row r="419" ht="19.899999999999999" customHeight="1"/>
+    <row r="420" ht="19.899999999999999" customHeight="1"/>
+    <row r="421" ht="19.899999999999999" customHeight="1"/>
+    <row r="422" ht="19.899999999999999" customHeight="1"/>
+    <row r="423" ht="19.899999999999999" customHeight="1"/>
+    <row r="424" ht="19.899999999999999" customHeight="1"/>
+    <row r="425" ht="19.899999999999999" customHeight="1"/>
+    <row r="426" ht="19.899999999999999" customHeight="1"/>
+    <row r="427" ht="19.899999999999999" customHeight="1"/>
+    <row r="428" ht="19.899999999999999" customHeight="1"/>
+    <row r="429" ht="19.899999999999999" customHeight="1"/>
+    <row r="430" ht="19.899999999999999" customHeight="1"/>
+    <row r="431" ht="19.899999999999999" customHeight="1"/>
+    <row r="432" ht="19.899999999999999" customHeight="1"/>
+    <row r="433" ht="19.899999999999999" customHeight="1"/>
+    <row r="434" ht="19.899999999999999" customHeight="1"/>
+    <row r="435" ht="19.899999999999999" customHeight="1"/>
+    <row r="436" ht="19.899999999999999" customHeight="1"/>
+    <row r="437" ht="19.899999999999999" customHeight="1"/>
+    <row r="438" ht="19.899999999999999" customHeight="1"/>
+    <row r="439" ht="19.899999999999999" customHeight="1"/>
+    <row r="440" ht="19.899999999999999" customHeight="1"/>
+    <row r="441" ht="19.899999999999999" customHeight="1"/>
+    <row r="442" ht="19.899999999999999" customHeight="1"/>
+    <row r="443" ht="19.899999999999999" customHeight="1"/>
+    <row r="444" ht="19.899999999999999" customHeight="1"/>
+    <row r="445" ht="19.899999999999999" customHeight="1"/>
+    <row r="446" ht="19.899999999999999" customHeight="1"/>
+    <row r="447" ht="19.899999999999999" customHeight="1"/>
+    <row r="448" ht="19.899999999999999" customHeight="1"/>
+    <row r="449" ht="19.899999999999999" customHeight="1"/>
+    <row r="450" ht="19.899999999999999" customHeight="1"/>
+    <row r="451" ht="19.899999999999999" customHeight="1"/>
+    <row r="452" ht="19.899999999999999" customHeight="1"/>
+    <row r="453" ht="19.899999999999999" customHeight="1"/>
+    <row r="454" ht="19.899999999999999" customHeight="1"/>
+    <row r="455" ht="19.899999999999999" customHeight="1"/>
+    <row r="456" ht="19.899999999999999" customHeight="1"/>
+    <row r="457" ht="19.899999999999999" customHeight="1"/>
+    <row r="458" ht="19.899999999999999" customHeight="1"/>
+    <row r="459" ht="19.899999999999999" customHeight="1"/>
+    <row r="460" ht="19.899999999999999" customHeight="1"/>
+    <row r="461" ht="19.899999999999999" customHeight="1"/>
+    <row r="462" ht="19.899999999999999" customHeight="1"/>
+    <row r="463" ht="19.899999999999999" customHeight="1"/>
+    <row r="464" ht="19.899999999999999" customHeight="1"/>
+    <row r="465" ht="19.899999999999999" customHeight="1"/>
+    <row r="466" ht="19.899999999999999" customHeight="1"/>
+    <row r="467" ht="19.899999999999999" customHeight="1"/>
+    <row r="468" ht="19.899999999999999" customHeight="1"/>
+    <row r="469" ht="19.899999999999999" customHeight="1"/>
+    <row r="470" ht="19.899999999999999" customHeight="1"/>
+    <row r="471" ht="19.899999999999999" customHeight="1"/>
+    <row r="472" ht="19.899999999999999" customHeight="1"/>
+    <row r="473" ht="19.899999999999999" customHeight="1"/>
+    <row r="474" ht="19.899999999999999" customHeight="1"/>
+    <row r="475" ht="19.899999999999999" customHeight="1"/>
+    <row r="476" ht="19.899999999999999" customHeight="1"/>
+    <row r="477" ht="19.899999999999999" customHeight="1"/>
+    <row r="478" ht="19.899999999999999" customHeight="1"/>
+    <row r="479" ht="19.899999999999999" customHeight="1"/>
+    <row r="480" ht="19.899999999999999" customHeight="1"/>
+    <row r="481" ht="19.899999999999999" customHeight="1"/>
+    <row r="482" ht="19.899999999999999" customHeight="1"/>
+    <row r="483" ht="19.899999999999999" customHeight="1"/>
+    <row r="484" ht="19.899999999999999" customHeight="1"/>
+    <row r="485" ht="19.899999999999999" customHeight="1"/>
+    <row r="486" ht="19.899999999999999" customHeight="1"/>
+    <row r="487" ht="19.899999999999999" customHeight="1"/>
+    <row r="488" ht="19.899999999999999" customHeight="1"/>
+    <row r="489" ht="19.899999999999999" customHeight="1"/>
+    <row r="490" ht="19.899999999999999" customHeight="1"/>
+    <row r="491" ht="19.899999999999999" customHeight="1"/>
+    <row r="492" ht="19.899999999999999" customHeight="1"/>
+    <row r="493" ht="19.899999999999999" customHeight="1"/>
+    <row r="494" ht="19.899999999999999" customHeight="1"/>
+    <row r="495" ht="19.899999999999999" customHeight="1"/>
+    <row r="496" ht="19.899999999999999" customHeight="1"/>
+    <row r="497" ht="19.899999999999999" customHeight="1"/>
+    <row r="498" ht="19.899999999999999" customHeight="1"/>
+    <row r="499" ht="19.899999999999999" customHeight="1"/>
+    <row r="500" ht="19.899999999999999" customHeight="1"/>
+    <row r="501" ht="19.899999999999999" customHeight="1"/>
+    <row r="502" ht="19.899999999999999" customHeight="1"/>
+    <row r="503" ht="19.899999999999999" customHeight="1"/>
+    <row r="504" ht="19.899999999999999" customHeight="1"/>
+    <row r="505" ht="19.899999999999999" customHeight="1"/>
+    <row r="506" ht="19.899999999999999" customHeight="1"/>
+    <row r="507" ht="19.899999999999999" customHeight="1"/>
+    <row r="508" ht="19.899999999999999" customHeight="1"/>
+    <row r="509" ht="19.899999999999999" customHeight="1"/>
+    <row r="510" ht="19.899999999999999" customHeight="1"/>
+    <row r="511" ht="19.899999999999999" customHeight="1"/>
+    <row r="512" ht="19.899999999999999" customHeight="1"/>
+    <row r="513" ht="19.899999999999999" customHeight="1"/>
+    <row r="514" ht="19.899999999999999" customHeight="1"/>
+    <row r="515" ht="19.899999999999999" customHeight="1"/>
+    <row r="516" ht="19.899999999999999" customHeight="1"/>
+    <row r="517" ht="19.899999999999999" customHeight="1"/>
+    <row r="518" ht="19.899999999999999" customHeight="1"/>
+    <row r="519" ht="19.899999999999999" customHeight="1"/>
+    <row r="520" ht="19.899999999999999" customHeight="1"/>
+    <row r="521" ht="19.899999999999999" customHeight="1"/>
+    <row r="522" ht="19.899999999999999" customHeight="1"/>
+    <row r="523" ht="19.899999999999999" customHeight="1"/>
+    <row r="524" ht="19.899999999999999" customHeight="1"/>
+    <row r="525" ht="19.899999999999999" customHeight="1"/>
+    <row r="526" ht="19.899999999999999" customHeight="1"/>
+    <row r="527" ht="19.899999999999999" customHeight="1"/>
+    <row r="528" ht="19.899999999999999" customHeight="1"/>
+    <row r="529" ht="19.899999999999999" customHeight="1"/>
+    <row r="530" ht="19.899999999999999" customHeight="1"/>
+    <row r="531" ht="19.899999999999999" customHeight="1"/>
+    <row r="532" ht="19.899999999999999" customHeight="1"/>
+    <row r="533" ht="19.899999999999999" customHeight="1"/>
+    <row r="534" ht="19.899999999999999" customHeight="1"/>
+    <row r="535" ht="19.899999999999999" customHeight="1"/>
+    <row r="536" ht="19.899999999999999" customHeight="1"/>
+    <row r="537" ht="19.899999999999999" customHeight="1"/>
+    <row r="538" ht="19.899999999999999" customHeight="1"/>
+    <row r="539" ht="19.899999999999999" customHeight="1"/>
+    <row r="540" ht="19.899999999999999" customHeight="1"/>
+    <row r="541" ht="19.899999999999999" customHeight="1"/>
+    <row r="542" ht="19.899999999999999" customHeight="1"/>
+    <row r="543" ht="19.899999999999999" customHeight="1"/>
+    <row r="544" ht="19.899999999999999" customHeight="1"/>
+    <row r="545" ht="19.899999999999999" customHeight="1"/>
+    <row r="546" ht="19.899999999999999" customHeight="1"/>
+    <row r="547" ht="19.899999999999999" customHeight="1"/>
+    <row r="548" ht="19.899999999999999" customHeight="1"/>
+    <row r="549" ht="19.899999999999999" customHeight="1"/>
+    <row r="550" ht="19.899999999999999" customHeight="1"/>
+    <row r="551" ht="19.899999999999999" customHeight="1"/>
+    <row r="552" ht="19.899999999999999" customHeight="1"/>
+    <row r="553" ht="19.899999999999999" customHeight="1"/>
+    <row r="554" ht="19.899999999999999" customHeight="1"/>
+    <row r="555" ht="19.899999999999999" customHeight="1"/>
+    <row r="556" ht="19.899999999999999" customHeight="1"/>
+    <row r="557" ht="19.899999999999999" customHeight="1"/>
+    <row r="558" ht="19.899999999999999" customHeight="1"/>
+    <row r="559" ht="19.899999999999999" customHeight="1"/>
+    <row r="560" ht="19.899999999999999" customHeight="1"/>
+    <row r="561" ht="19.899999999999999" customHeight="1"/>
+    <row r="562" ht="19.899999999999999" customHeight="1"/>
+    <row r="563" ht="19.899999999999999" customHeight="1"/>
+    <row r="564" ht="19.899999999999999" customHeight="1"/>
+    <row r="565" ht="19.899999999999999" customHeight="1"/>
+    <row r="566" ht="19.899999999999999" customHeight="1"/>
+    <row r="567" ht="19.899999999999999" customHeight="1"/>
+    <row r="568" ht="19.899999999999999" customHeight="1"/>
+    <row r="569" ht="19.899999999999999" customHeight="1"/>
+    <row r="570" ht="19.899999999999999" customHeight="1"/>
+    <row r="571" ht="19.899999999999999" customHeight="1"/>
+    <row r="572" ht="19.899999999999999" customHeight="1"/>
+    <row r="573" ht="19.899999999999999" customHeight="1"/>
+    <row r="574" ht="19.899999999999999" customHeight="1"/>
+    <row r="575" ht="19.899999999999999" customHeight="1"/>
+    <row r="576" ht="19.899999999999999" customHeight="1"/>
+    <row r="577" ht="19.899999999999999" customHeight="1"/>
+    <row r="578" ht="19.899999999999999" customHeight="1"/>
+    <row r="579" ht="19.899999999999999" customHeight="1"/>
+    <row r="580" ht="19.899999999999999" customHeight="1"/>
+    <row r="581" ht="19.899999999999999" customHeight="1"/>
+    <row r="582" ht="19.899999999999999" customHeight="1"/>
+    <row r="583" ht="19.899999999999999" customHeight="1"/>
+    <row r="584" ht="19.899999999999999" customHeight="1"/>
+    <row r="585" ht="19.899999999999999" customHeight="1"/>
+    <row r="586" ht="19.899999999999999" customHeight="1"/>
+    <row r="587" ht="19.899999999999999" customHeight="1"/>
+    <row r="588" ht="19.899999999999999" customHeight="1"/>
+    <row r="589" ht="19.899999999999999" customHeight="1"/>
+    <row r="590" ht="19.899999999999999" customHeight="1"/>
+    <row r="591" ht="19.899999999999999" customHeight="1"/>
+    <row r="592" ht="19.899999999999999" customHeight="1"/>
+    <row r="593" ht="19.899999999999999" customHeight="1"/>
+    <row r="594" ht="19.899999999999999" customHeight="1"/>
+    <row r="595" ht="19.899999999999999" customHeight="1"/>
+    <row r="596" ht="19.899999999999999" customHeight="1"/>
+    <row r="597" ht="19.899999999999999" customHeight="1"/>
+    <row r="598" ht="19.899999999999999" customHeight="1"/>
+    <row r="599" ht="19.899999999999999" customHeight="1"/>
+    <row r="600" ht="19.899999999999999" customHeight="1"/>
+    <row r="601" ht="19.899999999999999" customHeight="1"/>
+    <row r="602" ht="19.899999999999999" customHeight="1"/>
+    <row r="603" ht="19.899999999999999" customHeight="1"/>
+    <row r="604" ht="19.899999999999999" customHeight="1"/>
+    <row r="605" ht="19.899999999999999" customHeight="1"/>
+    <row r="606" ht="19.899999999999999" customHeight="1"/>
+    <row r="607" ht="19.899999999999999" customHeight="1"/>
+    <row r="608" ht="19.899999999999999" customHeight="1"/>
+    <row r="609" ht="19.899999999999999" customHeight="1"/>
+    <row r="610" ht="19.899999999999999" customHeight="1"/>
+    <row r="611" ht="19.899999999999999" customHeight="1"/>
+    <row r="612" ht="19.899999999999999" customHeight="1"/>
+    <row r="613" ht="19.899999999999999" customHeight="1"/>
+    <row r="614" ht="19.899999999999999" customHeight="1"/>
+    <row r="615" ht="19.899999999999999" customHeight="1"/>
+    <row r="616" ht="19.899999999999999" customHeight="1"/>
+    <row r="617" ht="19.899999999999999" customHeight="1"/>
+    <row r="618" ht="19.899999999999999" customHeight="1"/>
+    <row r="619" ht="19.899999999999999" customHeight="1"/>
+    <row r="620" ht="19.899999999999999" customHeight="1"/>
+    <row r="621" ht="19.899999999999999" customHeight="1"/>
+    <row r="622" ht="19.899999999999999" customHeight="1"/>
+    <row r="623" ht="19.899999999999999" customHeight="1"/>
+    <row r="624" ht="19.899999999999999" customHeight="1"/>
+    <row r="625" ht="19.899999999999999" customHeight="1"/>
+    <row r="626" ht="19.899999999999999" customHeight="1"/>
+    <row r="627" ht="19.899999999999999" customHeight="1"/>
+    <row r="628" ht="19.899999999999999" customHeight="1"/>
+    <row r="629" ht="19.899999999999999" customHeight="1"/>
+    <row r="630" ht="19.899999999999999" customHeight="1"/>
+    <row r="631" ht="19.899999999999999" customHeight="1"/>
+    <row r="632" ht="19.899999999999999" customHeight="1"/>
+    <row r="633" ht="19.899999999999999" customHeight="1"/>
+    <row r="634" ht="19.899999999999999" customHeight="1"/>
+    <row r="635" ht="19.899999999999999" customHeight="1"/>
+    <row r="636" ht="19.899999999999999" customHeight="1"/>
+    <row r="637" ht="19.899999999999999" customHeight="1"/>
+    <row r="638" ht="19.899999999999999" customHeight="1"/>
+    <row r="639" ht="19.899999999999999" customHeight="1"/>
+    <row r="640" ht="19.899999999999999" customHeight="1"/>
+    <row r="641" ht="19.899999999999999" customHeight="1"/>
+    <row r="642" ht="19.899999999999999" customHeight="1"/>
+    <row r="643" ht="19.899999999999999" customHeight="1"/>
+    <row r="644" ht="19.899999999999999" customHeight="1"/>
+    <row r="645" ht="19.899999999999999" customHeight="1"/>
+    <row r="646" ht="19.899999999999999" customHeight="1"/>
+    <row r="647" ht="19.899999999999999" customHeight="1"/>
+    <row r="648" ht="19.899999999999999" customHeight="1"/>
+    <row r="649" ht="19.899999999999999" customHeight="1"/>
+    <row r="650" ht="19.899999999999999" customHeight="1"/>
+    <row r="651" ht="19.899999999999999" customHeight="1"/>
+    <row r="652" ht="19.899999999999999" customHeight="1"/>
+    <row r="653" ht="19.899999999999999" customHeight="1"/>
+    <row r="654" ht="19.899999999999999" customHeight="1"/>
+    <row r="655" ht="19.899999999999999" customHeight="1"/>
+    <row r="656" ht="19.899999999999999" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/giftcodes.xlsx
+++ b/giftcodes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="1601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2849" uniqueCount="1625">
   <si>
     <t>遊戲名稱</t>
   </si>
@@ -5936,6 +5936,107 @@
   </si>
   <si>
     <t>點添加優惠券貼上Cscode跟禮包碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杖劍傳說：坎斯汀之約</t>
+  </si>
+  <si>
+    <t xml:space="preserve">《杖劍傳說》是一款異世界休閒冒險放置RPG。
+在這裡，你將作為冒險者，自由探索坎斯汀世界的每一個角落。
+在這裡撥開地圖迷霧，尋得掉落在各地的珍稀寶物，體驗輕鬆爽快的
+異世界之旅吧。
+當然，在旅途的過程中，你還會邂逅各式各樣夥伴，與他們並肩作
+戰，共同挑戰神秘的聖獸。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>點擊帳號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>進入主畫面後點右下角小方塊圖案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>點擊兌換碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入兌換碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金葉子*3+鳶尾*5+暖陽*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時之沙*300+石塊*100+粗煉石300+歷戰精華1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土雞蛋*3+普通凍乾*5+結緣繩*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZJ666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豐饒之葉*100+命運果實*1+體力*25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZJ777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晨星*200+星之願*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZJ888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳說女神牌*2+史詩女神牌*10+稀有女神牌*20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZJ999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖果小人*2+蜜汁烤肉*3+青草糰子*50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSFB888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有女神牌*10+星之願*1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSDC888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSLINE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6426,10 +6527,10 @@
   <dimension ref="A1:AW656"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D136" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O136" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I152" sqref="I152"/>
+      <selection pane="bottomRight" activeCell="R150" sqref="R150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5"/>
@@ -14953,7 +15054,7 @@
         <v>1439</v>
       </c>
       <c r="C136" s="2" t="str">
-        <f t="shared" ref="C136:C151" si="3">"giftcodesbanner/" &amp; A136 &amp; "-禮包碼.jpg"</f>
+        <f t="shared" ref="C136:C152" si="3">"giftcodesbanner/" &amp; A136 &amp; "-禮包碼.jpg"</f>
         <v>giftcodesbanner/機甲變變變-禮包碼.jpg</v>
       </c>
       <c r="D136" s="5" t="s">
@@ -15834,7 +15935,90 @@
       <c r="Z151" s="14"/>
       <c r="AA151" s="15"/>
     </row>
-    <row r="152" spans="1:31" ht="19.899999999999999" customHeight="1"/>
+    <row r="152" spans="1:31" ht="19.899999999999999" customHeight="1">
+      <c r="A152" s="11" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C152" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>giftcodesbanner/杖劍傳說：坎斯汀之約-禮包碼.jpg</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>1603</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>1605</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>1607</v>
+      </c>
+      <c r="K152" s="2" t="s">
+        <v>1610</v>
+      </c>
+      <c r="L152" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="M152" s="2" t="s">
+        <v>1609</v>
+      </c>
+      <c r="N152" s="2" t="s">
+        <v>1611</v>
+      </c>
+      <c r="O152" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="P152" s="2" t="s">
+        <v>1613</v>
+      </c>
+      <c r="Q152" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="R152" s="2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="S152" s="2" t="s">
+        <v>1616</v>
+      </c>
+      <c r="T152" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="U152" s="2" t="s">
+        <v>1618</v>
+      </c>
+      <c r="V152" s="2" t="s">
+        <v>1619</v>
+      </c>
+      <c r="W152" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="X152" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="Y152" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="Z152" s="2" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AA152" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="AB152" s="2" t="s">
+        <v>1624</v>
+      </c>
+      <c r="AC152" s="2" t="s">
+        <v>1622</v>
+      </c>
+    </row>
     <row r="153" spans="1:31" ht="19.899999999999999" customHeight="1"/>
     <row r="154" spans="1:31" ht="19.899999999999999" customHeight="1"/>
     <row r="155" spans="1:31" ht="19.899999999999999" customHeight="1"/>

--- a/giftcodes.xlsx
+++ b/giftcodes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2849" uniqueCount="1625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="1638">
   <si>
     <t>遊戲名稱</t>
   </si>
@@ -6037,6 +6037,59 @@
   </si>
   <si>
     <t>SSLINE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">《超級海戰：紀元崛起》是一款以未來海戰為主題的策略軍事遊戲。 故事背景設定在2064年，全球海平面上升後，世界重組為三大海上陣營。 玩家將扮演艦隊指揮官，建設基地、研發武器、打造艦隊，並在三大陣營中爭奪海上霸權。
+總體而言，《超級海戰：紀元崛起》是一款玩法豐富，畫面精美的未來海戰策略遊戲，值得玩家期待。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超級海戰：紀元崛起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VENOM99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPECTRE20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJHZKF666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>進入主畫面後點左上角人頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畫面中間偏左"兌換"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入兌換碼/禮包碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戰艦建造令*10+鑽石*50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5分鐘加速*6+中型鋼材捆*3+大型發電機*3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鋼鐵*100K+電力*100K+5分鐘加速*6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戰艦建造令*10+鋼材購買券*10+中級艦長訓練手冊*10+鑽石*100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6527,10 +6580,10 @@
   <dimension ref="A1:AW656"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O136" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B141" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R150" sqref="R150"/>
+      <selection pane="bottomRight" activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5"/>
@@ -15054,7 +15107,7 @@
         <v>1439</v>
       </c>
       <c r="C136" s="2" t="str">
-        <f t="shared" ref="C136:C152" si="3">"giftcodesbanner/" &amp; A136 &amp; "-禮包碼.jpg"</f>
+        <f t="shared" ref="C136:C153" si="3">"giftcodesbanner/" &amp; A136 &amp; "-禮包碼.jpg"</f>
         <v>giftcodesbanner/機甲變變變-禮包碼.jpg</v>
       </c>
       <c r="D136" s="5" t="s">
@@ -16019,7 +16072,51 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="153" spans="1:31" ht="19.899999999999999" customHeight="1"/>
+    <row r="153" spans="1:31" ht="19.899999999999999" customHeight="1">
+      <c r="A153" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C153" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>giftcodesbanner/超級海戰：紀元崛起-禮包碼.jpg</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>1627</v>
+      </c>
+      <c r="K153" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="L153" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="M153" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="N153" s="2" t="s">
+        <v>1629</v>
+      </c>
+      <c r="O153" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="P153" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="Q153" s="2" t="s">
+        <v>1637</v>
+      </c>
+    </row>
     <row r="154" spans="1:31" ht="19.899999999999999" customHeight="1"/>
     <row r="155" spans="1:31" ht="19.899999999999999" customHeight="1"/>
     <row r="156" spans="1:31" ht="19.899999999999999" customHeight="1"/>

--- a/giftcodes.xlsx
+++ b/giftcodes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="1638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2878" uniqueCount="1654">
   <si>
     <t>遊戲名稱</t>
   </si>
@@ -6092,12 +6092,79 @@
     <t>戰艦建造令*10+鋼材購買券*10+中級艦長訓練手冊*10+鑽石*100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>進擊的惡魔團</t>
+  </si>
+  <si>
+    <t>開遊戲進入主畫面後</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右上角的齒輪設定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下登陸優惠券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貼上剛複製好的兌換碼/禮包碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"進擊的惡魔團"
+裡面的惡魔角色頗可愛，月卡黨要打到後面的關卡也沒有很難
+閒著沒事可以點個廣告來看拿獎勵，可以拿到不錯的獎勵，不過我懶得等30秒就很少看。
+遊戲內容就是組自己的惡魔團小隊打關卡升級，畢竟遊戲本體就叫進擊的惡魔團，每一關大概10-15秒很適合拉屎或上班摸魚玩。
+每隻惡魔都有自己的特色和技能，有的很會打、有的很會補，還有一些特別的輔助惡魔，讓你玩起來很有挑戰性，怎麼搭配惡魔組成惡魔團才是關鍵。
+不管是挑戰關卡、PVP對戰，還是限時活動，本身是個非常喜新厭舊的人，進擊的惡魔團目前我是還沒玩膩。
+進擊的惡魔團絕對是一款值得你試試看的免費手遊，一起上班摸魚玩進擊的惡魔團！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hrdbboney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金角瘦骨</t>
+  </si>
+  <si>
+    <t>hellsquadopen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250紅寶+5000金幣+5成長藥水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thanks0715</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store1st</t>
+  </si>
+  <si>
+    <t>appleon1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10K金幣+5隨機惡魔徽章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200紅寶+10K金幣+5成長藥水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20K金幣+20能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6177,6 +6244,20 @@
       <name val="Inherit"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF993300"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -6234,7 +6315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -6273,6 +6354,8 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -6580,10 +6663,10 @@
   <dimension ref="A1:AW656"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B141" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J141" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D153" sqref="D153"/>
+      <selection pane="bottomRight" activeCell="O154" sqref="O154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5"/>
@@ -15107,7 +15190,7 @@
         <v>1439</v>
       </c>
       <c r="C136" s="2" t="str">
-        <f t="shared" ref="C136:C153" si="3">"giftcodesbanner/" &amp; A136 &amp; "-禮包碼.jpg"</f>
+        <f t="shared" ref="C136:C154" si="3">"giftcodesbanner/" &amp; A136 &amp; "-禮包碼.jpg"</f>
         <v>giftcodesbanner/機甲變變變-禮包碼.jpg</v>
       </c>
       <c r="D136" s="5" t="s">
@@ -16117,7 +16200,60 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="154" spans="1:31" ht="19.899999999999999" customHeight="1"/>
+    <row r="154" spans="1:31" ht="19.899999999999999" customHeight="1">
+      <c r="A154" s="2" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C154" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>giftcodesbanner/進擊的惡魔團-禮包碼.jpg</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>1642</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>1644</v>
+      </c>
+      <c r="K154" s="16" t="s">
+        <v>1645</v>
+      </c>
+      <c r="L154" s="2" t="s">
+        <v>1646</v>
+      </c>
+      <c r="M154" s="2" t="s">
+        <v>1647</v>
+      </c>
+      <c r="N154" s="2" t="s">
+        <v>1648</v>
+      </c>
+      <c r="O154" s="2" t="s">
+        <v>1653</v>
+      </c>
+      <c r="P154" s="17" t="s">
+        <v>1649</v>
+      </c>
+      <c r="Q154" s="2" t="s">
+        <v>1652</v>
+      </c>
+      <c r="R154" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="S154" s="2" t="s">
+        <v>1651</v>
+      </c>
+    </row>
     <row r="155" spans="1:31" ht="19.899999999999999" customHeight="1"/>
     <row r="156" spans="1:31" ht="19.899999999999999" customHeight="1"/>
     <row r="157" spans="1:31" ht="19.899999999999999" customHeight="1"/>

--- a/giftcodes.xlsx
+++ b/giftcodes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2878" uniqueCount="1654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2898" uniqueCount="1670">
   <si>
     <t>遊戲名稱</t>
   </si>
@@ -6159,12 +6159,70 @@
     <t>20K金幣+20能量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>RO：Crush</t>
+  </si>
+  <si>
+    <t>蝕影：緋之契</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《蝕影：緋之契》平安時代，京都曾是御神者與鬼怪共存的平衡之地。百年後，一場神秘的「月蝕祭典」撕裂了陰陽兩岸的結界，玉藻前殘魂蘇醒，策劃'血月嫁儀'欲染指現世。玩家將化身「末裔御神者」，手持符咒踏入混沌，收服百鬼，揭開「狐嫁女」與「孟婆」的滅世陰謀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《Ragnarok Crush》有別於以往 RO 常見的 MMORPG 玩法，本作主打休閒策略，遊戲中保留了 RO 經典的職業元素以及養成玩法，在挑戰關卡的過程中，玩家可以透過移動遊戲中的棋子完成合成，並且召喚出高階夥伴，連續合成還可以獲得額外步數，透過合成以及關卡中升級所獲得的隨機能力，挑戰在一波一波的魔物攻勢中生存下來。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OP888888</t>
+  </si>
+  <si>
+    <t>上市典禮專屬獎勵，包含 SSR 卡、抽卡券</t>
+  </si>
+  <si>
+    <t>預約特典，包含內部福利（如經驗加成、道具）</t>
+  </si>
+  <si>
+    <t>同SVIP666多平台序號，領取獎勵相同</t>
+  </si>
+  <si>
+    <t>預約更高階特典，可獲得額外福利</t>
+  </si>
+  <si>
+    <t>遊戲畫面左上角頭像點進去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在設定裡面找到激活碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貼上兌換碼按領取就可以囉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRUSH777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20鑽石+200奧丁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畫面中間下方的兌換碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貼上剛剛複製的兌換碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6258,8 +6316,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6278,8 +6343,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCFCFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -6311,11 +6388,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE1E1E1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE1E1E1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE1E1E1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFE1E1E1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE1E1E1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -6356,6 +6457,21 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -6663,10 +6779,10 @@
   <dimension ref="A1:AW656"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J141" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G141" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O154" sqref="O154"/>
+      <selection pane="bottomRight" activeCell="L150" sqref="L150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5"/>
@@ -15190,7 +15306,7 @@
         <v>1439</v>
       </c>
       <c r="C136" s="2" t="str">
-        <f t="shared" ref="C136:C154" si="3">"giftcodesbanner/" &amp; A136 &amp; "-禮包碼.jpg"</f>
+        <f t="shared" ref="C136:C156" si="3">"giftcodesbanner/" &amp; A136 &amp; "-禮包碼.jpg"</f>
         <v>giftcodesbanner/機甲變變變-禮包碼.jpg</v>
       </c>
       <c r="D136" s="5" t="s">
@@ -16200,7 +16316,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="154" spans="1:31" ht="19.899999999999999" customHeight="1">
+    <row r="154" spans="1:31" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A154" s="2" t="s">
         <v>1638</v>
       </c>
@@ -16254,8 +16370,78 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="155" spans="1:31" ht="19.899999999999999" customHeight="1"/>
-    <row r="156" spans="1:31" ht="19.899999999999999" customHeight="1"/>
+    <row r="155" spans="1:31" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A155" s="18" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C155" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>giftcodesbanner/蝕影：緋之契-禮包碼.jpg</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>1665</v>
+      </c>
+      <c r="J155" s="19" t="s">
+        <v>1658</v>
+      </c>
+      <c r="K155" s="20" t="s">
+        <v>1659</v>
+      </c>
+      <c r="L155" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="M155" s="22" t="s">
+        <v>1660</v>
+      </c>
+      <c r="N155" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="O155" s="20" t="s">
+        <v>1661</v>
+      </c>
+      <c r="P155" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q155" s="22" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="156" spans="1:31" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A156" s="12" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C156" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>giftcodesbanner/RO：Crush-禮包碼.jpg</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>1668</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>1669</v>
+      </c>
+      <c r="J156" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="K156" s="2" t="s">
+        <v>1667</v>
+      </c>
+    </row>
     <row r="157" spans="1:31" ht="19.899999999999999" customHeight="1"/>
     <row r="158" spans="1:31" ht="19.899999999999999" customHeight="1"/>
     <row r="159" spans="1:31" ht="19.899999999999999" customHeight="1"/>
